--- a/df_odds.xlsx
+++ b/df_odds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="241">
   <si>
     <t>Nº</t>
   </si>
@@ -52,21 +52,27 @@
     <t>Pred_A</t>
   </si>
   <si>
+    <t>15:45</t>
+  </si>
+  <si>
     <t>16:00</t>
   </si>
   <si>
+    <t>15:30</t>
+  </si>
+  <si>
     <t>14:30</t>
   </si>
   <si>
-    <t>17:00</t>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>18:30</t>
   </si>
   <si>
     <t>21:00</t>
   </si>
   <si>
-    <t>08:30</t>
-  </si>
-  <si>
     <t>11:00</t>
   </si>
   <si>
@@ -76,10 +82,7 @@
     <t>12:00</t>
   </si>
   <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>18:30</t>
+    <t>10:30</t>
   </si>
   <si>
     <t>10:00</t>
@@ -94,484 +97,646 @@
     <t>12:05</t>
   </si>
   <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
     <t>20:00</t>
   </si>
   <si>
+    <t>14:00</t>
+  </si>
+  <si>
     <t>ENGLAND</t>
   </si>
   <si>
     <t>FRANCE</t>
   </si>
   <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
     <t>SPAIN</t>
   </si>
   <si>
     <t>BRAZIL</t>
   </si>
   <si>
-    <t>PREMIER LEAGUE - ROUND 1</t>
-  </si>
-  <si>
-    <t>LIGUE 1 - ROUND 1</t>
-  </si>
-  <si>
-    <t>LALIGA - ROUND 1</t>
-  </si>
-  <si>
-    <t>SERIE A - ROUND 19</t>
-  </si>
-  <si>
-    <t>Burnley</t>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>PREMIER LEAGUE - ROUND 2</t>
+  </si>
+  <si>
+    <t>LIGUE 1 - ROUND 2</t>
+  </si>
+  <si>
+    <t>BUNDESLIGA - ROUND 1</t>
+  </si>
+  <si>
+    <t>LALIGA - ROUND 2</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 20</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 1</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Vasco da Gama</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Botafogo RJ</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>America MG</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Paris Saint Germain</t>
+  </si>
+  <si>
+    <t>Monchengladbach</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Koln</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Atletico Mineiro</t>
+  </si>
+  <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Almeria</t>
+    <t>Clermont Foot</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Mainz 05</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Atletico Paranaense</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Milan</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>Botafogo RJ</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Brighton and Hove Albion</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Sheffield Utd</t>
-  </si>
-  <si>
-    <t>Newcastle United</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Paris Saint Germain</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>Atletico Mineiro</t>
-  </si>
-  <si>
-    <t>America MG</t>
-  </si>
-  <si>
-    <t>Corinthians</t>
-  </si>
-  <si>
-    <t>Gremio</t>
-  </si>
-  <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont Foot</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Bragantino</t>
-  </si>
-  <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Atletico Madrid</t>
-  </si>
-  <si>
-    <t>Atletico Paranaense</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Rayo Vallecano</t>
   </si>
   <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Internacional</t>
-  </si>
-  <si>
-    <t>Nottingham Forest</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Goias</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
-    <t>Fluminense</t>
-  </si>
-  <si>
-    <t>Sao Paulo</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Real Betis</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
-    <t>Vasco da Gama</t>
-  </si>
-  <si>
-    <t>Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Granada CF</t>
-  </si>
-  <si>
-    <t>Cuiaba</t>
-  </si>
-  <si>
-    <t>9.40</t>
-  </si>
-  <si>
-    <t>2.68</t>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>2.75</t>
   </si>
   <si>
     <t>2.45</t>
   </si>
   <si>
-    <t>1.95</t>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>2.35</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>2.72</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>1.78</t>
-  </si>
-  <si>
-    <t>1.65</t>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>7.20</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>3.55</t>
   </si>
   <si>
     <t>1.28</t>
   </si>
   <si>
-    <t>1.63</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>1.90</t>
-  </si>
-  <si>
-    <t>1.80</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>2.92</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>1.88</t>
-  </si>
-  <si>
-    <t>1.41</t>
-  </si>
-  <si>
-    <t>2.48</t>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>5.20</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>7.80</t>
+  </si>
+  <si>
+    <t>2.55</t>
   </si>
   <si>
     <t>2.10</t>
   </si>
   <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>5.60</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>7.90</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>5.65</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>5.85</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>2.95</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>17.50</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>9.80</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>9.70</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>2.38</t>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>7.30</t>
+  </si>
+  <si>
+    <t>2.28</t>
   </si>
   <si>
     <t>2.08</t>
   </si>
   <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>7.80</t>
-  </si>
-  <si>
-    <t>1.60</t>
-  </si>
-  <si>
-    <t>11.00</t>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>2.85</t>
   </si>
 </sst>
 </file>
@@ -933,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -994,22 +1159,22 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="J2" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="K2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L2">
         <v>0.18</v>
@@ -1023,40 +1188,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="J3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="K3" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="L3">
-        <v>0.64</v>
+        <v>0.18</v>
       </c>
       <c r="M3">
-        <v>0.36</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1064,40 +1229,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="K4" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="L4">
-        <v>0.5600000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="M4">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1105,40 +1270,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="K5" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="L5">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
       <c r="M5">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1146,40 +1311,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2">
-        <v>45150</v>
+        <v>45156</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="K6" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="L6">
-        <v>0.55</v>
+        <v>0.2</v>
       </c>
       <c r="M6">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1187,40 +1352,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>187</v>
+        <v>404</v>
       </c>
       <c r="C7" s="2">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K7" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="L7">
-        <v>0.92</v>
+        <v>0.73</v>
       </c>
       <c r="M7">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1228,40 +1393,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>188</v>
+        <v>405</v>
       </c>
       <c r="C8" s="2">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="J8" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="K8" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="L8">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="M8">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1269,40 +1434,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>189</v>
+        <v>406</v>
       </c>
       <c r="C9" s="2">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="K9" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L9">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="M9">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1310,40 +1475,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>190</v>
+        <v>407</v>
       </c>
       <c r="C10" s="2">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="K10" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="L10">
-        <v>0.35</v>
+        <v>0.71</v>
       </c>
       <c r="M10">
-        <v>0.65</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1351,40 +1516,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>191</v>
+        <v>408</v>
       </c>
       <c r="C11" s="2">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="J11" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="L11">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="M11">
-        <v>0.82</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1392,40 +1557,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="C12" s="2">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="K12" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="L12">
-        <v>0.7</v>
+        <v>0.43</v>
       </c>
       <c r="M12">
-        <v>0.3</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1433,40 +1598,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="C13" s="2">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="L13">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="M13">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1474,40 +1639,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="C14" s="2">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L14">
-        <v>0.77</v>
+        <v>0.41</v>
       </c>
       <c r="M14">
-        <v>0.23</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1515,40 +1680,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>199</v>
+        <v>307</v>
       </c>
       <c r="C15" s="2">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="L15">
-        <v>0.76</v>
+        <v>0.48</v>
       </c>
       <c r="M15">
-        <v>0.24</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1556,40 +1721,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="C16" s="2">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="L16">
-        <v>0.18</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M16">
-        <v>0.82</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1597,40 +1762,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>201</v>
+        <v>310</v>
       </c>
       <c r="C17" s="2">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="L17">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="M17">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1638,40 +1803,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>824</v>
+        <v>311</v>
       </c>
       <c r="C18" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="L18">
-        <v>0.83</v>
+        <v>0.34</v>
       </c>
       <c r="M18">
-        <v>0.17</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1679,40 +1844,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>825</v>
+        <v>312</v>
       </c>
       <c r="C19" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="L19">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="M19">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1720,40 +1885,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>826</v>
+        <v>313</v>
       </c>
       <c r="C20" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L20">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="M20">
-        <v>0.21</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1761,40 +1926,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>827</v>
+        <v>314</v>
       </c>
       <c r="C21" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L21">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="M21">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1802,40 +1967,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>828</v>
+        <v>315</v>
       </c>
       <c r="C22" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="L22">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="M22">
-        <v>0.22</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1843,40 +2008,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>829</v>
+        <v>316</v>
       </c>
       <c r="C23" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="J23" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="L23">
-        <v>0.66</v>
+        <v>0.18</v>
       </c>
       <c r="M23">
-        <v>0.34</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1884,40 +2049,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>710</v>
+        <v>317</v>
       </c>
       <c r="C24" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="L24">
-        <v>0.59</v>
+        <v>0.82</v>
       </c>
       <c r="M24">
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1925,40 +2090,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>711</v>
+        <v>318</v>
       </c>
       <c r="C25" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K25" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L25">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="M25">
-        <v>0.61</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1966,40 +2131,40 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>712</v>
+        <v>319</v>
       </c>
       <c r="C26" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="J26" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="L26">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="M26">
-        <v>0.68</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2007,40 +2172,40 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>713</v>
+        <v>320</v>
       </c>
       <c r="C27" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="I27" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="J27" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="L27">
-        <v>0.55</v>
+        <v>0.18</v>
       </c>
       <c r="M27">
-        <v>0.45</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2048,40 +2213,40 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>714</v>
+        <v>321</v>
       </c>
       <c r="C28" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="L28">
-        <v>0.18</v>
+        <v>0.72</v>
       </c>
       <c r="M28">
-        <v>0.82</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2089,40 +2254,40 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>715</v>
+        <v>326</v>
       </c>
       <c r="C29" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="I29" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="J29" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="K29" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="L29">
-        <v>0.31</v>
+        <v>0.85</v>
       </c>
       <c r="M29">
-        <v>0.6899999999999999</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2130,40 +2295,40 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>716</v>
+        <v>327</v>
       </c>
       <c r="C30" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="I30" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="J30" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L30">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="M30">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2171,40 +2336,40 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>717</v>
+        <v>328</v>
       </c>
       <c r="C31" s="2">
-        <v>45151</v>
+        <v>45157</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="J31" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K31" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="L31">
-        <v>0.43</v>
+        <v>0.66</v>
       </c>
       <c r="M31">
-        <v>0.57</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2212,40 +2377,40 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>722</v>
+        <v>1034</v>
       </c>
       <c r="C32" s="2">
-        <v>45151</v>
+        <v>45158</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="J32" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="K32" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="L32">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
       <c r="M32">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2253,40 +2418,40 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>723</v>
+        <v>1035</v>
       </c>
       <c r="C33" s="2">
-        <v>45151</v>
+        <v>45158</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I33" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="K33" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="L33">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="M33">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2294,40 +2459,40 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>724</v>
+        <v>1036</v>
       </c>
       <c r="C34" s="2">
-        <v>45151</v>
+        <v>45158</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="I34" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="J34" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="K34" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="L34">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="M34">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2335,40 +2500,40 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1140</v>
+        <v>1037</v>
       </c>
       <c r="C35" s="2">
-        <v>45152</v>
+        <v>45158</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="I35" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="J35" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="L35">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="M35">
-        <v>0.07000000000000001</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2376,40 +2541,40 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1141</v>
+        <v>881</v>
       </c>
       <c r="C36" s="2">
-        <v>45152</v>
+        <v>45158</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I36" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="J36" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="L36">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="M36">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2417,40 +2582,40 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1130</v>
+        <v>882</v>
       </c>
       <c r="C37" s="2">
-        <v>45152</v>
+        <v>45158</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
         <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="I37" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="K37" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="L37">
-        <v>0.93</v>
+        <v>0.52</v>
       </c>
       <c r="M37">
-        <v>0.07000000000000001</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2458,40 +2623,40 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1131</v>
+        <v>883</v>
       </c>
       <c r="C38" s="2">
-        <v>45152</v>
+        <v>45158</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="I38" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="J38" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="K38" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="L38">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="M38">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2499,34 +2664,34 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1132</v>
+        <v>884</v>
       </c>
       <c r="C39" s="2">
-        <v>45152</v>
+        <v>45158</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I39" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="J39" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="K39" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L39">
         <v>0.18</v>
@@ -2540,40 +2705,778 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1235</v>
+        <v>885</v>
       </c>
       <c r="C40" s="2">
-        <v>45153</v>
+        <v>45158</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="I40" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="J40" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="K40" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="L40">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
       <c r="M40">
-        <v>0.29</v>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>886</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" t="s">
+        <v>188</v>
+      </c>
+      <c r="J41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K41" t="s">
+        <v>209</v>
+      </c>
+      <c r="L41">
+        <v>0.46</v>
+      </c>
+      <c r="M41">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>887</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45158</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42" t="s">
+        <v>179</v>
+      </c>
+      <c r="J42" t="s">
+        <v>217</v>
+      </c>
+      <c r="K42" t="s">
+        <v>195</v>
+      </c>
+      <c r="L42">
+        <v>0.77</v>
+      </c>
+      <c r="M42">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>888</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" t="s">
+        <v>139</v>
+      </c>
+      <c r="I43" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" t="s">
+        <v>194</v>
+      </c>
+      <c r="K43" t="s">
+        <v>181</v>
+      </c>
+      <c r="L43">
+        <v>0.7</v>
+      </c>
+      <c r="M43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>889</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" t="s">
+        <v>190</v>
+      </c>
+      <c r="J44" t="s">
+        <v>214</v>
+      </c>
+      <c r="K44" t="s">
+        <v>222</v>
+      </c>
+      <c r="L44">
+        <v>0.76</v>
+      </c>
+      <c r="M44">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>890</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45158</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" t="s">
+        <v>191</v>
+      </c>
+      <c r="J45" t="s">
+        <v>212</v>
+      </c>
+      <c r="K45" t="s">
+        <v>180</v>
+      </c>
+      <c r="L45">
+        <v>0.18</v>
+      </c>
+      <c r="M45">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>891</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" t="s">
+        <v>192</v>
+      </c>
+      <c r="J46" t="s">
+        <v>218</v>
+      </c>
+      <c r="K46" t="s">
+        <v>198</v>
+      </c>
+      <c r="L46">
+        <v>0.77</v>
+      </c>
+      <c r="M46">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>892</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45158</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" t="s">
+        <v>193</v>
+      </c>
+      <c r="J47" t="s">
+        <v>194</v>
+      </c>
+      <c r="K47" t="s">
+        <v>236</v>
+      </c>
+      <c r="L47">
+        <v>0.42</v>
+      </c>
+      <c r="M47">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>893</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45158</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" t="s">
+        <v>194</v>
+      </c>
+      <c r="J48" t="s">
+        <v>193</v>
+      </c>
+      <c r="K48" t="s">
+        <v>236</v>
+      </c>
+      <c r="L48">
+        <v>0.32</v>
+      </c>
+      <c r="M48">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>894</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45158</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" t="s">
+        <v>195</v>
+      </c>
+      <c r="J49" t="s">
+        <v>219</v>
+      </c>
+      <c r="K49" t="s">
+        <v>155</v>
+      </c>
+      <c r="L49">
+        <v>0.42</v>
+      </c>
+      <c r="M49">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>899</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45158</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" t="s">
+        <v>160</v>
+      </c>
+      <c r="J50" t="s">
+        <v>204</v>
+      </c>
+      <c r="K50" t="s">
+        <v>210</v>
+      </c>
+      <c r="L50">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M50">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>900</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" t="s">
+        <v>147</v>
+      </c>
+      <c r="I51" t="s">
+        <v>196</v>
+      </c>
+      <c r="J51" t="s">
+        <v>203</v>
+      </c>
+      <c r="K51" t="s">
+        <v>237</v>
+      </c>
+      <c r="L51">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M51">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>901</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45158</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" t="s">
+        <v>148</v>
+      </c>
+      <c r="I52" t="s">
+        <v>197</v>
+      </c>
+      <c r="J52" t="s">
+        <v>214</v>
+      </c>
+      <c r="K52" t="s">
+        <v>160</v>
+      </c>
+      <c r="L52">
+        <v>0.18</v>
+      </c>
+      <c r="M52">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1357</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45159</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" t="s">
+        <v>183</v>
+      </c>
+      <c r="J53" t="s">
+        <v>204</v>
+      </c>
+      <c r="K53" t="s">
+        <v>201</v>
+      </c>
+      <c r="L53">
+        <v>0.49</v>
+      </c>
+      <c r="M53">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1340</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45159</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J54" t="s">
+        <v>210</v>
+      </c>
+      <c r="K54" t="s">
+        <v>238</v>
+      </c>
+      <c r="L54">
+        <v>0.37</v>
+      </c>
+      <c r="M54">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1341</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45159</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" t="s">
+        <v>199</v>
+      </c>
+      <c r="J55" t="s">
+        <v>194</v>
+      </c>
+      <c r="K55" t="s">
+        <v>213</v>
+      </c>
+      <c r="L55">
+        <v>0.18</v>
+      </c>
+      <c r="M55">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1342</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45159</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" t="s">
+        <v>95</v>
+      </c>
+      <c r="H56" t="s">
+        <v>152</v>
+      </c>
+      <c r="I56" t="s">
+        <v>194</v>
+      </c>
+      <c r="J56" t="s">
+        <v>206</v>
+      </c>
+      <c r="K56" t="s">
+        <v>239</v>
+      </c>
+      <c r="L56">
+        <v>0.46</v>
+      </c>
+      <c r="M56">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1343</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45159</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
+        <v>96</v>
+      </c>
+      <c r="H57" t="s">
+        <v>153</v>
+      </c>
+      <c r="I57" t="s">
+        <v>200</v>
+      </c>
+      <c r="J57" t="s">
+        <v>161</v>
+      </c>
+      <c r="K57" t="s">
+        <v>175</v>
+      </c>
+      <c r="L57">
+        <v>0.19</v>
+      </c>
+      <c r="M57">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1344</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45159</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" t="s">
+        <v>154</v>
+      </c>
+      <c r="I58" t="s">
+        <v>201</v>
+      </c>
+      <c r="J58" t="s">
+        <v>204</v>
+      </c>
+      <c r="K58" t="s">
+        <v>240</v>
+      </c>
+      <c r="L58">
+        <v>0.18</v>
+      </c>
+      <c r="M58">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds.xlsx
+++ b/df_odds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="244">
   <si>
     <t>Nº</t>
   </si>
@@ -499,196 +499,202 @@
     <t>2.05</t>
   </si>
   <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
     <t>3.10</t>
   </si>
   <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>2.72</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>2.82</t>
-  </si>
-  <si>
-    <t>1.65</t>
-  </si>
-  <si>
-    <t>1.70</t>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>7.20</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>3.55</t>
   </si>
   <si>
     <t>4.45</t>
   </si>
   <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>8.70</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.80</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>1.82</t>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>2.60</t>
   </si>
   <si>
     <t>2.35</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>6.30</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>7.20</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>4.30</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>3.90</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
     <t>4.00</t>
   </si>
   <si>
+    <t>2.68</t>
+  </si>
+  <si>
     <t>12.50</t>
   </si>
   <si>
-    <t>2.42</t>
+    <t>2.32</t>
   </si>
   <si>
     <t>5.20</t>
@@ -715,13 +721,16 @@
     <t>5.35</t>
   </si>
   <si>
-    <t>1.98</t>
+    <t>1.92</t>
   </si>
   <si>
     <t>7.30</t>
   </si>
   <si>
     <t>2.28</t>
+  </si>
+  <si>
+    <t>2.78</t>
   </si>
   <si>
     <t>2.08</t>
@@ -1147,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2">
         <v>45156</v>
@@ -1174,13 +1183,7 @@
         <v>202</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L2">
-        <v>0.18</v>
-      </c>
-      <c r="M2">
-        <v>0.82</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1188,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2">
         <v>45156</v>
@@ -1215,13 +1218,7 @@
         <v>156</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L3">
-        <v>0.18</v>
-      </c>
-      <c r="M3">
-        <v>0.82</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1229,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2">
         <v>45156</v>
@@ -1270,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2">
         <v>45156</v>
@@ -1294,7 +1291,7 @@
         <v>158</v>
       </c>
       <c r="J5" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="K5" t="s">
         <v>221</v>
@@ -1311,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2">
         <v>45156</v>
@@ -1339,12 +1336,6 @@
       </c>
       <c r="K6" t="s">
         <v>212</v>
-      </c>
-      <c r="L6">
-        <v>0.2</v>
-      </c>
-      <c r="M6">
-        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1352,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C7" s="2">
         <v>45157</v>
@@ -1393,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C8" s="2">
         <v>45157</v>
@@ -1414,13 +1405,13 @@
         <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L8">
         <v>0.52</v>
@@ -1434,7 +1425,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C9" s="2">
         <v>45157</v>
@@ -1455,13 +1446,13 @@
         <v>105</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J9" t="s">
         <v>204</v>
       </c>
       <c r="K9" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="L9">
         <v>0.35</v>
@@ -1475,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C10" s="2">
         <v>45157</v>
@@ -1496,7 +1487,7 @@
         <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J10" t="s">
         <v>205</v>
@@ -1516,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C11" s="2">
         <v>45157</v>
@@ -1537,13 +1528,13 @@
         <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J11" t="s">
         <v>200</v>
       </c>
       <c r="K11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L11">
         <v>0.36</v>
@@ -1557,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C12" s="2">
         <v>45157</v>
@@ -1578,13 +1569,13 @@
         <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
         <v>206</v>
       </c>
       <c r="K12" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L12">
         <v>0.43</v>
@@ -1598,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C13" s="2">
         <v>45157</v>
@@ -1619,13 +1610,13 @@
         <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J13" t="s">
         <v>207</v>
       </c>
       <c r="K13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L13">
         <v>0.86</v>
@@ -1639,7 +1630,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C14" s="2">
         <v>45157</v>
@@ -1660,13 +1651,13 @@
         <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14">
         <v>0.41</v>
@@ -1680,7 +1671,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C15" s="2">
         <v>45157</v>
@@ -1701,13 +1692,13 @@
         <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
         <v>197</v>
       </c>
       <c r="K15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L15">
         <v>0.48</v>
@@ -1721,7 +1712,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C16" s="2">
         <v>45157</v>
@@ -1742,13 +1733,13 @@
         <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
         <v>208</v>
       </c>
       <c r="K16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L16">
         <v>0.6899999999999999</v>
@@ -1762,7 +1753,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C17" s="2">
         <v>45157</v>
@@ -1783,7 +1774,7 @@
         <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
         <v>209</v>
@@ -1803,7 +1794,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C18" s="2">
         <v>45157</v>
@@ -1824,13 +1815,13 @@
         <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L18">
         <v>0.34</v>
@@ -1844,7 +1835,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C19" s="2">
         <v>45157</v>
@@ -1865,13 +1856,13 @@
         <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
         <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L19">
         <v>0.48</v>
@@ -1885,7 +1876,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C20" s="2">
         <v>45157</v>
@@ -1906,13 +1897,13 @@
         <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
         <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L20">
         <v>0.45</v>
@@ -1926,7 +1917,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C21" s="2">
         <v>45157</v>
@@ -1947,13 +1938,13 @@
         <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
         <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L21">
         <v>0.4</v>
@@ -1967,7 +1958,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C22" s="2">
         <v>45157</v>
@@ -1988,7 +1979,7 @@
         <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J22" t="s">
         <v>210</v>
@@ -2008,7 +1999,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C23" s="2">
         <v>45157</v>
@@ -2029,19 +2020,13 @@
         <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J23" t="s">
         <v>211</v>
       </c>
       <c r="K23" t="s">
         <v>212</v>
-      </c>
-      <c r="L23">
-        <v>0.18</v>
-      </c>
-      <c r="M23">
-        <v>0.82</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2049,7 +2034,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C24" s="2">
         <v>45157</v>
@@ -2070,13 +2055,13 @@
         <v>120</v>
       </c>
       <c r="I24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J24" t="s">
         <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L24">
         <v>0.82</v>
@@ -2090,7 +2075,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C25" s="2">
         <v>45157</v>
@@ -2111,13 +2096,13 @@
         <v>121</v>
       </c>
       <c r="I25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L25">
         <v>0.72</v>
@@ -2131,7 +2116,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C26" s="2">
         <v>45157</v>
@@ -2152,19 +2137,13 @@
         <v>122</v>
       </c>
       <c r="I26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J26" t="s">
         <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
-      </c>
-      <c r="L26">
-        <v>0.18</v>
-      </c>
-      <c r="M26">
-        <v>0.82</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2172,7 +2151,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C27" s="2">
         <v>45157</v>
@@ -2193,19 +2172,13 @@
         <v>123</v>
       </c>
       <c r="I27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
-      </c>
-      <c r="L27">
-        <v>0.18</v>
-      </c>
-      <c r="M27">
-        <v>0.82</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2213,7 +2186,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C28" s="2">
         <v>45157</v>
@@ -2234,13 +2207,13 @@
         <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J28" t="s">
         <v>213</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L28">
         <v>0.72</v>
@@ -2254,7 +2227,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C29" s="2">
         <v>45157</v>
@@ -2275,7 +2248,7 @@
         <v>125</v>
       </c>
       <c r="I29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J29" t="s">
         <v>214</v>
@@ -2295,7 +2268,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C30" s="2">
         <v>45157</v>
@@ -2316,13 +2289,13 @@
         <v>126</v>
       </c>
       <c r="I30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J30" t="s">
         <v>212</v>
       </c>
       <c r="K30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L30">
         <v>0.33</v>
@@ -2336,7 +2309,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C31" s="2">
         <v>45157</v>
@@ -2357,10 +2330,10 @@
         <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K31" t="s">
         <v>201</v>
@@ -2377,7 +2350,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C32" s="2">
         <v>45158</v>
@@ -2398,13 +2371,13 @@
         <v>128</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J32" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="K32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L32">
         <v>0.34</v>
@@ -2418,7 +2391,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C33" s="2">
         <v>45158</v>
@@ -2439,13 +2412,13 @@
         <v>129</v>
       </c>
       <c r="I33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L33">
         <v>0.43</v>
@@ -2459,7 +2432,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C34" s="2">
         <v>45158</v>
@@ -2480,13 +2453,13 @@
         <v>130</v>
       </c>
       <c r="I34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J34" t="s">
         <v>214</v>
       </c>
       <c r="K34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L34">
         <v>0.48</v>
@@ -2500,7 +2473,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C35" s="2">
         <v>45158</v>
@@ -2521,10 +2494,10 @@
         <v>131</v>
       </c>
       <c r="I35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J35" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="K35" t="s">
         <v>221</v>
@@ -2541,7 +2514,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C36" s="2">
         <v>45158</v>
@@ -2562,13 +2535,13 @@
         <v>132</v>
       </c>
       <c r="I36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J36" t="s">
         <v>215</v>
       </c>
       <c r="K36" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L36">
         <v>0.83</v>
@@ -2582,7 +2555,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C37" s="2">
         <v>45158</v>
@@ -2603,13 +2576,13 @@
         <v>133</v>
       </c>
       <c r="I37" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="J37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L37">
         <v>0.52</v>
@@ -2623,7 +2596,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C38" s="2">
         <v>45158</v>
@@ -2644,13 +2617,13 @@
         <v>134</v>
       </c>
       <c r="I38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J38" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="K38" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L38">
         <v>0.92</v>
@@ -2664,7 +2637,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C39" s="2">
         <v>45158</v>
@@ -2685,19 +2658,13 @@
         <v>135</v>
       </c>
       <c r="I39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K39" t="s">
-        <v>171</v>
-      </c>
-      <c r="L39">
-        <v>0.18</v>
-      </c>
-      <c r="M39">
-        <v>0.82</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2705,7 +2672,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C40" s="2">
         <v>45158</v>
@@ -2726,13 +2693,13 @@
         <v>136</v>
       </c>
       <c r="I40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J40" t="s">
         <v>206</v>
       </c>
       <c r="K40" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L40">
         <v>0.51</v>
@@ -2746,7 +2713,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C41" s="2">
         <v>45158</v>
@@ -2767,10 +2734,10 @@
         <v>137</v>
       </c>
       <c r="I41" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K41" t="s">
         <v>209</v>
@@ -2787,7 +2754,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C42" s="2">
         <v>45158</v>
@@ -2808,13 +2775,13 @@
         <v>138</v>
       </c>
       <c r="I42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K42" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L42">
         <v>0.77</v>
@@ -2828,7 +2795,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C43" s="2">
         <v>45158</v>
@@ -2849,13 +2816,13 @@
         <v>139</v>
       </c>
       <c r="I43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K43" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="L43">
         <v>0.7</v>
@@ -2869,7 +2836,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C44" s="2">
         <v>45158</v>
@@ -2890,13 +2857,13 @@
         <v>140</v>
       </c>
       <c r="I44" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="J44" t="s">
         <v>214</v>
       </c>
       <c r="K44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L44">
         <v>0.76</v>
@@ -2910,7 +2877,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C45" s="2">
         <v>45158</v>
@@ -2931,19 +2898,13 @@
         <v>141</v>
       </c>
       <c r="I45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J45" t="s">
         <v>212</v>
       </c>
       <c r="K45" t="s">
-        <v>180</v>
-      </c>
-      <c r="L45">
-        <v>0.18</v>
-      </c>
-      <c r="M45">
-        <v>0.82</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2951,7 +2912,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C46" s="2">
         <v>45158</v>
@@ -2972,10 +2933,10 @@
         <v>142</v>
       </c>
       <c r="I46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K46" t="s">
         <v>198</v>
@@ -2992,7 +2953,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C47" s="2">
         <v>45158</v>
@@ -3013,13 +2974,13 @@
         <v>143</v>
       </c>
       <c r="I47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K47" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L47">
         <v>0.42</v>
@@ -3033,7 +2994,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C48" s="2">
         <v>45158</v>
@@ -3054,13 +3015,13 @@
         <v>144</v>
       </c>
       <c r="I48" t="s">
+        <v>195</v>
+      </c>
+      <c r="J48" t="s">
         <v>194</v>
       </c>
-      <c r="J48" t="s">
-        <v>193</v>
-      </c>
       <c r="K48" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L48">
         <v>0.32</v>
@@ -3074,7 +3035,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C49" s="2">
         <v>45158</v>
@@ -3095,10 +3056,10 @@
         <v>145</v>
       </c>
       <c r="I49" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K49" t="s">
         <v>155</v>
@@ -3115,7 +3076,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C50" s="2">
         <v>45158</v>
@@ -3139,7 +3100,7 @@
         <v>160</v>
       </c>
       <c r="J50" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="K50" t="s">
         <v>210</v>
@@ -3156,7 +3117,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C51" s="2">
         <v>45158</v>
@@ -3183,7 +3144,7 @@
         <v>203</v>
       </c>
       <c r="K51" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L51">
         <v>0.9399999999999999</v>
@@ -3197,7 +3158,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C52" s="2">
         <v>45158</v>
@@ -3225,12 +3186,6 @@
       </c>
       <c r="K52" t="s">
         <v>160</v>
-      </c>
-      <c r="L52">
-        <v>0.18</v>
-      </c>
-      <c r="M52">
-        <v>0.82</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3259,10 +3214,10 @@
         <v>149</v>
       </c>
       <c r="I53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J53" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="K53" t="s">
         <v>201</v>
@@ -3306,7 +3261,7 @@
         <v>210</v>
       </c>
       <c r="K54" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L54">
         <v>0.37</v>
@@ -3344,16 +3299,10 @@
         <v>199</v>
       </c>
       <c r="J55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K55" t="s">
         <v>213</v>
-      </c>
-      <c r="L55">
-        <v>0.18</v>
-      </c>
-      <c r="M55">
-        <v>0.82</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3382,13 +3331,13 @@
         <v>152</v>
       </c>
       <c r="I56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J56" t="s">
         <v>206</v>
       </c>
       <c r="K56" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L56">
         <v>0.46</v>
@@ -3426,16 +3375,10 @@
         <v>200</v>
       </c>
       <c r="J57" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="K57" t="s">
-        <v>175</v>
-      </c>
-      <c r="L57">
-        <v>0.19</v>
-      </c>
-      <c r="M57">
-        <v>0.8100000000000001</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3467,16 +3410,10 @@
         <v>201</v>
       </c>
       <c r="J58" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="K58" t="s">
-        <v>240</v>
-      </c>
-      <c r="L58">
-        <v>0.18</v>
-      </c>
-      <c r="M58">
-        <v>0.82</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds.xlsx
+++ b/df_odds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="233">
   <si>
     <t>Nº</t>
   </si>
@@ -52,57 +52,54 @@
     <t>Pred_A</t>
   </si>
   <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
     <t>15:45</t>
   </si>
   <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>18:30</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>10:30</t>
+    <t>12:30</t>
   </si>
   <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>12:30</t>
-  </si>
-  <si>
     <t>08:00</t>
   </si>
   <si>
     <t>12:05</t>
   </si>
   <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
     <t>ENGLAND</t>
   </si>
   <si>
@@ -121,631 +118,601 @@
     <t>ITALY</t>
   </si>
   <si>
-    <t>PREMIER LEAGUE - ROUND 2</t>
-  </si>
-  <si>
-    <t>LIGUE 1 - ROUND 2</t>
-  </si>
-  <si>
-    <t>BUNDESLIGA - ROUND 1</t>
-  </si>
-  <si>
-    <t>LALIGA - ROUND 2</t>
-  </si>
-  <si>
-    <t>SERIE A - ROUND 20</t>
-  </si>
-  <si>
-    <t>SERIE A - ROUND 1</t>
+    <t>PREMIER LEAGUE - ROUND 3</t>
+  </si>
+  <si>
+    <t>LIGUE 1 - ROUND 3</t>
+  </si>
+  <si>
+    <t>BUNDESLIGA - ROUND 2</t>
+  </si>
+  <si>
+    <t>LALIGA - ROUND 3</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 21</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 2</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Paris Saint Germain</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Koln</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Monchengladbach</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
+    <t>America MG</t>
+  </si>
+  <si>
+    <t>Botafogo RJ</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>Atletico Paranaense</t>
+  </si>
+  <si>
+    <t>Atletico Mineiro</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Clermont Foot</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Mainz 05</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
   </si>
   <si>
     <t>Nottingham Forest</t>
   </si>
   <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>Vasco da Gama</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
     <t>Metz</t>
   </si>
   <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Internacional</t>
-  </si>
-  <si>
-    <t>Sao Paulo</t>
-  </si>
-  <si>
-    <t>Cuiaba</t>
-  </si>
-  <si>
-    <t>Fluminense</t>
-  </si>
-  <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lille</t>
   </si>
   <si>
     <t>Lyon</t>
   </si>
   <si>
-    <t>Toulouse</t>
+    <t>Eintracht Frankfurt</t>
   </si>
   <si>
     <t>Augsburg</t>
   </si>
   <si>
-    <t>Bayer Leverkusen</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Bologna</t>
   </si>
   <si>
     <t>Genoa</t>
   </si>
   <si>
-    <t>Internazionale</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Almeria</t>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
   </si>
   <si>
     <t>Osasuna</t>
   </si>
   <si>
-    <t>Vasco da Gama</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Eintracht Frankfurt</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
     <t>Real Betis</t>
   </si>
   <si>
-    <t>Goias</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Granada CF</t>
-  </si>
-  <si>
-    <t>Sheffield Utd</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
-    <t>Botafogo RJ</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>America MG</t>
-  </si>
-  <si>
-    <t>Corinthians</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Brighton and Hove Albion</t>
-  </si>
-  <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>Newcastle United</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Paris Saint Germain</t>
-  </si>
-  <si>
-    <t>Monchengladbach</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Koln</t>
-  </si>
-  <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>Atletico Mineiro</t>
-  </si>
-  <si>
-    <t>Bragantino</t>
-  </si>
-  <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
-    <t>Gremio</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Clermont Foot</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Mainz 05</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Atletico Madrid</t>
-  </si>
-  <si>
-    <t>Atletico Paranaense</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano</t>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>6.90</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>5.80</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>4.70</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>5.85</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>14.50</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>9.80</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
+    <t>5.40</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>5.90</t>
   </si>
   <si>
     <t>1.90</t>
   </si>
   <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>9.50</t>
-  </si>
-  <si>
-    <t>2.95</t>
-  </si>
-  <si>
-    <t>1.78</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>2.00</t>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>7.30</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>2.92</t>
   </si>
   <si>
     <t>3.20</t>
   </si>
   <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>2.72</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>2.98</t>
-  </si>
-  <si>
-    <t>1.65</t>
-  </si>
-  <si>
-    <t>1.70</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>8.70</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.80</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>2.70</t>
   </si>
   <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>1.82</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>6.30</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>7.20</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>4.30</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>3.90</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>5.20</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>7.80</t>
-  </si>
-  <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>1.92</t>
-  </si>
-  <si>
-    <t>7.30</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>2.78</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>2.02</t>
-  </si>
-  <si>
-    <t>2.85</t>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>6.40</t>
+  </si>
+  <si>
+    <t>9.70</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,34 +1123,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>97</v>
+        <v>415</v>
       </c>
       <c r="C2" s="2">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="K2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1191,34 +1158,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>98</v>
+        <v>416</v>
       </c>
       <c r="C3" s="2">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+      <c r="L3">
+        <v>0.35</v>
+      </c>
+      <c r="M3">
+        <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1226,40 +1199,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>99</v>
+        <v>417</v>
       </c>
       <c r="C4" s="2">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="K4" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="L4">
-        <v>0.32</v>
+        <v>0.89</v>
       </c>
       <c r="M4">
-        <v>0.68</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1267,40 +1240,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>418</v>
       </c>
       <c r="C5" s="2">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J5" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="K5" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="L5">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
       <c r="M5">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1308,34 +1281,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>419</v>
       </c>
       <c r="C6" s="2">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J6" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="K6" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="L6">
+        <v>0.3</v>
+      </c>
+      <c r="M6">
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1343,40 +1322,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>405</v>
+        <v>704</v>
       </c>
       <c r="C7" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="L7">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="M7">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1384,40 +1363,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>406</v>
+        <v>705</v>
       </c>
       <c r="C8" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="J8" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="K8" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="L8">
-        <v>0.52</v>
+        <v>0.71</v>
       </c>
       <c r="M8">
-        <v>0.48</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1425,40 +1404,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>407</v>
+        <v>602</v>
       </c>
       <c r="C9" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="K9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="L9">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="M9">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1466,40 +1445,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>408</v>
+        <v>603</v>
       </c>
       <c r="C10" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="K10" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L10">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="M10">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1507,40 +1486,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>409</v>
+        <v>604</v>
       </c>
       <c r="C11" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K11" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="L11">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
       <c r="M11">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1548,40 +1527,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>305</v>
+        <v>605</v>
       </c>
       <c r="C12" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J12" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="K12" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="L12">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1589,40 +1568,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>306</v>
+        <v>606</v>
       </c>
       <c r="C13" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I13" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K13" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="L13">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="M13">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1630,40 +1609,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>307</v>
+        <v>607</v>
       </c>
       <c r="C14" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="K14" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="L14">
-        <v>0.41</v>
+        <v>0.84</v>
       </c>
       <c r="M14">
-        <v>0.59</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1671,13 +1650,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>308</v>
+        <v>608</v>
       </c>
       <c r="C15" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
@@ -1686,25 +1665,25 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
         <v>197</v>
       </c>
       <c r="K15" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="L15">
-        <v>0.48</v>
+        <v>0.78</v>
       </c>
       <c r="M15">
-        <v>0.52</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1712,13 +1691,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>309</v>
+        <v>609</v>
       </c>
       <c r="C16" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -1727,25 +1706,25 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="K16" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="L16">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="M16">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1753,13 +1732,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>311</v>
+        <v>610</v>
       </c>
       <c r="C17" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -1768,25 +1747,25 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K17" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L17">
-        <v>0.7</v>
+        <v>0.34</v>
       </c>
       <c r="M17">
-        <v>0.3</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1794,13 +1773,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>312</v>
+        <v>611</v>
       </c>
       <c r="C18" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -1809,25 +1788,19 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
-      </c>
-      <c r="L18">
-        <v>0.34</v>
-      </c>
-      <c r="M18">
-        <v>0.66</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1835,40 +1808,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>313</v>
+        <v>612</v>
       </c>
       <c r="C19" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="L19">
+        <v>0.52</v>
+      </c>
+      <c r="M19">
         <v>0.48</v>
-      </c>
-      <c r="M19">
-        <v>0.52</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1876,40 +1849,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>314</v>
+        <v>613</v>
       </c>
       <c r="C20" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="L20">
-        <v>0.45</v>
+        <v>0.86</v>
       </c>
       <c r="M20">
-        <v>0.55</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1917,40 +1890,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>315</v>
+        <v>614</v>
       </c>
       <c r="C21" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
-      </c>
-      <c r="L21">
-        <v>0.4</v>
-      </c>
-      <c r="M21">
-        <v>0.6</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1958,40 +1925,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>316</v>
+        <v>615</v>
       </c>
       <c r="C22" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="L22">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="M22">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1999,34 +1966,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>317</v>
+        <v>616</v>
       </c>
       <c r="C23" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>153</v>
+      </c>
+      <c r="L23">
+        <v>0.33</v>
+      </c>
+      <c r="M23">
+        <v>0.67</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2034,40 +2007,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>318</v>
+        <v>617</v>
       </c>
       <c r="C24" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="L24">
-        <v>0.82</v>
+        <v>0.66</v>
       </c>
       <c r="M24">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2075,40 +2048,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>319</v>
+        <v>618</v>
       </c>
       <c r="C25" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I25" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J25" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="K25" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="L25">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="M25">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2116,34 +2089,40 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>320</v>
+        <v>619</v>
       </c>
       <c r="C26" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I26" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="J26" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>220</v>
+      </c>
+      <c r="L26">
+        <v>0.26</v>
+      </c>
+      <c r="M26">
+        <v>0.74</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2151,34 +2130,40 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>321</v>
+        <v>622</v>
       </c>
       <c r="C27" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="J27" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>221</v>
+      </c>
+      <c r="L27">
+        <v>0.59</v>
+      </c>
+      <c r="M27">
+        <v>0.41</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2186,40 +2171,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>322</v>
+        <v>623</v>
       </c>
       <c r="C28" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I28" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
-      </c>
-      <c r="L28">
-        <v>0.72</v>
-      </c>
-      <c r="M28">
-        <v>0.28</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2227,40 +2206,40 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>327</v>
+        <v>624</v>
       </c>
       <c r="C29" s="2">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="J29" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="L29">
-        <v>0.85</v>
+        <v>0.52</v>
       </c>
       <c r="M29">
-        <v>0.15</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2268,13 +2247,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>328</v>
+        <v>1346</v>
       </c>
       <c r="C30" s="2">
-        <v>45157</v>
+        <v>45165</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -2283,25 +2262,25 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I30" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="J30" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="K30" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="L30">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="M30">
-        <v>0.67</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2309,13 +2288,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>329</v>
+        <v>1347</v>
       </c>
       <c r="C31" s="2">
-        <v>45157</v>
+        <v>45165</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
         <v>32</v>
@@ -2324,25 +2303,25 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="J31" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="K31" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="L31">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="M31">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2350,40 +2329,40 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1031</v>
+        <v>1348</v>
       </c>
       <c r="C32" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J32" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="K32" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="L32">
-        <v>0.34</v>
+        <v>0.88</v>
       </c>
       <c r="M32">
-        <v>0.66</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2391,40 +2370,40 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1032</v>
+        <v>1349</v>
       </c>
       <c r="C33" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J33" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="K33" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="L33">
-        <v>0.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M33">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2432,40 +2411,40 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1033</v>
+        <v>1350</v>
       </c>
       <c r="C34" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I34" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="J34" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="K34" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="L34">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="M34">
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2473,40 +2452,40 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1034</v>
+        <v>1351</v>
       </c>
       <c r="C35" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I35" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="J35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K35" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="L35">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="M35">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2514,40 +2493,40 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>878</v>
+        <v>1352</v>
       </c>
       <c r="C36" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J36" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="K36" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L36">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="M36">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2555,40 +2534,40 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>879</v>
+        <v>1353</v>
       </c>
       <c r="C37" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I37" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J37" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K37" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="L37">
-        <v>0.52</v>
+        <v>0.93</v>
       </c>
       <c r="M37">
-        <v>0.48</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2596,40 +2575,40 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>880</v>
+        <v>1233</v>
       </c>
       <c r="C38" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I38" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J38" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="K38" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="L38">
-        <v>0.92</v>
+        <v>0.36</v>
       </c>
       <c r="M38">
-        <v>0.08</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2637,34 +2616,34 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>881</v>
+        <v>1234</v>
       </c>
       <c r="C39" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I39" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J39" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="K39" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2672,40 +2651,40 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>882</v>
+        <v>1235</v>
       </c>
       <c r="C40" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I40" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J40" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K40" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="L40">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="M40">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2713,40 +2692,40 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>883</v>
+        <v>1236</v>
       </c>
       <c r="C41" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I41" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="J41" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="K41" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="L41">
-        <v>0.46</v>
+        <v>0.91</v>
       </c>
       <c r="M41">
-        <v>0.54</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2754,40 +2733,40 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>884</v>
+        <v>1237</v>
       </c>
       <c r="C42" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I42" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J42" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="K42" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="L42">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="M42">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2795,40 +2774,40 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>885</v>
+        <v>1238</v>
       </c>
       <c r="C43" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I43" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J43" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="L43">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="M43">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2836,40 +2815,40 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>886</v>
+        <v>1239</v>
       </c>
       <c r="C44" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I44" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="J44" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="K44" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L44">
-        <v>0.76</v>
+        <v>0.47</v>
       </c>
       <c r="M44">
-        <v>0.24</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2877,34 +2856,40 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>887</v>
+        <v>1240</v>
       </c>
       <c r="C45" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I45" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="J45" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K45" t="s">
-        <v>181</v>
+        <v>220</v>
+      </c>
+      <c r="L45">
+        <v>0.45</v>
+      </c>
+      <c r="M45">
+        <v>0.55</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2912,40 +2897,40 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>888</v>
+        <v>1241</v>
       </c>
       <c r="C46" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I46" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="J46" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="K46" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="L46">
-        <v>0.77</v>
+        <v>0.58</v>
       </c>
       <c r="M46">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2953,40 +2938,40 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>889</v>
+        <v>1242</v>
       </c>
       <c r="C47" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I47" t="s">
+        <v>186</v>
+      </c>
+      <c r="J47" t="s">
         <v>194</v>
       </c>
-      <c r="J47" t="s">
-        <v>195</v>
-      </c>
       <c r="K47" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="L47">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="M47">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2994,40 +2979,40 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>890</v>
+        <v>1243</v>
       </c>
       <c r="C48" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I48" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J48" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="K48" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L48">
-        <v>0.32</v>
+        <v>0.91</v>
       </c>
       <c r="M48">
-        <v>0.68</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3035,40 +3020,40 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>891</v>
+        <v>1244</v>
       </c>
       <c r="C49" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I49" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="J49" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="K49" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="L49">
-        <v>0.42</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M49">
-        <v>0.58</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3076,40 +3061,40 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>896</v>
+        <v>1245</v>
       </c>
       <c r="C50" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I50" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J50" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K50" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L50">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="M50">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3117,40 +3102,34 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>897</v>
+        <v>1246</v>
       </c>
       <c r="C51" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I51" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="J51" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="K51" t="s">
-        <v>240</v>
-      </c>
-      <c r="L51">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="M51">
-        <v>0.06</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3158,34 +3137,40 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>898</v>
+        <v>1247</v>
       </c>
       <c r="C52" s="2">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I52" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="J52" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K52" t="s">
-        <v>160</v>
+        <v>232</v>
+      </c>
+      <c r="L52">
+        <v>0.9</v>
+      </c>
+      <c r="M52">
+        <v>0.1</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3193,40 +3178,40 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1357</v>
+        <v>1251</v>
       </c>
       <c r="C53" s="2">
-        <v>45159</v>
+        <v>45165</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I53" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="J53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K53" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="L53">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="M53">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3234,40 +3219,40 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1340</v>
+        <v>1252</v>
       </c>
       <c r="C54" s="2">
-        <v>45159</v>
+        <v>45165</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I54" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J54" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="K54" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="L54">
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="M54">
-        <v>0.63</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3275,145 +3260,40 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1341</v>
+        <v>1253</v>
       </c>
       <c r="C55" s="2">
-        <v>45159</v>
+        <v>45165</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" t="s">
+        <v>172</v>
+      </c>
+      <c r="J55" t="s">
+        <v>163</v>
+      </c>
+      <c r="K55" t="s">
         <v>151</v>
       </c>
-      <c r="I55" t="s">
-        <v>199</v>
-      </c>
-      <c r="J55" t="s">
-        <v>195</v>
-      </c>
-      <c r="K55" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>1342</v>
-      </c>
-      <c r="C56" s="2">
-        <v>45159</v>
-      </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" t="s">
-        <v>95</v>
-      </c>
-      <c r="H56" t="s">
-        <v>152</v>
-      </c>
-      <c r="I56" t="s">
-        <v>195</v>
-      </c>
-      <c r="J56" t="s">
-        <v>206</v>
-      </c>
-      <c r="K56" t="s">
-        <v>242</v>
-      </c>
-      <c r="L56">
-        <v>0.46</v>
-      </c>
-      <c r="M56">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>1343</v>
-      </c>
-      <c r="C57" s="2">
-        <v>45159</v>
-      </c>
-      <c r="D57" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" t="s">
-        <v>96</v>
-      </c>
-      <c r="H57" t="s">
-        <v>153</v>
-      </c>
-      <c r="I57" t="s">
-        <v>200</v>
-      </c>
-      <c r="J57" t="s">
-        <v>204</v>
-      </c>
-      <c r="K57" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>1344</v>
-      </c>
-      <c r="C58" s="2">
-        <v>45159</v>
-      </c>
-      <c r="D58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" t="s">
-        <v>38</v>
-      </c>
-      <c r="G58" t="s">
-        <v>97</v>
-      </c>
-      <c r="H58" t="s">
-        <v>154</v>
-      </c>
-      <c r="I58" t="s">
-        <v>201</v>
-      </c>
-      <c r="J58" t="s">
-        <v>162</v>
-      </c>
-      <c r="K58" t="s">
-        <v>243</v>
+      <c r="L55">
+        <v>0.42</v>
+      </c>
+      <c r="M55">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds.xlsx
+++ b/df_odds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="248">
   <si>
     <t>Nº</t>
   </si>
@@ -58,42 +58,51 @@
     <t>15:30</t>
   </si>
   <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
     <t>14:30</t>
   </si>
   <si>
-    <t>16:30</t>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>11:15</t>
   </si>
   <si>
     <t>18:30</t>
   </si>
   <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>15:45</t>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>10:00</t>
   </si>
   <si>
     <t>12:30</t>
   </si>
   <si>
-    <t>10:00</t>
-  </si>
-  <si>
     <t>08:00</t>
   </si>
   <si>
@@ -109,610 +118,646 @@
     <t>GERMANY</t>
   </si>
   <si>
+    <t>ITALY</t>
+  </si>
+  <si>
     <t>SPAIN</t>
   </si>
   <si>
     <t>BRAZIL</t>
   </si>
   <si>
-    <t>ITALY</t>
-  </si>
-  <si>
-    <t>PREMIER LEAGUE - ROUND 3</t>
-  </si>
-  <si>
-    <t>LIGUE 1 - ROUND 3</t>
-  </si>
-  <si>
-    <t>BUNDESLIGA - ROUND 2</t>
-  </si>
-  <si>
-    <t>LALIGA - ROUND 3</t>
-  </si>
-  <si>
-    <t>SERIE A - ROUND 21</t>
-  </si>
-  <si>
-    <t>SERIE A - ROUND 2</t>
+    <t>PREMIER LEAGUE - ROUND 4</t>
+  </si>
+  <si>
+    <t>LIGUE 1 - ROUND 4</t>
+  </si>
+  <si>
+    <t>BUNDESLIGA - ROUND 3</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 3</t>
+  </si>
+  <si>
+    <t>LALIGA - ROUND 4</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 22</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Atletico Paranaense</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Botafogo RJ</t>
+  </si>
+  <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Burnley</t>
   </si>
   <si>
     <t>Chelsea</t>
   </si>
   <si>
-    <t>Nantes</t>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Monchengladbach</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>America MG</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Atletico Mineiro</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Mainz 05</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Vasco da Gama</t>
+  </si>
+  <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Clermont Foot</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Paris Saint Germain</t>
+  </si>
+  <si>
+    <t>Koln</t>
   </si>
   <si>
     <t>RB Leipzig</t>
   </si>
   <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
     <t>Las Palmas</t>
   </si>
   <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
-    <t>Corinthians</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>Brighton and Hove Albion</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Paris Saint Germain</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>Koln</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Monchengladbach</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Granada CF</t>
+    <t>Athletic Club</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>Bragantino</t>
-  </si>
-  <si>
-    <t>America MG</t>
-  </si>
-  <si>
-    <t>Botafogo RJ</t>
-  </si>
-  <si>
-    <t>Gremio</t>
-  </si>
-  <si>
-    <t>Atletico Paranaense</t>
-  </si>
-  <si>
-    <t>Atletico Mineiro</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Sheffield Utd</t>
-  </si>
-  <si>
-    <t>Newcastle United</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Clermont Foot</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Mainz 05</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Internacional</t>
-  </si>
-  <si>
-    <t>Goias</t>
-  </si>
-  <si>
-    <t>Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>Nottingham Forest</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Bayer Leverkusen</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Cuiaba</t>
-  </si>
-  <si>
-    <t>Sao Paulo</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
-    <t>Fluminense</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
-    <t>Vasco da Gama</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Eintracht Frankfurt</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Real Betis</t>
-  </si>
-  <si>
-    <t>1.25</t>
+    <t>4.70</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>5.40</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>3.85</t>
   </si>
   <si>
     <t>3.95</t>
   </si>
   <si>
-    <t>1.52</t>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>8.30</t>
   </si>
   <si>
     <t>4.00</t>
   </si>
   <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
     <t>4.75</t>
   </si>
   <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
     <t>1.78</t>
   </si>
   <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>1.32</t>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>5.15</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>17.50</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>4.55</t>
   </si>
   <si>
     <t>1.50</t>
   </si>
   <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>1.70</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>1.92</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>1.66</t>
-  </si>
-  <si>
-    <t>1.87</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>1.82</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.98</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>6.90</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>5.80</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>4.70</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>5.85</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>14.50</t>
-  </si>
-  <si>
-    <t>3.80</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>9.80</t>
-  </si>
-  <si>
-    <t>6.30</t>
-  </si>
-  <si>
-    <t>5.40</t>
-  </si>
-  <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>2.95</t>
-  </si>
-  <si>
-    <t>5.90</t>
-  </si>
-  <si>
-    <t>1.90</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>7.30</t>
-  </si>
-  <si>
-    <t>4.30</t>
-  </si>
-  <si>
-    <t>2.92</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>6.40</t>
-  </si>
-  <si>
-    <t>9.70</t>
+    <t>1.68</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,34 +1168,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C2" s="2">
-        <v>45163</v>
+        <v>45170</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="K2" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1158,40 +1203,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="C3" s="2">
-        <v>45163</v>
+        <v>45170</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="J3" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="L3">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="M3">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1199,40 +1244,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="C4" s="2">
-        <v>45163</v>
+        <v>45170</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="J4" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="K4" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="L4">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="M4">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1240,40 +1285,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="C5" s="2">
-        <v>45163</v>
+        <v>45170</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J5" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="K5" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="L5">
-        <v>0.34</v>
+        <v>0.7</v>
       </c>
       <c r="M5">
-        <v>0.66</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1281,40 +1326,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C6" s="2">
-        <v>45163</v>
+        <v>45170</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="K6" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="L6">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
       <c r="M6">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1322,40 +1367,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>704</v>
+        <v>406</v>
       </c>
       <c r="C7" s="2">
-        <v>45164</v>
+        <v>45170</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K7" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="L7">
-        <v>0.57</v>
+        <v>0.41</v>
       </c>
       <c r="M7">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1363,40 +1408,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>705</v>
+        <v>407</v>
       </c>
       <c r="C8" s="2">
-        <v>45164</v>
+        <v>45170</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="J8" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="L8">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="M8">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1404,40 +1449,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>602</v>
+        <v>639</v>
       </c>
       <c r="C9" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J9" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="K9" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="L9">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
       <c r="M9">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1445,40 +1490,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>603</v>
+        <v>640</v>
       </c>
       <c r="C10" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K10" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L10">
-        <v>0.8</v>
+        <v>0.42</v>
       </c>
       <c r="M10">
-        <v>0.2</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1486,40 +1531,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>604</v>
+        <v>641</v>
       </c>
       <c r="C11" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K11" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="L11">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="M11">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1527,40 +1572,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>605</v>
+        <v>559</v>
       </c>
       <c r="C12" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I12" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="J12" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="K12" t="s">
-        <v>213</v>
-      </c>
-      <c r="L12">
-        <v>0.5</v>
-      </c>
-      <c r="M12">
-        <v>0.5</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1568,40 +1607,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>606</v>
+        <v>560</v>
       </c>
       <c r="C13" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="J13" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K13" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="L13">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1609,40 +1648,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>607</v>
+        <v>561</v>
       </c>
       <c r="C14" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="J14" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="K14" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="L14">
-        <v>0.84</v>
+        <v>0.33</v>
       </c>
       <c r="M14">
-        <v>0.16</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1650,40 +1689,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>608</v>
+        <v>562</v>
       </c>
       <c r="C15" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K15" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="L15">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="M15">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1691,40 +1730,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="C16" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K16" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="L16">
-        <v>0.58</v>
+        <v>0.85</v>
       </c>
       <c r="M16">
-        <v>0.42</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1732,40 +1771,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>610</v>
+        <v>564</v>
       </c>
       <c r="C17" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K17" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="L17">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1773,34 +1812,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>611</v>
+        <v>565</v>
       </c>
       <c r="C18" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s">
-        <v>210</v>
+        <v>236</v>
+      </c>
+      <c r="L18">
+        <v>0.32</v>
+      </c>
+      <c r="M18">
+        <v>0.68</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1808,40 +1853,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>612</v>
+        <v>566</v>
       </c>
       <c r="C19" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="K19" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L19">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="M19">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1849,40 +1894,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>613</v>
+        <v>567</v>
       </c>
       <c r="C20" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="L20">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="M20">
-        <v>0.14</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1890,34 +1935,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>614</v>
+        <v>568</v>
       </c>
       <c r="C21" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1925,40 +1970,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>615</v>
+        <v>569</v>
       </c>
       <c r="C22" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="L22">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="M22">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1966,13 +2011,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>616</v>
+        <v>570</v>
       </c>
       <c r="C23" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
@@ -1981,25 +2026,25 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="J23" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="L23">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="M23">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2007,13 +2052,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>617</v>
+        <v>571</v>
       </c>
       <c r="C24" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
@@ -2022,25 +2067,25 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J24" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="L24">
-        <v>0.66</v>
+        <v>0.45</v>
       </c>
       <c r="M24">
-        <v>0.34</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2048,13 +2093,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>618</v>
+        <v>572</v>
       </c>
       <c r="C25" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -2063,25 +2108,25 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L25">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
       <c r="M25">
-        <v>0.34</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2089,40 +2134,40 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>619</v>
+        <v>573</v>
       </c>
       <c r="C26" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I26" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="J26" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L26">
-        <v>0.26</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M26">
-        <v>0.74</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2130,40 +2175,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>622</v>
+        <v>574</v>
       </c>
       <c r="C27" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
-      </c>
-      <c r="L27">
-        <v>0.59</v>
-      </c>
-      <c r="M27">
-        <v>0.41</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2171,34 +2210,40 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>623</v>
+        <v>575</v>
       </c>
       <c r="C28" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I28" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J28" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s">
-        <v>221</v>
+        <v>196</v>
+      </c>
+      <c r="L28">
+        <v>0.72</v>
+      </c>
+      <c r="M28">
+        <v>0.28</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2206,40 +2251,40 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>624</v>
+        <v>576</v>
       </c>
       <c r="C29" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I29" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J29" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="L29">
-        <v>0.52</v>
+        <v>0.68</v>
       </c>
       <c r="M29">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2247,40 +2292,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1346</v>
+        <v>581</v>
       </c>
       <c r="C30" s="2">
-        <v>45165</v>
+        <v>45171</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I30" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="J30" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>222</v>
-      </c>
-      <c r="L30">
-        <v>0.61</v>
-      </c>
-      <c r="M30">
-        <v>0.39</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2288,40 +2327,40 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1347</v>
+        <v>582</v>
       </c>
       <c r="C31" s="2">
-        <v>45165</v>
+        <v>45171</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="J31" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="L31">
-        <v>0.47</v>
+        <v>0.9</v>
       </c>
       <c r="M31">
-        <v>0.53</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2329,40 +2368,40 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1348</v>
+        <v>583</v>
       </c>
       <c r="C32" s="2">
-        <v>45165</v>
+        <v>45171</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="J32" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="K32" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="L32">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="M32">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2370,40 +2409,40 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1349</v>
+        <v>584</v>
       </c>
       <c r="C33" s="2">
-        <v>45165</v>
+        <v>45171</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="J33" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="K33" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L33">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M33">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2411,40 +2450,40 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1350</v>
+        <v>1313</v>
       </c>
       <c r="C34" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I34" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J34" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="K34" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L34">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="M34">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2452,40 +2491,40 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1351</v>
+        <v>1314</v>
       </c>
       <c r="C35" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I35" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="J35" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="K35" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="L35">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
       <c r="M35">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2493,40 +2532,40 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1352</v>
+        <v>1315</v>
       </c>
       <c r="C36" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I36" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="J36" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="K36" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="L36">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="M36">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2534,40 +2573,40 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1353</v>
+        <v>1316</v>
       </c>
       <c r="C37" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="I37" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="J37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L37">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="M37">
-        <v>0.07000000000000001</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2575,40 +2614,40 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1233</v>
+        <v>1317</v>
       </c>
       <c r="C38" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J38" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K38" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="L38">
-        <v>0.36</v>
+        <v>0.66</v>
       </c>
       <c r="M38">
-        <v>0.64</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2616,34 +2655,40 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1234</v>
+        <v>1318</v>
       </c>
       <c r="C39" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I39" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J39" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="K39" t="s">
-        <v>224</v>
+        <v>201</v>
+      </c>
+      <c r="L39">
+        <v>0.48</v>
+      </c>
+      <c r="M39">
+        <v>0.52</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2651,40 +2696,40 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1235</v>
+        <v>1319</v>
       </c>
       <c r="C40" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="I40" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J40" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="K40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L40">
-        <v>0.58</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M40">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2692,40 +2737,40 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C41" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I41" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J41" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="K41" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L41">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="M41">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2733,40 +2778,40 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C42" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I42" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J42" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="K42" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="L42">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="M42">
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2774,40 +2819,40 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C43" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="I43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J43" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="K43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L43">
-        <v>0.61</v>
+        <v>0.79</v>
       </c>
       <c r="M43">
-        <v>0.39</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2815,40 +2860,40 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C44" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I44" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="J44" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K44" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="L44">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="M44">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2856,40 +2901,40 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C45" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I45" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J45" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K45" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="L45">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="M45">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2897,40 +2942,40 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C46" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I46" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="J46" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="K46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L46">
-        <v>0.58</v>
+        <v>0.72</v>
       </c>
       <c r="M46">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2938,40 +2983,40 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C47" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I47" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="J47" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="K47" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="L47">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="M47">
-        <v>0.47</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2979,40 +3024,40 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C48" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I48" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="J48" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K48" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="L48">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="M48">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3020,40 +3065,40 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C49" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I49" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="J49" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="K49" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="L49">
-        <v>0.8100000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="M49">
-        <v>0.19</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3061,13 +3106,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C50" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
         <v>33</v>
@@ -3076,25 +3121,25 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="I50" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="J50" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="K50" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L50">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="M50">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3102,13 +3147,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C51" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E51" t="s">
         <v>33</v>
@@ -3117,19 +3162,25 @@
         <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I51" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="J51" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K51" t="s">
-        <v>219</v>
+        <v>166</v>
+      </c>
+      <c r="L51">
+        <v>0.59</v>
+      </c>
+      <c r="M51">
+        <v>0.41</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3137,40 +3188,40 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C52" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I52" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K52" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="L52">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="M52">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3178,40 +3229,40 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C53" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H53" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I53" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="J53" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="K53" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="L53">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="M53">
-        <v>0.54</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3219,40 +3270,40 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C54" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H54" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I54" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="J54" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="K54" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="L54">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="M54">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3260,40 +3311,204 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C55" s="2">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="I55" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J55" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="L55">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="M55">
-        <v>0.58</v>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1256</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45172</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" t="s">
+        <v>155</v>
+      </c>
+      <c r="I56" t="s">
+        <v>200</v>
+      </c>
+      <c r="J56" t="s">
+        <v>216</v>
+      </c>
+      <c r="K56" t="s">
+        <v>219</v>
+      </c>
+      <c r="L56">
+        <v>0.74</v>
+      </c>
+      <c r="M56">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1257</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45172</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" t="s">
+        <v>156</v>
+      </c>
+      <c r="I57" t="s">
+        <v>201</v>
+      </c>
+      <c r="J57" t="s">
+        <v>208</v>
+      </c>
+      <c r="K57" t="s">
+        <v>232</v>
+      </c>
+      <c r="L57">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M57">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1258</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45172</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" t="s">
+        <v>99</v>
+      </c>
+      <c r="H58" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" t="s">
+        <v>202</v>
+      </c>
+      <c r="J58" t="s">
+        <v>228</v>
+      </c>
+      <c r="K58" t="s">
+        <v>223</v>
+      </c>
+      <c r="L58">
+        <v>0.82</v>
+      </c>
+      <c r="M58">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1259</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45172</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" t="s">
+        <v>158</v>
+      </c>
+      <c r="I59" t="s">
+        <v>203</v>
+      </c>
+      <c r="J59" t="s">
+        <v>216</v>
+      </c>
+      <c r="K59" t="s">
+        <v>194</v>
+      </c>
+      <c r="L59">
+        <v>0.37</v>
+      </c>
+      <c r="M59">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds.xlsx
+++ b/df_odds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="341">
   <si>
     <t>Nº</t>
   </si>
@@ -52,52 +52,76 @@
     <t>Pred_A</t>
   </si>
   <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
     <t>16:00</t>
   </si>
   <si>
     <t>15:30</t>
   </si>
   <si>
+    <t>15:15</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>13:15</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
     <t>13:30</t>
   </si>
   <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
     <t>12:00</t>
   </si>
   <si>
     <t>10:30</t>
   </si>
   <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
     <t>09:00</t>
   </si>
   <si>
     <t>11:15</t>
   </si>
   <si>
-    <t>18:30</t>
-  </si>
-  <si>
-    <t>20:30</t>
-  </si>
-  <si>
-    <t>10:00</t>
+    <t>14:15</t>
   </si>
   <si>
     <t>12:30</t>
@@ -109,655 +133,910 @@
     <t>12:05</t>
   </si>
   <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>07:15</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>11:45</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
     <t>ENGLAND</t>
   </si>
   <si>
-    <t>FRANCE</t>
-  </si>
-  <si>
-    <t>GERMANY</t>
-  </si>
-  <si>
     <t>ITALY</t>
   </si>
   <si>
-    <t>SPAIN</t>
-  </si>
-  <si>
-    <t>BRAZIL</t>
-  </si>
-  <si>
-    <t>PREMIER LEAGUE - ROUND 4</t>
-  </si>
-  <si>
-    <t>LIGUE 1 - ROUND 4</t>
-  </si>
-  <si>
-    <t>BUNDESLIGA - ROUND 3</t>
-  </si>
-  <si>
-    <t>SERIE A - ROUND 3</t>
-  </si>
-  <si>
-    <t>LALIGA - ROUND 4</t>
-  </si>
-  <si>
-    <t>SERIE A - ROUND 22</t>
+    <t>NETHERLANDS</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 23</t>
+  </si>
+  <si>
+    <t>JUPILER PRO LEAGUE - ROUND 7</t>
+  </si>
+  <si>
+    <t>LIGUE 1 - ROUND 5</t>
+  </si>
+  <si>
+    <t>BUNDESLIGA - ROUND 4</t>
+  </si>
+  <si>
+    <t>LIGA PORTUGAL - ROUND 5</t>
+  </si>
+  <si>
+    <t>LALIGA - ROUND 5</t>
+  </si>
+  <si>
+    <t>PREMIER LEAGUE - ROUND 5</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 4</t>
+  </si>
+  <si>
+    <t>EREDIVISIE - ROUND 5</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 24</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 15</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
+    <t>Westerlo</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Paris Saint Germain</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>Estrela</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>RWD Molenbeek</t>
+  </si>
+  <si>
+    <t>Union SG</t>
+  </si>
+  <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>Vasco da Gama</t>
+  </si>
+  <si>
+    <t>Atletico Mineiro</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Koln</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Mainz 05</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Fortuna Sittard</t>
+  </si>
+  <si>
+    <t>Heracles Almelo</t>
+  </si>
+  <si>
+    <t>Rio Ave</t>
+  </si>
+  <si>
+    <t>Farense</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Eupen</t>
+  </si>
+  <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
+    <t>OH Leuven</t>
+  </si>
+  <si>
+    <t>Sint Truiden</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Clermont Foot</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>Excelsior</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Gil Vicente FC</t>
+  </si>
+  <si>
+    <t>Vitoria Guimaraes</t>
+  </si>
+  <si>
+    <t>Sporting CP</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>America MG</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Charleroi</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Botafogo RJ</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
   </si>
   <si>
     <t>Luton</t>
   </si>
   <si>
+    <t>Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
+    <t>NEC Nijmegen</t>
+  </si>
+  <si>
+    <t>Volendam</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Braga</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
+    <t>Standard Liege</t>
+  </si>
+  <si>
+    <t>Anderlecht</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>Mechelen</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Dortmund</t>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Monchengladbach</t>
+  </si>
+  <si>
+    <t>Udinese</t>
   </si>
   <si>
     <t>Sassuolo</t>
   </si>
   <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>Almere City</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Casa Pia</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
   </si>
   <si>
     <t>Almeria</t>
   </si>
   <si>
-    <t>Atletico Paranaense</t>
-  </si>
-  <si>
-    <t>Goias</t>
-  </si>
-  <si>
-    <t>Botafogo RJ</t>
-  </si>
-  <si>
-    <t>Sheffield Utd</t>
-  </si>
-  <si>
-    <t>Brentford</t>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
   </si>
   <si>
     <t>Burnley</t>
   </si>
   <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Brighton and Hove Albion</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Bayer Leverkusen</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Monchengladbach</t>
+    <t>Torino</t>
   </si>
   <si>
     <t>Bologna</t>
   </si>
   <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Real Betis</t>
-  </si>
-  <si>
-    <t>Gremio</t>
-  </si>
-  <si>
-    <t>Corinthians</t>
-  </si>
-  <si>
-    <t>Fluminense</t>
-  </si>
-  <si>
-    <t>America MG</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
-    <t>Sao Paulo</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Eintracht Frankfurt</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Internazionale</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Lecce</t>
+    <t>Chaves</t>
   </si>
   <si>
     <t>Girona</t>
   </si>
   <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Atletico Madrid</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
-    <t>Atletico Mineiro</t>
-  </si>
-  <si>
-    <t>Internacional</t>
-  </si>
-  <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>Nottingham Forest</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Newcastle United</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Mainz 05</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Granada CF</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>Cuiaba</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Vasco da Gama</t>
-  </si>
-  <si>
-    <t>Bragantino</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
-    <t>Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>Clermont Foot</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Paris Saint Germain</t>
-  </si>
-  <si>
-    <t>Koln</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>6.40</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>7.30</t>
+  </si>
+  <si>
+    <t>5.50</t>
   </si>
   <si>
     <t>4.70</t>
   </si>
   <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>1.65</t>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>3.35</t>
   </si>
   <si>
     <t>4.40</t>
   </si>
   <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>1.98</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>1.82</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>1.96</t>
-  </si>
-  <si>
-    <t>3.40</t>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>5.40</t>
+  </si>
+  <si>
+    <t>14.50</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>1.75</t>
   </si>
   <si>
     <t>1.80</t>
   </si>
   <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>1.92</t>
-  </si>
-  <si>
-    <t>1.70</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>5.40</t>
-  </si>
-  <si>
-    <t>1.90</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>1.62</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>1.60</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>5.05</t>
-  </si>
-  <si>
-    <t>8.30</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>3.90</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>3.65</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>1.78</t>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>7.80</t>
+  </si>
+  <si>
+    <t>5.85</t>
   </si>
   <si>
     <t>13.00</t>
   </si>
   <si>
-    <t>2.80</t>
+    <t>2.18</t>
   </si>
   <si>
     <t>2.45</t>
   </si>
   <si>
-    <t>5.15</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>17.50</t>
-  </si>
-  <si>
-    <t>2.02</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
     <t>2.50</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>1.68</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,34 +1447,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
-        <v>45170</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="J2" t="s">
-        <v>204</v>
+        <v>286</v>
       </c>
       <c r="K2" t="s">
-        <v>188</v>
+        <v>311</v>
+      </c>
+      <c r="L2">
+        <v>0.53</v>
+      </c>
+      <c r="M2">
+        <v>0.47</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1203,40 +1488,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>401</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>45170</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="J3" t="s">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="K3" t="s">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="L3">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="M3">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1244,40 +1529,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>402</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
-        <v>45170</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="J4" t="s">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="K4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="L4">
-        <v>0.92</v>
+        <v>0.66</v>
       </c>
       <c r="M4">
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1285,40 +1570,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>403</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
-        <v>45170</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="J5" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="K5" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="L5">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1326,40 +1611,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>404</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2">
-        <v>45170</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="K6" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="L6">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="M6">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1367,40 +1652,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>406</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2">
-        <v>45170</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="J7" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="K7" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="L7">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M7">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1408,40 +1693,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>407</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2">
-        <v>45170</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="J8" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="K8" t="s">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="L8">
-        <v>0.53</v>
+        <v>0.84</v>
       </c>
       <c r="M8">
-        <v>0.47</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1449,40 +1734,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>639</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2">
-        <v>45171</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="J9" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="K9" t="s">
-        <v>187</v>
+        <v>315</v>
       </c>
       <c r="L9">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
       <c r="M9">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1490,40 +1775,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>640</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2">
-        <v>45171</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="J10" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="K10" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="L10">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
       <c r="M10">
-        <v>0.58</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1531,40 +1816,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>641</v>
+        <v>231</v>
       </c>
       <c r="C11" s="2">
-        <v>45171</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="J11" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="K11" t="s">
-        <v>163</v>
+        <v>316</v>
       </c>
       <c r="L11">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="M11">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1572,34 +1857,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>559</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2">
-        <v>45171</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="J12" t="s">
-        <v>211</v>
+        <v>292</v>
       </c>
       <c r="K12" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1607,40 +1892,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>560</v>
+        <v>369</v>
       </c>
       <c r="C13" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="I13" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="J13" t="s">
-        <v>212</v>
+        <v>293</v>
       </c>
       <c r="K13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L13">
-        <v>0.82</v>
+        <v>0.29</v>
       </c>
       <c r="M13">
-        <v>0.18</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1648,40 +1933,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>561</v>
+        <v>370</v>
       </c>
       <c r="C14" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="J14" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="K14" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="L14">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1689,40 +1974,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>562</v>
+        <v>371</v>
       </c>
       <c r="C15" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="J15" t="s">
-        <v>214</v>
+        <v>289</v>
       </c>
       <c r="K15" t="s">
-        <v>234</v>
+        <v>317</v>
       </c>
       <c r="L15">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="M15">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1730,40 +2015,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>563</v>
+        <v>377</v>
       </c>
       <c r="C16" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="J16" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="K16" t="s">
-        <v>235</v>
+        <v>318</v>
       </c>
       <c r="L16">
-        <v>0.85</v>
+        <v>0.37</v>
       </c>
       <c r="M16">
-        <v>0.15</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1771,40 +2056,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>564</v>
+        <v>378</v>
       </c>
       <c r="C17" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="J17" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>286</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="M17">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1812,40 +2097,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>565</v>
+        <v>300</v>
       </c>
       <c r="C18" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="J18" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="K18" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="L18">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="M18">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1853,40 +2138,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>566</v>
+        <v>301</v>
       </c>
       <c r="C19" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="J19" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="K19" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="L19">
-        <v>0.45</v>
+        <v>0.72</v>
       </c>
       <c r="M19">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1894,40 +2179,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>567</v>
+        <v>302</v>
       </c>
       <c r="C20" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="J20" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
-      </c>
-      <c r="L20">
-        <v>0.62</v>
-      </c>
-      <c r="M20">
-        <v>0.38</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1935,34 +2214,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>568</v>
+        <v>303</v>
       </c>
       <c r="C21" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="J21" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
       <c r="K21" t="s">
-        <v>238</v>
+        <v>320</v>
+      </c>
+      <c r="L21">
+        <v>0.61</v>
+      </c>
+      <c r="M21">
+        <v>0.39</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1970,40 +2255,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>569</v>
+        <v>304</v>
       </c>
       <c r="C22" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="K22" t="s">
-        <v>165</v>
-      </c>
-      <c r="L22">
-        <v>0.51</v>
-      </c>
-      <c r="M22">
-        <v>0.49</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2011,40 +2290,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>570</v>
+        <v>305</v>
       </c>
       <c r="C23" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="L23">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="M23">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2052,40 +2331,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>571</v>
+        <v>306</v>
       </c>
       <c r="C24" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="I24" t="s">
-        <v>163</v>
+        <v>250</v>
       </c>
       <c r="J24" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="K24" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="L24">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="M24">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2093,40 +2372,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>572</v>
+        <v>307</v>
       </c>
       <c r="C25" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="L25">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
       <c r="M25">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2134,40 +2413,40 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>573</v>
+        <v>308</v>
       </c>
       <c r="C26" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="K26" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="L26">
-        <v>0.6899999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M26">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2175,34 +2454,40 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>574</v>
+        <v>309</v>
       </c>
       <c r="C27" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="I27" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="K27" t="s">
-        <v>160</v>
+        <v>258</v>
+      </c>
+      <c r="L27">
+        <v>0.63</v>
+      </c>
+      <c r="M27">
+        <v>0.37</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2210,40 +2495,40 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="C28" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="L28">
-        <v>0.72</v>
+        <v>0.45</v>
       </c>
       <c r="M28">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2251,40 +2536,40 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>576</v>
+        <v>311</v>
       </c>
       <c r="C29" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="I29" t="s">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="L29">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="M29">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2292,34 +2577,40 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>581</v>
+        <v>312</v>
       </c>
       <c r="C30" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="I30" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="K30" t="s">
-        <v>243</v>
+        <v>323</v>
+      </c>
+      <c r="L30">
+        <v>0.9</v>
+      </c>
+      <c r="M30">
+        <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2327,40 +2618,40 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>582</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="I31" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="J31" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="L31">
-        <v>0.9</v>
+        <v>0.46</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2368,40 +2659,40 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>583</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="I32" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="J32" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="K32" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="L32">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="M32">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2409,40 +2700,40 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>584</v>
+        <v>315</v>
       </c>
       <c r="C33" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="H33" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="I33" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="J33" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="K33" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="L33">
-        <v>0.6899999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="M33">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2450,40 +2741,40 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1313</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="I34" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="J34" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="K34" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="L34">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="M34">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2491,40 +2782,40 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1314</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="I35" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="J35" t="s">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="K35" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="L35">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
       <c r="M35">
-        <v>0.5600000000000001</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2532,40 +2823,40 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1315</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="I36" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="J36" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="L36">
-        <v>0.73</v>
+        <v>0.84</v>
       </c>
       <c r="M36">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2573,40 +2864,40 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1316</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H37" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="I37" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="J37" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="K37" t="s">
-        <v>187</v>
+        <v>325</v>
       </c>
       <c r="L37">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="M37">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2614,40 +2905,40 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1317</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="H38" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="I38" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="J38" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="L38">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="M38">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2655,40 +2946,40 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1318</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H39" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="I39" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="J39" t="s">
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="K39" t="s">
-        <v>201</v>
+        <v>303</v>
       </c>
       <c r="L39">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="M39">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2696,40 +2987,40 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1319</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="H40" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="I40" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="J40" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="K40" t="s">
-        <v>217</v>
+        <v>327</v>
       </c>
       <c r="L40">
-        <v>0.6899999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="M40">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2737,40 +3028,40 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1237</v>
+        <v>769</v>
       </c>
       <c r="C41" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="H41" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="I41" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="J41" t="s">
-        <v>225</v>
+        <v>294</v>
       </c>
       <c r="K41" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="L41">
-        <v>0.67</v>
+        <v>0.51</v>
       </c>
       <c r="M41">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2778,40 +3069,40 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1238</v>
+        <v>770</v>
       </c>
       <c r="C42" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H42" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="I42" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="J42" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="K42" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="L42">
-        <v>0.64</v>
+        <v>0.31</v>
       </c>
       <c r="M42">
-        <v>0.36</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2819,40 +3110,40 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1239</v>
+        <v>771</v>
       </c>
       <c r="C43" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H43" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="I43" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="J43" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="K43" t="s">
-        <v>228</v>
+        <v>328</v>
       </c>
       <c r="L43">
-        <v>0.79</v>
+        <v>0.31</v>
       </c>
       <c r="M43">
-        <v>0.21</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2860,40 +3151,40 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1240</v>
+        <v>323</v>
       </c>
       <c r="C44" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="I44" t="s">
-        <v>162</v>
+        <v>264</v>
       </c>
       <c r="J44" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="K44" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="L44">
-        <v>0.46</v>
+        <v>0.74</v>
       </c>
       <c r="M44">
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2901,40 +3192,40 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1241</v>
+        <v>324</v>
       </c>
       <c r="C45" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="H45" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="I45" t="s">
-        <v>163</v>
+        <v>265</v>
       </c>
       <c r="J45" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="K45" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="L45">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M45">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2942,40 +3233,40 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1242</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="H46" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="I46" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="J46" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="K46" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="L46">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="M46">
-        <v>0.28</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2983,40 +3274,40 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1243</v>
+        <v>326</v>
       </c>
       <c r="C47" s="2">
-        <v>45172</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G47" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="H47" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="I47" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="J47" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="K47" t="s">
-        <v>236</v>
+        <v>329</v>
       </c>
       <c r="L47">
-        <v>0.45</v>
+        <v>0.77</v>
       </c>
       <c r="M47">
-        <v>0.55</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3024,40 +3315,40 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1244</v>
+        <v>1105</v>
       </c>
       <c r="C48" s="2">
-        <v>45172</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G48" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="I48" t="s">
-        <v>162</v>
+        <v>267</v>
       </c>
       <c r="J48" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="K48" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="L48">
-        <v>0.75</v>
+        <v>0.34</v>
       </c>
       <c r="M48">
-        <v>0.25</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3065,40 +3356,40 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1245</v>
+        <v>1106</v>
       </c>
       <c r="C49" s="2">
-        <v>45172</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="H49" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="I49" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="J49" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="K49" t="s">
-        <v>246</v>
+        <v>313</v>
       </c>
       <c r="L49">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="M49">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3106,40 +3397,40 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1246</v>
+        <v>1107</v>
       </c>
       <c r="C50" s="2">
-        <v>45172</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="H50" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="I50" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="J50" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K50" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="L50">
-        <v>0.66</v>
+        <v>0.44</v>
       </c>
       <c r="M50">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3147,40 +3438,40 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1247</v>
+        <v>1108</v>
       </c>
       <c r="C51" s="2">
-        <v>45172</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H51" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="I51" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="J51" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="K51" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="L51">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M51">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3188,40 +3479,40 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1248</v>
+        <v>1014</v>
       </c>
       <c r="C52" s="2">
-        <v>45172</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G52" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H52" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="I52" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="J52" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="K52" t="s">
-        <v>159</v>
+        <v>330</v>
       </c>
       <c r="L52">
-        <v>0.67</v>
+        <v>0.47</v>
       </c>
       <c r="M52">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3229,40 +3520,40 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1249</v>
+        <v>1015</v>
       </c>
       <c r="C53" s="2">
-        <v>45172</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G53" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="H53" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="I53" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="J53" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="K53" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="L53">
-        <v>0.72</v>
+        <v>0.29</v>
       </c>
       <c r="M53">
-        <v>0.28</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3270,40 +3561,40 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1250</v>
+        <v>1016</v>
       </c>
       <c r="C54" s="2">
-        <v>45172</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="H54" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="I54" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="J54" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="K54" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="L54">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
       <c r="M54">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3311,40 +3602,40 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1251</v>
+        <v>1017</v>
       </c>
       <c r="C55" s="2">
-        <v>45172</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="H55" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="I55" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="J55" t="s">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="K55" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="L55">
-        <v>0.51</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M55">
-        <v>0.49</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3352,40 +3643,40 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1256</v>
+        <v>1018</v>
       </c>
       <c r="C56" s="2">
-        <v>45172</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="I56" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="J56" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="K56" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="L56">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="M56">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3393,40 +3684,40 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1257</v>
+        <v>1019</v>
       </c>
       <c r="C57" s="2">
-        <v>45172</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="H57" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="I57" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="J57" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="K57" t="s">
-        <v>232</v>
+        <v>332</v>
       </c>
       <c r="L57">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="M57">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3434,40 +3725,40 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1258</v>
+        <v>1020</v>
       </c>
       <c r="C58" s="2">
-        <v>45172</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="H58" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="I58" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="J58" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="K58" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="L58">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="M58">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3475,40 +3766,1129 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1259</v>
+        <v>1021</v>
       </c>
       <c r="C59" s="2">
-        <v>45172</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" t="s">
+        <v>121</v>
+      </c>
+      <c r="H59" t="s">
+        <v>203</v>
+      </c>
+      <c r="I59" t="s">
+        <v>246</v>
+      </c>
+      <c r="J59" t="s">
+        <v>307</v>
+      </c>
+      <c r="K59" t="s">
+        <v>303</v>
+      </c>
+      <c r="L59">
+        <v>0.77</v>
+      </c>
+      <c r="M59">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1022</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" t="s">
+        <v>122</v>
+      </c>
+      <c r="H60" t="s">
+        <v>204</v>
+      </c>
+      <c r="I60" t="s">
+        <v>230</v>
+      </c>
+      <c r="J60" t="s">
+        <v>293</v>
+      </c>
+      <c r="K60" t="s">
+        <v>312</v>
+      </c>
+      <c r="L60">
+        <v>0.55</v>
+      </c>
+      <c r="M60">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1023</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" t="s">
+        <v>205</v>
+      </c>
+      <c r="I61" t="s">
+        <v>242</v>
+      </c>
+      <c r="J61" t="s">
+        <v>265</v>
+      </c>
+      <c r="K61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1024</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" t="s">
+        <v>124</v>
+      </c>
+      <c r="H62" t="s">
+        <v>206</v>
+      </c>
+      <c r="I62" t="s">
+        <v>272</v>
+      </c>
+      <c r="J62" t="s">
+        <v>308</v>
+      </c>
+      <c r="K62" t="s">
+        <v>333</v>
+      </c>
+      <c r="L62">
+        <v>0.41</v>
+      </c>
+      <c r="M62">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1025</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" t="s">
+        <v>60</v>
+      </c>
+      <c r="G63" t="s">
+        <v>125</v>
+      </c>
+      <c r="H63" t="s">
+        <v>207</v>
+      </c>
+      <c r="I63" t="s">
+        <v>273</v>
+      </c>
+      <c r="J63" t="s">
+        <v>300</v>
+      </c>
+      <c r="K63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L63">
+        <v>0.45</v>
+      </c>
+      <c r="M63">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1026</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" t="s">
+        <v>126</v>
+      </c>
+      <c r="H64" t="s">
+        <v>208</v>
+      </c>
+      <c r="I64" t="s">
+        <v>251</v>
+      </c>
+      <c r="J64" t="s">
+        <v>284</v>
+      </c>
+      <c r="K64" t="s">
+        <v>300</v>
+      </c>
+      <c r="L64">
+        <v>0.71</v>
+      </c>
+      <c r="M64">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1027</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" t="s">
+        <v>209</v>
+      </c>
+      <c r="I65" t="s">
+        <v>274</v>
+      </c>
+      <c r="J65" t="s">
+        <v>300</v>
+      </c>
+      <c r="K65" t="s">
+        <v>272</v>
+      </c>
+      <c r="L65">
+        <v>0.5</v>
+      </c>
+      <c r="M65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1028</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" t="s">
+        <v>128</v>
+      </c>
+      <c r="H66" t="s">
+        <v>210</v>
+      </c>
+      <c r="I66" t="s">
+        <v>275</v>
+      </c>
+      <c r="J66" t="s">
+        <v>309</v>
+      </c>
+      <c r="K66" t="s">
+        <v>335</v>
+      </c>
+      <c r="L66">
+        <v>0.78</v>
+      </c>
+      <c r="M66">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1029</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" t="s">
+        <v>129</v>
+      </c>
+      <c r="H67" t="s">
+        <v>211</v>
+      </c>
+      <c r="I67" t="s">
+        <v>276</v>
+      </c>
+      <c r="J67" t="s">
+        <v>298</v>
+      </c>
+      <c r="K67" t="s">
+        <v>332</v>
+      </c>
+      <c r="L67">
+        <v>0.52</v>
+      </c>
+      <c r="M67">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1030</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D68" t="s">
         <v>41</v>
       </c>
-      <c r="G59" t="s">
-        <v>100</v>
-      </c>
-      <c r="H59" t="s">
-        <v>158</v>
-      </c>
-      <c r="I59" t="s">
-        <v>203</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="E68" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" t="s">
+        <v>130</v>
+      </c>
+      <c r="H68" t="s">
+        <v>212</v>
+      </c>
+      <c r="I68" t="s">
+        <v>251</v>
+      </c>
+      <c r="J68" t="s">
+        <v>298</v>
+      </c>
+      <c r="K68" t="s">
+        <v>292</v>
+      </c>
+      <c r="L68">
+        <v>0.58</v>
+      </c>
+      <c r="M68">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>1031</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" t="s">
+        <v>131</v>
+      </c>
+      <c r="H69" t="s">
+        <v>213</v>
+      </c>
+      <c r="I69" t="s">
+        <v>277</v>
+      </c>
+      <c r="J69" t="s">
+        <v>298</v>
+      </c>
+      <c r="K69" t="s">
+        <v>334</v>
+      </c>
+      <c r="L69">
+        <v>0.62</v>
+      </c>
+      <c r="M69">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1032</v>
+      </c>
+      <c r="C70" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D70" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" t="s">
+        <v>132</v>
+      </c>
+      <c r="H70" t="s">
+        <v>214</v>
+      </c>
+      <c r="I70" t="s">
+        <v>252</v>
+      </c>
+      <c r="J70" t="s">
+        <v>309</v>
+      </c>
+      <c r="K70" t="s">
+        <v>336</v>
+      </c>
+      <c r="L70">
+        <v>0.62</v>
+      </c>
+      <c r="M70">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>1348</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" t="s">
+        <v>133</v>
+      </c>
+      <c r="H71" t="s">
+        <v>215</v>
+      </c>
+      <c r="I71" t="s">
+        <v>253</v>
+      </c>
+      <c r="J71" t="s">
+        <v>288</v>
+      </c>
+      <c r="K71" t="s">
+        <v>258</v>
+      </c>
+      <c r="L71">
+        <v>0.66</v>
+      </c>
+      <c r="M71">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1349</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" t="s">
+        <v>134</v>
+      </c>
+      <c r="H72" t="s">
         <v>216</v>
       </c>
-      <c r="K59" t="s">
-        <v>194</v>
-      </c>
-      <c r="L59">
-        <v>0.37</v>
-      </c>
-      <c r="M59">
-        <v>0.63</v>
+      <c r="I72" t="s">
+        <v>278</v>
+      </c>
+      <c r="J72" t="s">
+        <v>265</v>
+      </c>
+      <c r="K72" t="s">
+        <v>294</v>
+      </c>
+      <c r="L72">
+        <v>0.57</v>
+      </c>
+      <c r="M72">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>1350</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" t="s">
+        <v>135</v>
+      </c>
+      <c r="H73" t="s">
+        <v>217</v>
+      </c>
+      <c r="I73" t="s">
+        <v>279</v>
+      </c>
+      <c r="J73" t="s">
+        <v>268</v>
+      </c>
+      <c r="K73" t="s">
+        <v>310</v>
+      </c>
+      <c r="L73">
+        <v>0.85</v>
+      </c>
+      <c r="M73">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>1351</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" t="s">
+        <v>136</v>
+      </c>
+      <c r="H74" t="s">
+        <v>218</v>
+      </c>
+      <c r="I74" t="s">
+        <v>280</v>
+      </c>
+      <c r="J74" t="s">
+        <v>310</v>
+      </c>
+      <c r="K74" t="s">
+        <v>337</v>
+      </c>
+      <c r="L74">
+        <v>0.87</v>
+      </c>
+      <c r="M74">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1033</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" t="s">
+        <v>137</v>
+      </c>
+      <c r="H75" t="s">
+        <v>219</v>
+      </c>
+      <c r="I75" t="s">
+        <v>255</v>
+      </c>
+      <c r="J75" t="s">
+        <v>258</v>
+      </c>
+      <c r="K75" t="s">
+        <v>287</v>
+      </c>
+      <c r="L75">
+        <v>0.52</v>
+      </c>
+      <c r="M75">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>1034</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76" t="s">
+        <v>138</v>
+      </c>
+      <c r="H76" t="s">
+        <v>220</v>
+      </c>
+      <c r="I76" t="s">
+        <v>281</v>
+      </c>
+      <c r="J76" t="s">
+        <v>289</v>
+      </c>
+      <c r="K76" t="s">
+        <v>317</v>
+      </c>
+      <c r="L76">
+        <v>0.77</v>
+      </c>
+      <c r="M76">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>1035</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" t="s">
+        <v>139</v>
+      </c>
+      <c r="H77" t="s">
+        <v>221</v>
+      </c>
+      <c r="I77" t="s">
+        <v>282</v>
+      </c>
+      <c r="J77" t="s">
+        <v>239</v>
+      </c>
+      <c r="K77" t="s">
+        <v>305</v>
+      </c>
+      <c r="L77">
+        <v>0.72</v>
+      </c>
+      <c r="M77">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>1036</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45186</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" t="s">
+        <v>140</v>
+      </c>
+      <c r="H78" t="s">
+        <v>222</v>
+      </c>
+      <c r="I78" t="s">
+        <v>283</v>
+      </c>
+      <c r="J78" t="s">
+        <v>268</v>
+      </c>
+      <c r="K78" t="s">
+        <v>291</v>
+      </c>
+      <c r="L78">
+        <v>0.58</v>
+      </c>
+      <c r="M78">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1515</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45187</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>62</v>
+      </c>
+      <c r="G79" t="s">
+        <v>141</v>
+      </c>
+      <c r="H79" t="s">
+        <v>65</v>
+      </c>
+      <c r="I79" t="s">
+        <v>233</v>
+      </c>
+      <c r="J79" t="s">
+        <v>286</v>
+      </c>
+      <c r="K79" t="s">
+        <v>293</v>
+      </c>
+      <c r="L79">
+        <v>0.64</v>
+      </c>
+      <c r="M79">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1516</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45187</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>63</v>
+      </c>
+      <c r="G80" t="s">
+        <v>142</v>
+      </c>
+      <c r="H80" t="s">
+        <v>150</v>
+      </c>
+      <c r="I80" t="s">
+        <v>229</v>
+      </c>
+      <c r="J80" t="s">
+        <v>254</v>
+      </c>
+      <c r="K80" t="s">
+        <v>272</v>
+      </c>
+      <c r="L80">
+        <v>0.86</v>
+      </c>
+      <c r="M80">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1495</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45187</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>50</v>
+      </c>
+      <c r="F81" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" t="s">
+        <v>143</v>
+      </c>
+      <c r="H81" t="s">
+        <v>223</v>
+      </c>
+      <c r="I81" t="s">
+        <v>243</v>
+      </c>
+      <c r="J81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K81" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1496</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45187</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H82" t="s">
+        <v>224</v>
+      </c>
+      <c r="I82" t="s">
+        <v>284</v>
+      </c>
+      <c r="J82" t="s">
+        <v>308</v>
+      </c>
+      <c r="K82" t="s">
+        <v>338</v>
+      </c>
+      <c r="L82">
+        <v>0.46</v>
+      </c>
+      <c r="M82">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1497</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45187</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" t="s">
+        <v>60</v>
+      </c>
+      <c r="G83" t="s">
+        <v>145</v>
+      </c>
+      <c r="H83" t="s">
+        <v>225</v>
+      </c>
+      <c r="I83" t="s">
+        <v>285</v>
+      </c>
+      <c r="J83" t="s">
+        <v>308</v>
+      </c>
+      <c r="K83" t="s">
+        <v>271</v>
+      </c>
+      <c r="L83">
+        <v>0.39</v>
+      </c>
+      <c r="M83">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1571</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45187</v>
+      </c>
+      <c r="D84" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" t="s">
+        <v>57</v>
+      </c>
+      <c r="G84" t="s">
+        <v>146</v>
+      </c>
+      <c r="H84" t="s">
+        <v>226</v>
+      </c>
+      <c r="I84" t="s">
+        <v>283</v>
+      </c>
+      <c r="J84" t="s">
+        <v>239</v>
+      </c>
+      <c r="K84" t="s">
+        <v>291</v>
+      </c>
+      <c r="L84">
+        <v>0.67</v>
+      </c>
+      <c r="M84">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1498</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45187</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" t="s">
+        <v>58</v>
+      </c>
+      <c r="G85" t="s">
+        <v>147</v>
+      </c>
+      <c r="H85" t="s">
+        <v>227</v>
+      </c>
+      <c r="I85" t="s">
+        <v>242</v>
+      </c>
+      <c r="J85" t="s">
+        <v>288</v>
+      </c>
+      <c r="K85" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1625</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45188</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>62</v>
+      </c>
+      <c r="G86" t="s">
+        <v>148</v>
+      </c>
+      <c r="H86" t="s">
+        <v>67</v>
+      </c>
+      <c r="I86" t="s">
+        <v>272</v>
+      </c>
+      <c r="J86" t="s">
+        <v>292</v>
+      </c>
+      <c r="K86" t="s">
+        <v>340</v>
+      </c>
+      <c r="L86">
+        <v>0.73</v>
+      </c>
+      <c r="M86">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds.xlsx
+++ b/df_odds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="341">
   <si>
     <t>Nº</t>
   </si>
@@ -55,22 +55,31 @@
     <t>19:00</t>
   </si>
   <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
     <t>20:00</t>
   </si>
   <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
     <t>16:00</t>
   </si>
   <si>
     <t>15:30</t>
   </si>
   <si>
-    <t>15:15</t>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>16:15</t>
   </si>
   <si>
     <t>11:00</t>
@@ -82,45 +91,39 @@
     <t>21:00</t>
   </si>
   <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>11:15</t>
+  </si>
+  <si>
     <t>08:30</t>
   </si>
   <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>13:45</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>11:15</t>
-  </si>
-  <si>
     <t>14:15</t>
   </si>
   <si>
@@ -145,9 +148,6 @@
     <t>11:45</t>
   </si>
   <si>
-    <t>16:15</t>
-  </si>
-  <si>
     <t>BRAZIL</t>
   </si>
   <si>
@@ -160,6 +160,12 @@
     <t>GERMANY</t>
   </si>
   <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>NETHERLANDS</t>
+  </si>
+  <si>
     <t>PORTUGAL</t>
   </si>
   <si>
@@ -169,874 +175,868 @@
     <t>ENGLAND</t>
   </si>
   <si>
-    <t>ITALY</t>
-  </si>
-  <si>
-    <t>NETHERLANDS</t>
-  </si>
-  <si>
-    <t>SERIE A - ROUND 23</t>
-  </si>
-  <si>
-    <t>JUPILER PRO LEAGUE - ROUND 7</t>
-  </si>
-  <si>
-    <t>LIGUE 1 - ROUND 5</t>
-  </si>
-  <si>
-    <t>BUNDESLIGA - ROUND 4</t>
-  </si>
-  <si>
-    <t>LIGA PORTUGAL - ROUND 5</t>
-  </si>
-  <si>
-    <t>LALIGA - ROUND 5</t>
-  </si>
-  <si>
-    <t>PREMIER LEAGUE - ROUND 5</t>
-  </si>
-  <si>
-    <t>SERIE A - ROUND 4</t>
-  </si>
-  <si>
-    <t>EREDIVISIE - ROUND 5</t>
-  </si>
-  <si>
     <t>SERIE A - ROUND 24</t>
   </si>
   <si>
+    <t>JUPILER PRO LEAGUE - ROUND 8</t>
+  </si>
+  <si>
+    <t>LIGUE 1 - ROUND 6</t>
+  </si>
+  <si>
+    <t>BUNDESLIGA - ROUND 5</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 5</t>
+  </si>
+  <si>
+    <t>EREDIVISIE - ROUND 6</t>
+  </si>
+  <si>
+    <t>LIGA PORTUGAL - ROUND 6</t>
+  </si>
+  <si>
+    <t>LALIGA - ROUND 6</t>
+  </si>
+  <si>
+    <t>PREMIER LEAGUE - ROUND 6</t>
+  </si>
+  <si>
     <t>SERIE A - ROUND 15</t>
   </si>
   <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Vasco da Gama</t>
+  </si>
+  <si>
+    <t>Athletico Paranaense</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>Standard Liege</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Charleroi</t>
+  </si>
+  <si>
+    <t>Mechelen</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Atletico Mineiro</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Monchengladbach</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Volendam</t>
+  </si>
+  <si>
+    <t>NEC Nijmegen</t>
+  </si>
+  <si>
+    <t>Almere City</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Casa Pia</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Anderlecht</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Paris Saint Germain</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>Chaves</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Braga</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>America MG</t>
+  </si>
+  <si>
+    <t>Sporting CP</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
     <t>Fortaleza</t>
   </si>
   <si>
-    <t>Santos</t>
-  </si>
-  <si>
     <t>Coritiba</t>
   </si>
   <si>
-    <t>Bragantino</t>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
   </si>
   <si>
     <t>Westerlo</t>
   </si>
   <si>
+    <t>Botafogo RJ</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Fortuna Sittard</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
+    <t>OH Leuven</t>
+  </si>
+  <si>
+    <t>RWD Molenbeek</t>
+  </si>
+  <si>
     <t>Cuiaba</t>
   </si>
   <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Paris Saint Germain</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Mainz 05</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Koln</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Heracles Almelo</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Excelsior</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>Farense</t>
+  </si>
+  <si>
+    <t>Vitoria Guimaraes</t>
+  </si>
+  <si>
+    <t>Gil Vicente FC</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Sint Truiden</t>
+  </si>
+  <si>
+    <t>Union SG</t>
+  </si>
+  <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>Eupen</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Clermont Foot</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
   </si>
   <si>
     <t>Estrela</t>
   </si>
   <si>
-    <t>Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>RWD Molenbeek</t>
-  </si>
-  <si>
-    <t>Union SG</t>
-  </si>
-  <si>
-    <t>Club Brugge</t>
-  </si>
-  <si>
-    <t>Vasco da Gama</t>
-  </si>
-  <si>
-    <t>Atletico Mineiro</t>
-  </si>
-  <si>
-    <t>Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>Newcastle United</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Koln</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Mainz 05</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Internazionale</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Fortuna Sittard</t>
-  </si>
-  <si>
-    <t>Heracles Almelo</t>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
   </si>
   <si>
     <t>Rio Ave</t>
   </si>
   <si>
-    <t>Farense</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Eupen</t>
-  </si>
-  <si>
-    <t>Kortrijk</t>
-  </si>
-  <si>
-    <t>OH Leuven</t>
-  </si>
-  <si>
-    <t>Sint Truiden</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Clermont Foot</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>Excelsior</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Gil Vicente FC</t>
-  </si>
-  <si>
-    <t>Vitoria Guimaraes</t>
-  </si>
-  <si>
-    <t>Sporting CP</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Corinthians</t>
-  </si>
-  <si>
-    <t>Nottingham Forest</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Granada CF</t>
-  </si>
-  <si>
-    <t>America MG</t>
-  </si>
-  <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
-    <t>Gremio</t>
-  </si>
-  <si>
-    <t>Antwerp</t>
-  </si>
-  <si>
-    <t>Goias</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Bayer Leverkusen</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Cercle Brugge</t>
-  </si>
-  <si>
-    <t>Genk</t>
-  </si>
-  <si>
-    <t>Charleroi</t>
-  </si>
-  <si>
-    <t>Fluminense</t>
-  </si>
-  <si>
-    <t>Botafogo RJ</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Brighton and Hove Albion</t>
-  </si>
-  <si>
-    <t>Sheffield Utd</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Eintracht Frankfurt</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>RKC Waalwijk</t>
-  </si>
-  <si>
-    <t>NEC Nijmegen</t>
-  </si>
-  <si>
-    <t>Volendam</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Braga</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Atletico Madrid</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Real Betis</t>
-  </si>
-  <si>
-    <t>Standard Liege</t>
-  </si>
-  <si>
-    <t>Anderlecht</t>
-  </si>
-  <si>
-    <t>Gent</t>
-  </si>
-  <si>
-    <t>Mechelen</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Monchengladbach</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>Almere City</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Casa Pia</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Chaves</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>1.83</t>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>2.80</t>
   </si>
   <si>
     <t>2.55</t>
   </si>
   <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
     <t>2.35</t>
   </si>
   <si>
-    <t>1.90</t>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>6.90</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>8.30</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>5.40</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>6.40</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>5.80</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>2.40</t>
   </si>
   <si>
     <t>4.50</t>
   </si>
   <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>1.35</t>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>8.10</t>
+  </si>
+  <si>
+    <t>7.10</t>
   </si>
   <si>
     <t>1.47</t>
   </si>
   <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>1.98</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>2.95</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>7.10</t>
-  </si>
-  <si>
-    <t>1.92</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>6.70</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>2.08</t>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>1.34</t>
   </si>
   <si>
     <t>1.52</t>
   </si>
   <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>1.62</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>6.30</t>
-  </si>
-  <si>
-    <t>3.90</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>2.72</t>
-  </si>
-  <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>1.43</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>1.65</t>
-  </si>
-  <si>
-    <t>1.66</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>4.95</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>3.70</t>
+    <t>2.70</t>
   </si>
   <si>
     <t>7.00</t>
   </si>
   <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>6.40</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>7.30</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>4.70</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>4.40</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>2.90</t>
-  </si>
-  <si>
-    <t>1.70</t>
-  </si>
-  <si>
-    <t>9.00</t>
-  </si>
-  <si>
-    <t>5.90</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>2.98</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>6.10</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>11.50</t>
-  </si>
-  <si>
-    <t>5.40</t>
-  </si>
-  <si>
-    <t>14.50</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>1.80</t>
-  </si>
-  <si>
-    <t>2.92</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>2.48</t>
-  </si>
-  <si>
-    <t>7.80</t>
-  </si>
-  <si>
-    <t>5.85</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>2.50</t>
+    <t>15.00</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>45183</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1462,25 +1462,25 @@
         <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L2">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="M2">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1488,13 +1488,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
-        <v>45183</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -1503,25 +1503,25 @@
         <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L3">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="M3">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1529,10 +1529,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
-        <v>45183</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1544,25 +1544,25 @@
         <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="I4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J4" t="s">
         <v>288</v>
       </c>
       <c r="K4" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L4">
-        <v>0.66</v>
+        <v>0.49</v>
       </c>
       <c r="M4">
-        <v>0.34</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1570,13 +1570,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="C5" s="2">
-        <v>45183</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -1585,25 +1585,25 @@
         <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J5" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="K5" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="L5">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="M5">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1611,40 +1611,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="C6" s="2">
-        <v>45184</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J6" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="K6" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="L6">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="M6">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1652,10 +1652,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="C7" s="2">
-        <v>45184</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1667,25 +1667,25 @@
         <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="L7">
-        <v>0.5600000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="M7">
-        <v>0.44</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1693,40 +1693,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="C8" s="2">
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J8" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="K8" t="s">
-        <v>314</v>
+        <v>239</v>
       </c>
       <c r="L8">
-        <v>0.84</v>
+        <v>0.55</v>
       </c>
       <c r="M8">
-        <v>0.16</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1734,40 +1734,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>412</v>
       </c>
       <c r="C9" s="2">
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J9" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="K9" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="L9">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="M9">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1775,40 +1775,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>367</v>
       </c>
       <c r="C10" s="2">
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J10" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="K10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L10">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="M10">
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1816,40 +1816,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>231</v>
+        <v>368</v>
       </c>
       <c r="C11" s="2">
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J11" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="K11" t="s">
-        <v>316</v>
-      </c>
-      <c r="L11">
-        <v>0.3</v>
-      </c>
-      <c r="M11">
-        <v>0.7</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1857,34 +1851,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="C12" s="2">
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J12" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="K12" t="s">
-        <v>311</v>
+        <v>318</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1892,40 +1892,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C13" s="2">
-        <v>45185</v>
+        <v>45191</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J13" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K13" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="L13">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M13">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1933,40 +1933,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C14" s="2">
-        <v>45185</v>
+        <v>45191</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K14" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>0.74</v>
       </c>
       <c r="M14">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1974,40 +1974,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>371</v>
+        <v>534</v>
       </c>
       <c r="C15" s="2">
-        <v>45185</v>
+        <v>45191</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J15" t="s">
+        <v>293</v>
+      </c>
+      <c r="K15" t="s">
         <v>289</v>
       </c>
-      <c r="K15" t="s">
-        <v>317</v>
-      </c>
       <c r="L15">
-        <v>0.72</v>
+        <v>0.41</v>
       </c>
       <c r="M15">
-        <v>0.28</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2015,40 +2015,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C16" s="2">
-        <v>45185</v>
+        <v>45191</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J16" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="K16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L16">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="M16">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2056,40 +2056,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>378</v>
+        <v>662</v>
       </c>
       <c r="C17" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J17" t="s">
         <v>294</v>
       </c>
       <c r="K17" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="L17">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="M17">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2097,40 +2097,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>300</v>
+        <v>663</v>
       </c>
       <c r="C18" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J18" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="K18" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="L18">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="M18">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2138,40 +2138,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>301</v>
+        <v>664</v>
       </c>
       <c r="C19" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J19" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="K19" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="L19">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
       <c r="M19">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2179,34 +2179,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>302</v>
+        <v>671</v>
       </c>
       <c r="C20" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J20" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="K20" t="s">
-        <v>319</v>
+        <v>311</v>
+      </c>
+      <c r="L20">
+        <v>0.83</v>
+      </c>
+      <c r="M20">
+        <v>0.17</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2214,40 +2220,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>303</v>
+        <v>599</v>
       </c>
       <c r="C21" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J21" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K21" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L21">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="M21">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2255,34 +2261,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>304</v>
+        <v>600</v>
       </c>
       <c r="C22" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J22" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="K22" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2290,40 +2296,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>305</v>
+        <v>601</v>
       </c>
       <c r="C23" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="K23" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="L23">
-        <v>0.32</v>
+        <v>0.93</v>
       </c>
       <c r="M23">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2331,40 +2337,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>306</v>
+        <v>602</v>
       </c>
       <c r="C24" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J24" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="K24" t="s">
         <v>322</v>
       </c>
       <c r="L24">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="M24">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2372,40 +2378,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>307</v>
+        <v>603</v>
       </c>
       <c r="C25" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K25" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="L25">
-        <v>0.6</v>
+        <v>0.29</v>
       </c>
       <c r="M25">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2413,13 +2419,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>308</v>
+        <v>604</v>
       </c>
       <c r="C26" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
         <v>46</v>
@@ -2428,25 +2434,25 @@
         <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K26" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="L26">
-        <v>0.9399999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="M26">
-        <v>0.06</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2454,40 +2460,40 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>309</v>
+        <v>605</v>
       </c>
       <c r="C27" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="J27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L27">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="M27">
-        <v>0.37</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2495,13 +2501,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>310</v>
+        <v>606</v>
       </c>
       <c r="C28" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
         <v>47</v>
@@ -2510,25 +2516,25 @@
         <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="L28">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="M28">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2536,13 +2542,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>311</v>
+        <v>607</v>
       </c>
       <c r="C29" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
         <v>47</v>
@@ -2551,25 +2557,25 @@
         <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I29" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="L29">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="M29">
-        <v>0.34</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2577,13 +2583,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>312</v>
+        <v>608</v>
       </c>
       <c r="C30" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
         <v>47</v>
@@ -2592,19 +2598,19 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="K30" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L30">
         <v>0.9</v>
@@ -2618,13 +2624,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>313</v>
+        <v>609</v>
       </c>
       <c r="C31" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
         <v>47</v>
@@ -2633,25 +2639,25 @@
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I31" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J31" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="K31" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="L31">
-        <v>0.46</v>
+        <v>0.74</v>
       </c>
       <c r="M31">
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2659,13 +2665,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>314</v>
+        <v>610</v>
       </c>
       <c r="C32" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
         <v>47</v>
@@ -2674,25 +2680,25 @@
         <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J32" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="L32">
-        <v>0.49</v>
+        <v>0.79</v>
       </c>
       <c r="M32">
-        <v>0.51</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2700,40 +2706,40 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>315</v>
+        <v>611</v>
       </c>
       <c r="C33" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I33" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="J33" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="L33">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="M33">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2741,40 +2747,40 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>316</v>
+        <v>612</v>
       </c>
       <c r="C34" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I34" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J34" t="s">
         <v>300</v>
       </c>
       <c r="K34" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="L34">
-        <v>0.55</v>
+        <v>0.93</v>
       </c>
       <c r="M34">
-        <v>0.45</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2782,34 +2788,34 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>317</v>
+        <v>613</v>
       </c>
       <c r="C35" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I35" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J35" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K35" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="L35">
         <v>0.27</v>
@@ -2823,40 +2829,40 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>318</v>
+        <v>614</v>
       </c>
       <c r="C36" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I36" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J36" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K36" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L36">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M36">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2864,40 +2870,40 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>319</v>
+        <v>615</v>
       </c>
       <c r="C37" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="s">
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I37" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="J37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s">
-        <v>325</v>
+        <v>232</v>
       </c>
       <c r="L37">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="M37">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2905,40 +2911,40 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>320</v>
+        <v>616</v>
       </c>
       <c r="C38" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J38" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L38">
-        <v>0.88</v>
+        <v>0.43</v>
       </c>
       <c r="M38">
-        <v>0.12</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2946,40 +2952,40 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>321</v>
+        <v>617</v>
       </c>
       <c r="C39" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J39" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K39" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="L39">
-        <v>0.6</v>
+        <v>0.24</v>
       </c>
       <c r="M39">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2987,40 +2993,40 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>322</v>
+        <v>618</v>
       </c>
       <c r="C40" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J40" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K40" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L40">
-        <v>0.55</v>
+        <v>0.72</v>
       </c>
       <c r="M40">
-        <v>0.45</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3028,40 +3034,40 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>769</v>
+        <v>995</v>
       </c>
       <c r="C41" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I41" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="J41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="L41">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="M41">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3069,40 +3075,40 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>770</v>
+        <v>996</v>
       </c>
       <c r="C42" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I42" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="J42" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="K42" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="L42">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="M42">
-        <v>0.6899999999999999</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3110,40 +3116,40 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>771</v>
+        <v>997</v>
       </c>
       <c r="C43" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I43" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="J43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K43" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="L43">
-        <v>0.31</v>
+        <v>0.57</v>
       </c>
       <c r="M43">
-        <v>0.6899999999999999</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3151,40 +3157,40 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>323</v>
+        <v>998</v>
       </c>
       <c r="C44" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I44" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J44" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="K44" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="L44">
-        <v>0.74</v>
+        <v>0.95</v>
       </c>
       <c r="M44">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3192,40 +3198,40 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>324</v>
+        <v>619</v>
       </c>
       <c r="C45" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I45" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J45" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="K45" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="L45">
-        <v>0.3</v>
+        <v>0.57</v>
       </c>
       <c r="M45">
-        <v>0.7</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3233,40 +3239,40 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>325</v>
+        <v>620</v>
       </c>
       <c r="C46" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I46" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="J46" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K46" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="L46">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="M46">
-        <v>0.54</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3274,40 +3280,40 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>326</v>
+        <v>621</v>
       </c>
       <c r="C47" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I47" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="J47" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="K47" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L47">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="M47">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3315,40 +3321,40 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1105</v>
+        <v>622</v>
       </c>
       <c r="C48" s="2">
-        <v>45186</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I48" t="s">
         <v>267</v>
       </c>
       <c r="J48" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L48">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="M48">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3356,13 +3362,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1106</v>
+        <v>1322</v>
       </c>
       <c r="C49" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
         <v>45</v>
@@ -3371,25 +3377,25 @@
         <v>54</v>
       </c>
       <c r="G49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I49" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J49" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="K49" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="L49">
-        <v>0.37</v>
+        <v>0.8</v>
       </c>
       <c r="M49">
-        <v>0.63</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3397,13 +3403,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1107</v>
+        <v>1323</v>
       </c>
       <c r="C50" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
         <v>45</v>
@@ -3412,19 +3418,19 @@
         <v>54</v>
       </c>
       <c r="G50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I50" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="J50" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="K50" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="L50">
         <v>0.44</v>
@@ -3438,13 +3444,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1108</v>
+        <v>1324</v>
       </c>
       <c r="C51" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
         <v>45</v>
@@ -3453,25 +3459,25 @@
         <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I51" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="J51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K51" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="L51">
-        <v>0.5600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="M51">
-        <v>0.44</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3479,40 +3485,40 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1014</v>
+        <v>1325</v>
       </c>
       <c r="C52" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I52" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="J52" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="K52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L52">
-        <v>0.47</v>
+        <v>0.86</v>
       </c>
       <c r="M52">
-        <v>0.53</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3520,40 +3526,40 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1015</v>
+        <v>1231</v>
       </c>
       <c r="C53" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I53" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J53" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K53" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L53">
-        <v>0.29</v>
+        <v>0.73</v>
       </c>
       <c r="M53">
-        <v>0.71</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3561,40 +3567,40 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1016</v>
+        <v>1232</v>
       </c>
       <c r="C54" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I54" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L54">
-        <v>0.49</v>
+        <v>0.83</v>
       </c>
       <c r="M54">
-        <v>0.51</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3602,40 +3608,40 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1017</v>
+        <v>1233</v>
       </c>
       <c r="C55" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I55" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="J55" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K55" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L55">
-        <v>0.8100000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="M55">
-        <v>0.19</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3643,40 +3649,40 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1018</v>
+        <v>1234</v>
       </c>
       <c r="C56" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I56" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="J56" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="K56" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="L56">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="M56">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3684,40 +3690,34 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1019</v>
+        <v>1235</v>
       </c>
       <c r="C57" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I57" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J57" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="K57" t="s">
-        <v>332</v>
-      </c>
-      <c r="L57">
-        <v>0.48</v>
-      </c>
-      <c r="M57">
-        <v>0.52</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3725,10 +3725,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1020</v>
+        <v>1236</v>
       </c>
       <c r="C58" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D58" t="s">
         <v>38</v>
@@ -3740,25 +3740,25 @@
         <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I58" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="J58" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="K58" t="s">
-        <v>302</v>
+        <v>228</v>
       </c>
       <c r="L58">
-        <v>0.78</v>
+        <v>0.55</v>
       </c>
       <c r="M58">
-        <v>0.22</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3766,13 +3766,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1021</v>
+        <v>1237</v>
       </c>
       <c r="C59" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E59" t="s">
         <v>46</v>
@@ -3781,25 +3781,25 @@
         <v>55</v>
       </c>
       <c r="G59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I59" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="J59" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="K59" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="L59">
-        <v>0.77</v>
+        <v>0.38</v>
       </c>
       <c r="M59">
-        <v>0.23</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3807,40 +3807,40 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1022</v>
+        <v>1238</v>
       </c>
       <c r="C60" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I60" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="J60" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K60" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="L60">
-        <v>0.55</v>
+        <v>0.85</v>
       </c>
       <c r="M60">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3848,34 +3848,40 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1023</v>
+        <v>1239</v>
       </c>
       <c r="C61" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I61" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="J61" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="K61" t="s">
-        <v>230</v>
+        <v>335</v>
+      </c>
+      <c r="L61">
+        <v>0.36</v>
+      </c>
+      <c r="M61">
+        <v>0.64</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3883,40 +3889,40 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1024</v>
+        <v>1240</v>
       </c>
       <c r="C62" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I62" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="J62" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K62" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="L62">
-        <v>0.41</v>
+        <v>0.67</v>
       </c>
       <c r="M62">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3924,40 +3930,40 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1025</v>
+        <v>1241</v>
       </c>
       <c r="C63" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D63" t="s">
         <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I63" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J63" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="K63" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="L63">
-        <v>0.45</v>
+        <v>0.77</v>
       </c>
       <c r="M63">
-        <v>0.55</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3965,40 +3971,40 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1026</v>
+        <v>1242</v>
       </c>
       <c r="C64" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I64" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J64" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="K64" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="L64">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="M64">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4006,40 +4012,40 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1027</v>
+        <v>1243</v>
       </c>
       <c r="C65" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I65" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J65" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="K65" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="L65">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="M65">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4047,40 +4053,40 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1028</v>
+        <v>1244</v>
       </c>
       <c r="C66" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E66" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I66" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J66" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K66" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="L66">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="M66">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4088,40 +4094,40 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1029</v>
+        <v>1245</v>
       </c>
       <c r="C67" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K67" t="s">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="L67">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="M67">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4129,40 +4135,40 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1030</v>
+        <v>1246</v>
       </c>
       <c r="C68" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I68" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="J68" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K68" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="L68">
-        <v>0.58</v>
+        <v>0.36</v>
       </c>
       <c r="M68">
-        <v>0.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4170,40 +4176,40 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1031</v>
+        <v>1247</v>
       </c>
       <c r="C69" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I69" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J69" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="K69" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L69">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="M69">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4211,40 +4217,40 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1032</v>
+        <v>1248</v>
       </c>
       <c r="C70" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I70" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J70" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="K70" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="L70">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="M70">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4252,40 +4258,40 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1348</v>
+        <v>1249</v>
       </c>
       <c r="C71" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I71" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="J71" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K71" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="L71">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="M71">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4293,40 +4299,40 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1349</v>
+        <v>1250</v>
       </c>
       <c r="C72" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I72" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J72" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="K72" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="L72">
-        <v>0.57</v>
+        <v>0.2</v>
       </c>
       <c r="M72">
-        <v>0.43</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4334,40 +4340,40 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1350</v>
+        <v>1251</v>
       </c>
       <c r="C73" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D73" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I73" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J73" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="K73" t="s">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="L73">
-        <v>0.85</v>
+        <v>0.29</v>
       </c>
       <c r="M73">
-        <v>0.15</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4375,40 +4381,40 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1351</v>
+        <v>1558</v>
       </c>
       <c r="C74" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I74" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="J74" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="K74" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L74">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="M74">
-        <v>0.13</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4416,40 +4422,40 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1033</v>
+        <v>1559</v>
       </c>
       <c r="C75" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I75" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="J75" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="K75" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="L75">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
       <c r="M75">
-        <v>0.48</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4457,40 +4463,40 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1034</v>
+        <v>1560</v>
       </c>
       <c r="C76" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I76" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J76" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="K76" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L76">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M76">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4498,40 +4504,40 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1035</v>
+        <v>1252</v>
       </c>
       <c r="C77" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I77" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J77" t="s">
         <v>239</v>
       </c>
       <c r="K77" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="L77">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
       <c r="M77">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4539,40 +4545,40 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1036</v>
+        <v>1253</v>
       </c>
       <c r="C78" s="2">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I78" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="J78" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="K78" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="L78">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="M78">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4580,40 +4586,40 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1515</v>
+        <v>1254</v>
       </c>
       <c r="C79" s="2">
-        <v>45187</v>
+        <v>45193</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H79" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="I79" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="J79" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K79" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="L79">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="M79">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4621,40 +4627,34 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1516</v>
+        <v>1255</v>
       </c>
       <c r="C80" s="2">
-        <v>45187</v>
+        <v>45193</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F80" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H80" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="I80" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="J80" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="K80" t="s">
-        <v>272</v>
-      </c>
-      <c r="L80">
-        <v>0.86</v>
-      </c>
-      <c r="M80">
-        <v>0.14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4662,34 +4662,40 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1495</v>
+        <v>1256</v>
       </c>
       <c r="C81" s="2">
-        <v>45187</v>
+        <v>45193</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I81" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="J81" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="K81" t="s">
-        <v>288</v>
+        <v>250</v>
+      </c>
+      <c r="L81">
+        <v>0.5</v>
+      </c>
+      <c r="M81">
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4697,40 +4703,40 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1496</v>
+        <v>1730</v>
       </c>
       <c r="C82" s="2">
-        <v>45187</v>
+        <v>45194</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H82" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="I82" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="K82" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="L82">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="M82">
-        <v>0.54</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4738,157 +4744,40 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1497</v>
+        <v>1776</v>
       </c>
       <c r="C83" s="2">
-        <v>45187</v>
+        <v>45194</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H83" t="s">
         <v>225</v>
       </c>
       <c r="I83" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J83" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K83" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="L83">
-        <v>0.39</v>
+        <v>0.9</v>
       </c>
       <c r="M83">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>1571</v>
-      </c>
-      <c r="C84" s="2">
-        <v>45187</v>
-      </c>
-      <c r="D84" t="s">
-        <v>43</v>
-      </c>
-      <c r="E84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F84" t="s">
-        <v>57</v>
-      </c>
-      <c r="G84" t="s">
-        <v>146</v>
-      </c>
-      <c r="H84" t="s">
-        <v>226</v>
-      </c>
-      <c r="I84" t="s">
-        <v>283</v>
-      </c>
-      <c r="J84" t="s">
-        <v>239</v>
-      </c>
-      <c r="K84" t="s">
-        <v>291</v>
-      </c>
-      <c r="L84">
-        <v>0.67</v>
-      </c>
-      <c r="M84">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>1498</v>
-      </c>
-      <c r="C85" s="2">
-        <v>45187</v>
-      </c>
-      <c r="D85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" t="s">
-        <v>49</v>
-      </c>
-      <c r="F85" t="s">
-        <v>58</v>
-      </c>
-      <c r="G85" t="s">
-        <v>147</v>
-      </c>
-      <c r="H85" t="s">
-        <v>227</v>
-      </c>
-      <c r="I85" t="s">
-        <v>242</v>
-      </c>
-      <c r="J85" t="s">
-        <v>288</v>
-      </c>
-      <c r="K85" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>1625</v>
-      </c>
-      <c r="C86" s="2">
-        <v>45188</v>
-      </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" t="s">
-        <v>62</v>
-      </c>
-      <c r="G86" t="s">
-        <v>148</v>
-      </c>
-      <c r="H86" t="s">
-        <v>67</v>
-      </c>
-      <c r="I86" t="s">
-        <v>272</v>
-      </c>
-      <c r="J86" t="s">
-        <v>292</v>
-      </c>
-      <c r="K86" t="s">
-        <v>340</v>
-      </c>
-      <c r="L86">
-        <v>0.73</v>
-      </c>
-      <c r="M86">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds.xlsx
+++ b/df_odds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="358">
   <si>
     <t>Nº</t>
   </si>
@@ -52,45 +52,54 @@
     <t>Pred_A</t>
   </si>
   <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
     <t>19:00</t>
   </si>
   <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>19:30</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>16:00</t>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>16:15</t>
   </si>
   <si>
     <t>15:30</t>
   </si>
   <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>16:15</t>
-  </si>
-  <si>
     <t>11:00</t>
   </si>
   <si>
     <t>13:15</t>
   </si>
   <si>
+    <t>18:30</t>
+  </si>
+  <si>
     <t>21:00</t>
   </si>
   <si>
+    <t>08:30</t>
+  </si>
+  <si>
     <t>12:00</t>
   </si>
   <si>
@@ -106,36 +115,21 @@
     <t>11:30</t>
   </si>
   <si>
-    <t>13:45</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
     <t>11:15</t>
   </si>
   <si>
-    <t>08:30</t>
-  </si>
-  <si>
     <t>14:15</t>
   </si>
   <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>12:05</t>
+  </si>
+  <si>
     <t>12:30</t>
   </si>
   <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>12:05</t>
-  </si>
-  <si>
     <t>07:30</t>
   </si>
   <si>
@@ -148,178 +142,559 @@
     <t>11:45</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
     <t>BRAZIL</t>
   </si>
   <si>
-    <t>BELGIUM</t>
-  </si>
-  <si>
-    <t>FRANCE</t>
+    <t>NETHERLANDS</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
   </si>
   <si>
     <t>GERMANY</t>
   </si>
   <si>
-    <t>ITALY</t>
-  </si>
-  <si>
-    <t>NETHERLANDS</t>
-  </si>
-  <si>
-    <t>PORTUGAL</t>
-  </si>
-  <si>
-    <t>SPAIN</t>
-  </si>
-  <si>
     <t>ENGLAND</t>
   </si>
   <si>
-    <t>SERIE A - ROUND 24</t>
-  </si>
-  <si>
-    <t>JUPILER PRO LEAGUE - ROUND 8</t>
-  </si>
-  <si>
     <t>LIGUE 1 - ROUND 6</t>
   </si>
   <si>
-    <t>BUNDESLIGA - ROUND 5</t>
-  </si>
-  <si>
-    <t>SERIE A - ROUND 5</t>
+    <t>SERIE A - ROUND 6</t>
+  </si>
+  <si>
+    <t>LALIGA - ROUND 7</t>
+  </si>
+  <si>
+    <t>JUPILER PRO LEAGUE - ROUND 5</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 22</t>
   </si>
   <si>
     <t>EREDIVISIE - ROUND 6</t>
   </si>
   <si>
-    <t>LIGA PORTUGAL - ROUND 6</t>
-  </si>
-  <si>
-    <t>LALIGA - ROUND 6</t>
-  </si>
-  <si>
-    <t>PREMIER LEAGUE - ROUND 6</t>
-  </si>
-  <si>
-    <t>SERIE A - ROUND 15</t>
-  </si>
-  <si>
-    <t>Goias</t>
+    <t>EREDIVISIE - ROUND 3</t>
+  </si>
+  <si>
+    <t>LIGA PORTUGAL - ROUND 7</t>
+  </si>
+  <si>
+    <t>JUPILER PRO LEAGUE - ROUND 9</t>
+  </si>
+  <si>
+    <t>LIGUE 1 - ROUND 7</t>
+  </si>
+  <si>
+    <t>BUNDESLIGA - ROUND 6</t>
+  </si>
+  <si>
+    <t>LALIGA - ROUND 8</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 25</t>
+  </si>
+  <si>
+    <t>PREMIER LEAGUE - ROUND 7</t>
+  </si>
+  <si>
+    <t>SERIE A - ROUND 7</t>
+  </si>
+  <si>
+    <t>EREDIVISIE - ROUND 7</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>RWD Molenbeek</t>
+  </si>
+  <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>Estrela</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Eupen</t>
+  </si>
+  <si>
+    <t>OH Leuven</t>
+  </si>
+  <si>
+    <t>Mechelen</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Clermont Foot</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Koln</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Mainz 05</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Farense</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Union SG</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>NEC Nijmegen</t>
+  </si>
+  <si>
+    <t>Excelsior</t>
+  </si>
+  <si>
+    <t>Heracles Almelo</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Vitoria Guimaraes</t>
+  </si>
+  <si>
+    <t>Rio Ave</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Braga</t>
+  </si>
+  <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Anderlecht</t>
+  </si>
+  <si>
+    <t>Standard Liege</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Gremio</t>
   </si>
   <si>
     <t>Fluminense</t>
   </si>
   <si>
-    <t>Sao Paulo</t>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Atletico Mineiro</t>
+  </si>
+  <si>
+    <t>Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Paris Saint Germain</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Monchengladbach</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>Volendam</t>
+  </si>
+  <si>
+    <t>Almere City</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Sporting CP</t>
+  </si>
+  <si>
+    <t>Charleroi</t>
+  </si>
+  <si>
+    <t>Westerlo</t>
+  </si>
+  <si>
+    <t>Sint Truiden</t>
+  </si>
+  <si>
+    <t>Atletico Paranaense</t>
+  </si>
+  <si>
+    <t>America MG</t>
   </si>
   <si>
     <t>Vasco da Gama</t>
   </si>
   <si>
-    <t>Athletico Paranaense</t>
-  </si>
-  <si>
-    <t>Gremio</t>
-  </si>
-  <si>
-    <t>Standard Liege</t>
-  </si>
-  <si>
-    <t>Corinthians</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Charleroi</t>
-  </si>
-  <si>
-    <t>Mechelen</t>
-  </si>
-  <si>
-    <t>Antwerp</t>
-  </si>
-  <si>
-    <t>Atletico Mineiro</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
+    <t>Palmeiras</t>
   </si>
   <si>
     <t>Brentford</t>
   </si>
   <si>
-    <t>Burnley</t>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Brest</t>
+    <t>Werder Bremen</t>
   </si>
   <si>
     <t>Augsburg</t>
   </si>
   <si>
-    <t>Monchengladbach</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Volendam</t>
-  </si>
-  <si>
-    <t>NEC Nijmegen</t>
-  </si>
-  <si>
-    <t>Almere City</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>Fortuna Sittard</t>
+  </si>
+  <si>
+    <t>Chaves</t>
   </si>
   <si>
     <t>Estoril</t>
@@ -328,715 +703,391 @@
     <t>Moreirense</t>
   </si>
   <si>
-    <t>Casa Pia</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Genk</t>
-  </si>
-  <si>
-    <t>Cercle Brugge</t>
-  </si>
-  <si>
-    <t>Anderlecht</t>
-  </si>
-  <si>
-    <t>Gent</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Brighton and Hove Albion</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Sheffield Utd</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Paris Saint Germain</t>
-  </si>
-  <si>
-    <t>Bayer Leverkusen</t>
-  </si>
-  <si>
-    <t>Eintracht Frankfurt</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>RKC Waalwijk</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>Chaves</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Braga</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>Real Betis</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Atletico Madrid</t>
-  </si>
-  <si>
-    <t>America MG</t>
-  </si>
-  <si>
-    <t>Sporting CP</t>
-  </si>
-  <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
-    <t>Internacional</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Westerlo</t>
-  </si>
-  <si>
-    <t>Botafogo RJ</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Fortuna Sittard</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>Kortrijk</t>
-  </si>
-  <si>
-    <t>OH Leuven</t>
-  </si>
-  <si>
-    <t>RWD Molenbeek</t>
-  </si>
-  <si>
-    <t>Cuiaba</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>Nottingham Forest</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Mainz 05</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Koln</t>
-  </si>
-  <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Heracles Almelo</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Excelsior</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>Farense</t>
-  </si>
-  <si>
-    <t>Vitoria Guimaraes</t>
-  </si>
-  <si>
-    <t>Gil Vicente FC</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Sint Truiden</t>
-  </si>
-  <si>
-    <t>Union SG</t>
-  </si>
-  <si>
-    <t>Club Brugge</t>
-  </si>
-  <si>
-    <t>Eupen</t>
-  </si>
-  <si>
-    <t>Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>Newcastle United</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont Foot</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Internazionale</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>Estrela</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Granada CF</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Rio Ave</t>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>1.83</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>1.78</t>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>8.80</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>6.90</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>4.70</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>2.70</t>
   </si>
   <si>
     <t>2.45</t>
   </si>
   <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>8.30</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>5.80</t>
+  </si>
+  <si>
+    <t>5.65</t>
+  </si>
+  <si>
+    <t>7.80</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>5.40</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>8.90</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>14.50</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>7.30</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
     <t>1.63</t>
   </si>
   <si>
+    <t>2.68</t>
+  </si>
+  <si>
     <t>1.90</t>
   </si>
   <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>2.02</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>2.48</t>
-  </si>
-  <si>
     <t>2.28</t>
   </si>
   <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>1.88</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>1.80</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.70</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>1.62</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.92</t>
+    <t>2.78</t>
   </si>
   <si>
     <t>2.90</t>
   </si>
   <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>1.43</t>
-  </si>
-  <si>
-    <t>6.90</t>
-  </si>
-  <si>
-    <t>2.95</t>
-  </si>
-  <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>1.65</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>8.30</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>5.40</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>8.70</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>4.95</t>
-  </si>
-  <si>
-    <t>3.90</t>
-  </si>
-  <si>
-    <t>6.40</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>4.40</t>
-  </si>
-  <si>
-    <t>5.80</t>
-  </si>
-  <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>4.85</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>2.92</t>
-  </si>
-  <si>
-    <t>1.60</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>8.10</t>
-  </si>
-  <si>
-    <t>7.10</t>
-  </si>
-  <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>15.00</t>
+    <t>9.50</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,40 +1498,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>45189</v>
+        <v>45195</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
         <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J2" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="K2" t="s">
-        <v>315</v>
+        <v>250</v>
       </c>
       <c r="L2">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="M2">
-        <v>0.5600000000000001</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1488,40 +1539,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>45189</v>
+        <v>45195</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J3" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="K3" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L3">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="M3">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1529,13 +1580,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>45189</v>
+        <v>45195</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -1544,25 +1595,25 @@
         <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="I4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J4" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="K4" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="L4">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="M4">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1570,13 +1621,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>271</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>45190</v>
+        <v>45195</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -1585,25 +1636,25 @@
         <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J5" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="K5" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="L5">
-        <v>0.53</v>
+        <v>0.36</v>
       </c>
       <c r="M5">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1611,40 +1662,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="C6" s="2">
-        <v>45190</v>
+        <v>45196</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J6" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="K6" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="L6">
-        <v>0.46</v>
+        <v>0.74</v>
       </c>
       <c r="M6">
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1652,40 +1703,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C7" s="2">
-        <v>45190</v>
+        <v>45196</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="K7" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="L7">
-        <v>0.35</v>
+        <v>0.68</v>
       </c>
       <c r="M7">
-        <v>0.65</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1693,40 +1744,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>408</v>
+        <v>198</v>
       </c>
       <c r="C8" s="2">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="J8" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="K8" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="L8">
-        <v>0.55</v>
+        <v>0.32</v>
       </c>
       <c r="M8">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1734,40 +1785,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>412</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J9" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="K9" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="L9">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M9">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1775,40 +1826,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>367</v>
+        <v>200</v>
       </c>
       <c r="C10" s="2">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J10" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K10" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L10">
-        <v>0.62</v>
+        <v>0.33</v>
       </c>
       <c r="M10">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1816,34 +1867,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>368</v>
+        <v>201</v>
       </c>
       <c r="C11" s="2">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="I11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J11" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="K11" t="s">
-        <v>317</v>
+        <v>330</v>
+      </c>
+      <c r="L11">
+        <v>0.85</v>
+      </c>
+      <c r="M11">
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1851,40 +1908,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>369</v>
+        <v>202</v>
       </c>
       <c r="C12" s="2">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J12" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="K12" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="M12">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1892,40 +1949,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>370</v>
+        <v>203</v>
       </c>
       <c r="C13" s="2">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I13" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J13" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="K13" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="L13">
-        <v>0.5600000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="M13">
-        <v>0.44</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1933,40 +1990,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>371</v>
+        <v>204</v>
       </c>
       <c r="C14" s="2">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="I14" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J14" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="K14" t="s">
-        <v>245</v>
-      </c>
-      <c r="L14">
-        <v>0.74</v>
-      </c>
-      <c r="M14">
-        <v>0.26</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1974,40 +2025,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>534</v>
+        <v>205</v>
       </c>
       <c r="C15" s="2">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="I15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J15" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="K15" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="L15">
-        <v>0.41</v>
+        <v>0.91</v>
       </c>
       <c r="M15">
-        <v>0.59</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2015,40 +2066,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>372</v>
+        <v>206</v>
       </c>
       <c r="C16" s="2">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I16" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J16" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="K16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L16">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="M16">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2056,40 +2107,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>662</v>
+        <v>207</v>
       </c>
       <c r="C17" s="2">
-        <v>45192</v>
+        <v>45196</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="I17" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J17" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="K17" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="L17">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
       <c r="M17">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2097,40 +2148,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>663</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2">
-        <v>45192</v>
+        <v>45196</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="I18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J18" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="K18" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="L18">
-        <v>0.52</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M18">
-        <v>0.48</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2138,40 +2189,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>664</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2">
-        <v>45192</v>
+        <v>45196</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="I19" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="J19" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="K19" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="L19">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="M19">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2179,13 +2230,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>671</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2">
-        <v>45192</v>
+        <v>45196</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>44</v>
@@ -2194,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="I20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J20" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="K20" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="L20">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="M20">
-        <v>0.17</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2220,40 +2271,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>599</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2">
-        <v>45192</v>
+        <v>45196</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="I21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J21" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K21" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="L21">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="M21">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2261,34 +2312,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="C22" s="2">
-        <v>45192</v>
+        <v>45197</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="I22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J22" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="K22" t="s">
-        <v>319</v>
+        <v>329</v>
+      </c>
+      <c r="L22">
+        <v>0.31</v>
+      </c>
+      <c r="M22">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2296,40 +2353,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="C23" s="2">
-        <v>45192</v>
+        <v>45197</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J23" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="K23" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="L23">
-        <v>0.93</v>
+        <v>0.34</v>
       </c>
       <c r="M23">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2337,40 +2394,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C24" s="2">
-        <v>45192</v>
+        <v>45197</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
         <v>52</v>
       </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="I24" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J24" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="K24" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="L24">
-        <v>0.77</v>
+        <v>0.42</v>
       </c>
       <c r="M24">
-        <v>0.23</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2378,40 +2435,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="C25" s="2">
-        <v>45192</v>
+        <v>45197</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
         <v>52</v>
       </c>
-      <c r="F25" t="s">
-        <v>61</v>
-      </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="I25" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="J25" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="K25" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="L25">
-        <v>0.29</v>
+        <v>0.54</v>
       </c>
       <c r="M25">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2419,40 +2476,40 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="C26" s="2">
-        <v>45192</v>
+        <v>45197</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J26" t="s">
         <v>295</v>
       </c>
       <c r="K26" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="L26">
-        <v>0.52</v>
+        <v>0.35</v>
       </c>
       <c r="M26">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2460,40 +2517,40 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="C27" s="2">
-        <v>45192</v>
+        <v>45197</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="L27">
-        <v>0.45</v>
+        <v>0.87</v>
       </c>
       <c r="M27">
-        <v>0.55</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2501,40 +2558,40 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="C28" s="2">
-        <v>45192</v>
+        <v>45197</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J28" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="L28">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="M28">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2542,40 +2599,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="C29" s="2">
-        <v>45192</v>
+        <v>45197</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="K29" t="s">
-        <v>325</v>
-      </c>
-      <c r="L29">
-        <v>0.39</v>
-      </c>
-      <c r="M29">
-        <v>0.61</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2583,40 +2634,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="C30" s="2">
-        <v>45192</v>
+        <v>45197</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="K30" t="s">
-        <v>326</v>
-      </c>
-      <c r="L30">
-        <v>0.9</v>
-      </c>
-      <c r="M30">
-        <v>0.1</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2624,40 +2669,40 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="C31" s="2">
-        <v>45192</v>
+        <v>45197</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H31" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I31" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="K31" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="L31">
-        <v>0.74</v>
+        <v>0.35</v>
       </c>
       <c r="M31">
-        <v>0.26</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2665,40 +2710,40 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>610</v>
+        <v>743</v>
       </c>
       <c r="C32" s="2">
-        <v>45192</v>
+        <v>45198</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H32" t="s">
         <v>175</v>
       </c>
       <c r="I32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J32" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="L32">
-        <v>0.79</v>
+        <v>0.31</v>
       </c>
       <c r="M32">
-        <v>0.21</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2706,40 +2751,40 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>611</v>
+        <v>716</v>
       </c>
       <c r="C33" s="2">
-        <v>45192</v>
+        <v>45198</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H33" t="s">
         <v>176</v>
       </c>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J33" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="L33">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="M33">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2747,22 +2792,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>612</v>
+        <v>717</v>
       </c>
       <c r="C34" s="2">
-        <v>45192</v>
+        <v>45198</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H34" t="s">
         <v>177</v>
@@ -2771,16 +2816,16 @@
         <v>256</v>
       </c>
       <c r="J34" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="L34">
-        <v>0.93</v>
+        <v>0.3</v>
       </c>
       <c r="M34">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2788,22 +2833,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>613</v>
+        <v>848</v>
       </c>
       <c r="C35" s="2">
-        <v>45192</v>
+        <v>45198</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
         <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H35" t="s">
         <v>178</v>
@@ -2812,16 +2857,16 @@
         <v>257</v>
       </c>
       <c r="J35" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="L35">
-        <v>0.27</v>
+        <v>0.62</v>
       </c>
       <c r="M35">
-        <v>0.73</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2829,40 +2874,40 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>614</v>
+        <v>718</v>
       </c>
       <c r="C36" s="2">
-        <v>45192</v>
+        <v>45198</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H36" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="I36" t="s">
         <v>258</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="L36">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="M36">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2870,40 +2915,40 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>615</v>
+        <v>981</v>
       </c>
       <c r="C37" s="2">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I37" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="L37">
-        <v>0.6</v>
+        <v>0.29</v>
       </c>
       <c r="M37">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2911,40 +2956,40 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>616</v>
+        <v>982</v>
       </c>
       <c r="C38" s="2">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I38" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="J38" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="K38" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L38">
-        <v>0.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M38">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2952,40 +2997,40 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>617</v>
+        <v>983</v>
       </c>
       <c r="C39" s="2">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H39" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="I39" t="s">
         <v>260</v>
       </c>
       <c r="J39" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="L39">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="M39">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2993,40 +3038,40 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>618</v>
+        <v>993</v>
       </c>
       <c r="C40" s="2">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I40" t="s">
         <v>261</v>
       </c>
       <c r="J40" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="K40" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="L40">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="M40">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3034,40 +3079,40 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C41" s="2">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I41" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J41" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="L41">
-        <v>0.58</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M41">
-        <v>0.42</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3075,40 +3120,40 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C42" s="2">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I42" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="J42" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="K42" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="L42">
-        <v>0.62</v>
+        <v>0.37</v>
       </c>
       <c r="M42">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3116,40 +3161,40 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C43" s="2">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K43" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="L43">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="M43">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3157,40 +3202,40 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C44" s="2">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I44" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J44" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="K44" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="L44">
-        <v>0.95</v>
+        <v>0.62</v>
       </c>
       <c r="M44">
-        <v>0.05</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3198,40 +3243,40 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>619</v>
+        <v>902</v>
       </c>
       <c r="C45" s="2">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I45" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J45" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="K45" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="L45">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="M45">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3239,40 +3284,40 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>620</v>
+        <v>903</v>
       </c>
       <c r="C46" s="2">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I46" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J46" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="K46" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="L46">
-        <v>0.59</v>
+        <v>0.24</v>
       </c>
       <c r="M46">
-        <v>0.41</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3280,40 +3325,34 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>621</v>
+        <v>904</v>
       </c>
       <c r="C47" s="2">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H47" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I47" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="J47" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K47" t="s">
-        <v>320</v>
-      </c>
-      <c r="L47">
-        <v>0.9</v>
-      </c>
-      <c r="M47">
-        <v>0.1</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3321,40 +3360,40 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>622</v>
+        <v>905</v>
       </c>
       <c r="C48" s="2">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G48" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H48" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I48" t="s">
         <v>267</v>
       </c>
       <c r="J48" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="K48" t="s">
-        <v>228</v>
+        <v>311</v>
       </c>
       <c r="L48">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="M48">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3362,40 +3401,40 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1322</v>
+        <v>906</v>
       </c>
       <c r="C49" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G49" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I49" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="J49" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="K49" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="L49">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="M49">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3403,40 +3442,34 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1323</v>
+        <v>907</v>
       </c>
       <c r="C50" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F50" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H50" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I50" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="J50" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="K50" t="s">
-        <v>262</v>
-      </c>
-      <c r="L50">
-        <v>0.44</v>
-      </c>
-      <c r="M50">
-        <v>0.5600000000000001</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3444,40 +3477,40 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1324</v>
+        <v>908</v>
       </c>
       <c r="C51" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H51" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I51" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J51" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="K51" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
       <c r="L51">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
       <c r="M51">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3485,40 +3518,40 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1325</v>
+        <v>909</v>
       </c>
       <c r="C52" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H52" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I52" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J52" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K52" t="s">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="L52">
-        <v>0.86</v>
+        <v>0.46</v>
       </c>
       <c r="M52">
-        <v>0.14</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3526,40 +3559,40 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1231</v>
+        <v>910</v>
       </c>
       <c r="C53" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I53" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J53" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="K53" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
       <c r="L53">
-        <v>0.73</v>
+        <v>0.38</v>
       </c>
       <c r="M53">
-        <v>0.27</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3567,40 +3600,40 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1232</v>
+        <v>911</v>
       </c>
       <c r="C54" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H54" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I54" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J54" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K54" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="L54">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="M54">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3608,40 +3641,40 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1233</v>
+        <v>912</v>
       </c>
       <c r="C55" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
         <v>61</v>
       </c>
       <c r="G55" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I55" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="J55" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K55" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="L55">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="M55">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3649,40 +3682,40 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1234</v>
+        <v>913</v>
       </c>
       <c r="C56" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
         <v>61</v>
       </c>
       <c r="G56" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H56" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I56" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K56" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="L56">
-        <v>0.82</v>
+        <v>0.61</v>
       </c>
       <c r="M56">
-        <v>0.18</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3690,34 +3723,40 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1235</v>
+        <v>914</v>
       </c>
       <c r="C57" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s">
         <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H57" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I57" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="J57" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="K57" t="s">
-        <v>334</v>
+        <v>274</v>
+      </c>
+      <c r="L57">
+        <v>0.36</v>
+      </c>
+      <c r="M57">
+        <v>0.64</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3725,40 +3764,40 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1236</v>
+        <v>915</v>
       </c>
       <c r="C58" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H58" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I58" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J58" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="K58" t="s">
-        <v>228</v>
+        <v>344</v>
       </c>
       <c r="L58">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="M58">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3766,40 +3805,40 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1237</v>
+        <v>916</v>
       </c>
       <c r="C59" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G59" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I59" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J59" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="K59" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="L59">
-        <v>0.38</v>
+        <v>0.58</v>
       </c>
       <c r="M59">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3807,40 +3846,40 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1238</v>
+        <v>917</v>
       </c>
       <c r="C60" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G60" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H60" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I60" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J60" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="K60" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="L60">
-        <v>0.85</v>
+        <v>0.53</v>
       </c>
       <c r="M60">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3848,40 +3887,40 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1239</v>
+        <v>918</v>
       </c>
       <c r="C61" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H61" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="J61" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="K61" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="L61">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="M61">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3889,40 +3928,40 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1240</v>
+        <v>919</v>
       </c>
       <c r="C62" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G62" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H62" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="J62" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="K62" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="L62">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="M62">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3930,40 +3969,40 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1241</v>
+        <v>920</v>
       </c>
       <c r="C63" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G63" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H63" t="s">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="I63" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J63" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="K63" t="s">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="L63">
+        <v>0.23</v>
+      </c>
+      <c r="M63">
         <v>0.77</v>
-      </c>
-      <c r="M63">
-        <v>0.23</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3971,40 +4010,40 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1242</v>
+        <v>921</v>
       </c>
       <c r="C64" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
         <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G64" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H64" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="I64" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J64" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="K64" t="s">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="L64">
-        <v>0.55</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M64">
-        <v>0.45</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4012,40 +4051,40 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1243</v>
+        <v>922</v>
       </c>
       <c r="C65" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G65" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I65" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J65" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="K65" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="L65">
-        <v>0.35</v>
+        <v>0.93</v>
       </c>
       <c r="M65">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4053,40 +4092,40 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1244</v>
+        <v>923</v>
       </c>
       <c r="C66" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G66" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H66" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I66" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="J66" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="K66" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="L66">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
       <c r="M66">
-        <v>0.07000000000000001</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4094,40 +4133,40 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1245</v>
+        <v>924</v>
       </c>
       <c r="C67" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G67" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I67" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="J67" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="K67" t="s">
-        <v>249</v>
+        <v>347</v>
       </c>
       <c r="L67">
-        <v>0.47</v>
+        <v>0.76</v>
       </c>
       <c r="M67">
-        <v>0.53</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4135,40 +4174,40 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1246</v>
+        <v>925</v>
       </c>
       <c r="C68" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G68" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H68" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="I68" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="J68" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="K68" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="L68">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="M68">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4176,40 +4215,40 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1247</v>
+        <v>1324</v>
       </c>
       <c r="C69" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E69" t="s">
         <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H69" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I69" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J69" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="K69" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="L69">
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
       <c r="M69">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4217,40 +4256,40 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1248</v>
+        <v>1325</v>
       </c>
       <c r="C70" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F70" t="s">
         <v>58</v>
       </c>
       <c r="G70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H70" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I70" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="J70" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="K70" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="L70">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
       <c r="M70">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4258,40 +4297,40 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1249</v>
+        <v>1326</v>
       </c>
       <c r="C71" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F71" t="s">
         <v>58</v>
       </c>
       <c r="G71" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H71" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I71" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="J71" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="K71" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="L71">
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
       <c r="M71">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4299,40 +4338,40 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1250</v>
+        <v>926</v>
       </c>
       <c r="C72" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H72" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="I72" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="J72" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K72" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="L72">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="M72">
-        <v>0.8</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4340,40 +4379,40 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1251</v>
+        <v>927</v>
       </c>
       <c r="C73" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D73" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E73" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H73" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="I73" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="J73" t="s">
-        <v>313</v>
+        <v>254</v>
       </c>
       <c r="K73" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="L73">
-        <v>0.29</v>
+        <v>0.49</v>
       </c>
       <c r="M73">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4381,40 +4420,40 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1558</v>
+        <v>928</v>
       </c>
       <c r="C74" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H74" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="I74" t="s">
         <v>255</v>
       </c>
       <c r="J74" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="K74" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="L74">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
       <c r="M74">
-        <v>0.32</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4422,40 +4461,40 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1559</v>
+        <v>929</v>
       </c>
       <c r="C75" s="2">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H75" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="J75" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="K75" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="L75">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
       <c r="M75">
-        <v>0.74</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4463,34 +4502,34 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1560</v>
+        <v>1604</v>
       </c>
       <c r="C76" s="2">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="D76" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
         <v>59</v>
       </c>
       <c r="G76" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H76" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="I76" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="J76" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="K76" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="L76">
         <v>0.8100000000000001</v>
@@ -4504,40 +4543,40 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1252</v>
+        <v>1605</v>
       </c>
       <c r="C77" s="2">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="D77" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E77" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H77" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="I77" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="J77" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="K77" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="L77">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="M77">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4545,40 +4584,40 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1253</v>
+        <v>1606</v>
       </c>
       <c r="C78" s="2">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G78" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="I78" t="s">
+        <v>287</v>
+      </c>
+      <c r="J78" t="s">
+        <v>252</v>
+      </c>
+      <c r="K78" t="s">
         <v>232</v>
       </c>
-      <c r="J78" t="s">
-        <v>289</v>
-      </c>
-      <c r="K78" t="s">
-        <v>338</v>
-      </c>
       <c r="L78">
-        <v>0.47</v>
+        <v>0.75</v>
       </c>
       <c r="M78">
-        <v>0.53</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4586,40 +4625,40 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1254</v>
+        <v>1607</v>
       </c>
       <c r="C79" s="2">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E79" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G79" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="I79" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="J79" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="K79" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="L79">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
       <c r="M79">
-        <v>0.26</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4627,34 +4666,34 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1255</v>
+        <v>1611</v>
       </c>
       <c r="C80" s="2">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H80" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="I80" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="J80" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="K80" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4662,40 +4701,40 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1256</v>
+        <v>1612</v>
       </c>
       <c r="C81" s="2">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F81" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H81" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="I81" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="J81" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="K81" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L81">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="M81">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4703,40 +4742,40 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1730</v>
+        <v>1613</v>
       </c>
       <c r="C82" s="2">
-        <v>45194</v>
+        <v>45200</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H82" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="I82" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="J82" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K82" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="L82">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="M82">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4744,40 +4783,1006 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1776</v>
+        <v>1614</v>
       </c>
       <c r="C83" s="2">
-        <v>45194</v>
+        <v>45200</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E83" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" t="s">
+        <v>63</v>
+      </c>
+      <c r="G83" t="s">
+        <v>143</v>
+      </c>
+      <c r="H83" t="s">
+        <v>214</v>
+      </c>
+      <c r="I83" t="s">
+        <v>233</v>
+      </c>
+      <c r="J83" t="s">
+        <v>303</v>
+      </c>
+      <c r="K83" t="s">
+        <v>256</v>
+      </c>
+      <c r="L83">
+        <v>0.4</v>
+      </c>
+      <c r="M83">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1527</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D84" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" t="s">
         <v>50</v>
       </c>
-      <c r="F83" t="s">
-        <v>59</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="F84" t="s">
+        <v>64</v>
+      </c>
+      <c r="G84" t="s">
         <v>144</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H84" t="s">
+        <v>215</v>
+      </c>
+      <c r="I84" t="s">
+        <v>289</v>
+      </c>
+      <c r="J84" t="s">
+        <v>305</v>
+      </c>
+      <c r="K84" t="s">
+        <v>352</v>
+      </c>
+      <c r="L84">
+        <v>0.38</v>
+      </c>
+      <c r="M84">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1528</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D85" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" t="s">
+        <v>145</v>
+      </c>
+      <c r="H85" t="s">
+        <v>216</v>
+      </c>
+      <c r="I85" t="s">
+        <v>290</v>
+      </c>
+      <c r="J85" t="s">
+        <v>302</v>
+      </c>
+      <c r="K85" t="s">
+        <v>295</v>
+      </c>
+      <c r="L85">
+        <v>0.51</v>
+      </c>
+      <c r="M85">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1529</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D86" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F86" t="s">
+        <v>60</v>
+      </c>
+      <c r="G86" t="s">
+        <v>146</v>
+      </c>
+      <c r="H86" t="s">
+        <v>67</v>
+      </c>
+      <c r="I86" t="s">
+        <v>291</v>
+      </c>
+      <c r="J86" t="s">
+        <v>309</v>
+      </c>
+      <c r="K86" t="s">
+        <v>353</v>
+      </c>
+      <c r="L86">
+        <v>0.38</v>
+      </c>
+      <c r="M86">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1530</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" t="s">
+        <v>42</v>
+      </c>
+      <c r="F87" t="s">
+        <v>60</v>
+      </c>
+      <c r="G87" t="s">
+        <v>147</v>
+      </c>
+      <c r="H87" t="s">
+        <v>217</v>
+      </c>
+      <c r="I87" t="s">
+        <v>288</v>
+      </c>
+      <c r="J87" t="s">
+        <v>302</v>
+      </c>
+      <c r="K87" t="s">
+        <v>325</v>
+      </c>
+      <c r="L87">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M87">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1531</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" t="s">
+        <v>42</v>
+      </c>
+      <c r="F88" t="s">
+        <v>60</v>
+      </c>
+      <c r="G88" t="s">
+        <v>148</v>
+      </c>
+      <c r="H88" t="s">
+        <v>218</v>
+      </c>
+      <c r="I88" t="s">
+        <v>239</v>
+      </c>
+      <c r="J88" t="s">
+        <v>309</v>
+      </c>
+      <c r="K88" t="s">
+        <v>305</v>
+      </c>
+      <c r="L88">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M88">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1532</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" t="s">
+        <v>42</v>
+      </c>
+      <c r="F89" t="s">
+        <v>60</v>
+      </c>
+      <c r="G89" t="s">
+        <v>149</v>
+      </c>
+      <c r="H89" t="s">
+        <v>219</v>
+      </c>
+      <c r="I89" t="s">
+        <v>292</v>
+      </c>
+      <c r="J89" t="s">
+        <v>250</v>
+      </c>
+      <c r="K89" t="s">
+        <v>354</v>
+      </c>
+      <c r="L89">
+        <v>0.57</v>
+      </c>
+      <c r="M89">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1533</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F90" t="s">
+        <v>60</v>
+      </c>
+      <c r="G90" t="s">
+        <v>150</v>
+      </c>
+      <c r="H90" t="s">
+        <v>220</v>
+      </c>
+      <c r="I90" t="s">
+        <v>230</v>
+      </c>
+      <c r="J90" t="s">
+        <v>325</v>
+      </c>
+      <c r="K90" t="s">
+        <v>311</v>
+      </c>
+      <c r="L90">
+        <v>0.89</v>
+      </c>
+      <c r="M90">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1534</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" t="s">
+        <v>49</v>
+      </c>
+      <c r="F91" t="s">
+        <v>61</v>
+      </c>
+      <c r="G91" t="s">
+        <v>151</v>
+      </c>
+      <c r="H91" t="s">
+        <v>221</v>
+      </c>
+      <c r="I91" t="s">
+        <v>230</v>
+      </c>
+      <c r="J91" t="s">
+        <v>325</v>
+      </c>
+      <c r="K91" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1535</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" t="s">
+        <v>49</v>
+      </c>
+      <c r="F92" t="s">
+        <v>61</v>
+      </c>
+      <c r="G92" t="s">
+        <v>152</v>
+      </c>
+      <c r="H92" t="s">
+        <v>222</v>
+      </c>
+      <c r="I92" t="s">
+        <v>253</v>
+      </c>
+      <c r="J92" t="s">
+        <v>313</v>
+      </c>
+      <c r="K92" t="s">
+        <v>252</v>
+      </c>
+      <c r="L92">
+        <v>0.89</v>
+      </c>
+      <c r="M92">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>1536</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D93" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>65</v>
+      </c>
+      <c r="G93" t="s">
+        <v>153</v>
+      </c>
+      <c r="H93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93" t="s">
+        <v>244</v>
+      </c>
+      <c r="J93" t="s">
+        <v>301</v>
+      </c>
+      <c r="K93" t="s">
+        <v>235</v>
+      </c>
+      <c r="L93">
+        <v>0.66</v>
+      </c>
+      <c r="M93">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1537</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D94" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>65</v>
+      </c>
+      <c r="G94" t="s">
+        <v>154</v>
+      </c>
+      <c r="H94" t="s">
+        <v>91</v>
+      </c>
+      <c r="I94" t="s">
+        <v>273</v>
+      </c>
+      <c r="J94" t="s">
+        <v>305</v>
+      </c>
+      <c r="K94" t="s">
+        <v>310</v>
+      </c>
+      <c r="L94">
+        <v>0.58</v>
+      </c>
+      <c r="M94">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1538</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D95" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>65</v>
+      </c>
+      <c r="G95" t="s">
+        <v>155</v>
+      </c>
+      <c r="H95" t="s">
+        <v>68</v>
+      </c>
+      <c r="I95" t="s">
+        <v>264</v>
+      </c>
+      <c r="J95" t="s">
+        <v>310</v>
+      </c>
+      <c r="K95" t="s">
+        <v>355</v>
+      </c>
+      <c r="L95">
+        <v>0.57</v>
+      </c>
+      <c r="M95">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1539</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" t="s">
+        <v>156</v>
+      </c>
+      <c r="H96" t="s">
+        <v>89</v>
+      </c>
+      <c r="I96" t="s">
+        <v>293</v>
+      </c>
+      <c r="J96" t="s">
+        <v>317</v>
+      </c>
+      <c r="K96" t="s">
+        <v>320</v>
+      </c>
+      <c r="L96">
+        <v>0.9</v>
+      </c>
+      <c r="M96">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1540</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D97" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" t="s">
+        <v>66</v>
+      </c>
+      <c r="G97" t="s">
+        <v>157</v>
+      </c>
+      <c r="H97" t="s">
+        <v>171</v>
+      </c>
+      <c r="I97" t="s">
+        <v>294</v>
+      </c>
+      <c r="J97" t="s">
+        <v>250</v>
+      </c>
+      <c r="K97" t="s">
+        <v>355</v>
+      </c>
+      <c r="L97">
+        <v>0.53</v>
+      </c>
+      <c r="M97">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>1541</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" t="s">
+        <v>66</v>
+      </c>
+      <c r="G98" t="s">
+        <v>158</v>
+      </c>
+      <c r="H98" t="s">
+        <v>223</v>
+      </c>
+      <c r="I98" t="s">
+        <v>295</v>
+      </c>
+      <c r="J98" t="s">
+        <v>250</v>
+      </c>
+      <c r="K98" t="s">
+        <v>239</v>
+      </c>
+      <c r="L98">
+        <v>0.33</v>
+      </c>
+      <c r="M98">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>1542</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D99" t="s">
+        <v>40</v>
+      </c>
+      <c r="E99" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99" t="s">
+        <v>66</v>
+      </c>
+      <c r="G99" t="s">
+        <v>159</v>
+      </c>
+      <c r="H99" t="s">
+        <v>224</v>
+      </c>
+      <c r="I99" t="s">
+        <v>296</v>
+      </c>
+      <c r="J99" t="s">
+        <v>326</v>
+      </c>
+      <c r="K99" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>1543</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D100" t="s">
+        <v>41</v>
+      </c>
+      <c r="E100" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100" t="s">
+        <v>66</v>
+      </c>
+      <c r="G100" t="s">
+        <v>92</v>
+      </c>
+      <c r="H100" t="s">
         <v>225</v>
       </c>
-      <c r="I83" t="s">
-        <v>287</v>
-      </c>
-      <c r="J83" t="s">
-        <v>311</v>
-      </c>
-      <c r="K83" t="s">
-        <v>340</v>
-      </c>
-      <c r="L83">
-        <v>0.9</v>
-      </c>
-      <c r="M83">
-        <v>0.1</v>
+      <c r="I100" t="s">
+        <v>297</v>
+      </c>
+      <c r="J100" t="s">
+        <v>314</v>
+      </c>
+      <c r="K100" t="s">
+        <v>337</v>
+      </c>
+      <c r="L100">
+        <v>0.89</v>
+      </c>
+      <c r="M100">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>1869</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" t="s">
+        <v>58</v>
+      </c>
+      <c r="G101" t="s">
+        <v>160</v>
+      </c>
+      <c r="H101" t="s">
+        <v>226</v>
+      </c>
+      <c r="I101" t="s">
+        <v>249</v>
+      </c>
+      <c r="J101" t="s">
+        <v>307</v>
+      </c>
+      <c r="K101" t="s">
+        <v>259</v>
+      </c>
+      <c r="L101">
+        <v>0.74</v>
+      </c>
+      <c r="M101">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>1870</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" t="s">
+        <v>161</v>
+      </c>
+      <c r="H102" t="s">
+        <v>227</v>
+      </c>
+      <c r="I102" t="s">
+        <v>288</v>
+      </c>
+      <c r="J102" t="s">
+        <v>307</v>
+      </c>
+      <c r="K102" t="s">
+        <v>252</v>
+      </c>
+      <c r="L102">
+        <v>0.79</v>
+      </c>
+      <c r="M102">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>1871</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" t="s">
+        <v>58</v>
+      </c>
+      <c r="G103" t="s">
+        <v>162</v>
+      </c>
+      <c r="H103" t="s">
+        <v>228</v>
+      </c>
+      <c r="I103" t="s">
+        <v>274</v>
+      </c>
+      <c r="J103" t="s">
+        <v>278</v>
+      </c>
+      <c r="K103" t="s">
+        <v>254</v>
+      </c>
+      <c r="L103">
+        <v>0.65</v>
+      </c>
+      <c r="M103">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>1544</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>62</v>
+      </c>
+      <c r="G104" t="s">
+        <v>163</v>
+      </c>
+      <c r="H104" t="s">
+        <v>95</v>
+      </c>
+      <c r="I104" t="s">
+        <v>257</v>
+      </c>
+      <c r="J104" t="s">
+        <v>307</v>
+      </c>
+      <c r="K104" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>1545</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>62</v>
+      </c>
+      <c r="G105" t="s">
+        <v>164</v>
+      </c>
+      <c r="H105" t="s">
+        <v>96</v>
+      </c>
+      <c r="I105" t="s">
+        <v>298</v>
+      </c>
+      <c r="J105" t="s">
+        <v>254</v>
+      </c>
+      <c r="K105" t="s">
+        <v>356</v>
+      </c>
+      <c r="L105">
+        <v>0.36</v>
+      </c>
+      <c r="M105">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>1546</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>62</v>
+      </c>
+      <c r="G106" t="s">
+        <v>165</v>
+      </c>
+      <c r="H106" t="s">
+        <v>86</v>
+      </c>
+      <c r="I106" t="s">
+        <v>299</v>
+      </c>
+      <c r="J106" t="s">
+        <v>303</v>
+      </c>
+      <c r="K106" t="s">
+        <v>263</v>
+      </c>
+      <c r="L106">
+        <v>0.7</v>
+      </c>
+      <c r="M106">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>1547</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>62</v>
+      </c>
+      <c r="G107" t="s">
+        <v>166</v>
+      </c>
+      <c r="H107" t="s">
+        <v>85</v>
+      </c>
+      <c r="I107" t="s">
+        <v>300</v>
+      </c>
+      <c r="J107" t="s">
+        <v>248</v>
+      </c>
+      <c r="K107" t="s">
+        <v>357</v>
+      </c>
+      <c r="L107">
+        <v>0.92</v>
+      </c>
+      <c r="M107">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds.xlsx
+++ b/df_odds.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,56 +504,56 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45224</v>
+        <v>45227</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 29</t>
+          <t>A-LEAGUE - ROUND 2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Athletico Paranaense</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.39</v>
+        <v>0.65</v>
       </c>
       <c r="M2" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
@@ -561,56 +561,56 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45224</v>
+        <v>45227</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 29</t>
+          <t>A-LEAGUE - ROUND 2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Western Sydney Wanderers</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="M3" t="n">
-        <v>0.57</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -618,56 +618,56 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45224</v>
+        <v>45227</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 29</t>
+          <t>JUPILER PRO LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.74</v>
+        <v>0.48</v>
       </c>
       <c r="M4" t="n">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -675,56 +675,56 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45224</v>
+        <v>45227</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 29</t>
+          <t>JUPILER PRO LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
       <c r="L5" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="6">
@@ -732,56 +732,56 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45224</v>
+        <v>45227</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 29</t>
+          <t>JUPILER PRO LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="M6" t="n">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7">
@@ -789,14 +789,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45224</v>
+        <v>45227</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 29</t>
+          <t>SERIE A - ROUND 30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="8">
@@ -846,14 +846,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45224</v>
+        <v>45227</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -863,39 +863,39 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 29</t>
+          <t>SERIE A - ROUND 30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.32</v>
+        <v>0.91</v>
       </c>
       <c r="M8" t="n">
-        <v>0.68</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9">
@@ -903,14 +903,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45225</v>
+        <v>45227</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,39 +920,39 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 29</t>
+          <t>SERIE A - ROUND 30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="M9" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="10">
@@ -960,56 +960,56 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>387</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45225</v>
+        <v>45227</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 29</t>
+          <t>PREMIER LEAGUE - ROUND 10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.57</v>
+        <v>0.45</v>
       </c>
       <c r="M10" t="n">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="11">
@@ -1017,71 +1017,67 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45226</v>
+        <v>45227</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>PREMIER LEAGUE - ROUND 10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sint Truiden</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.43</v>
-      </c>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45226</v>
+        <v>45227</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1096,34 +1092,34 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="M12" t="n">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="13">
@@ -1131,56 +1127,56 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>458</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45226</v>
+        <v>45227</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>PREMIER LEAGUE - ROUND 10</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="14">
@@ -1188,56 +1184,56 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45226</v>
+        <v>45227</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>LIGUE 1 - ROUND 10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="M14" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15">
@@ -1245,109 +1241,113 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>460</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45226</v>
+        <v>45227</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>LIGUE 1 - ROUND 10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>461</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45226</v>
+        <v>45227</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>BUNDESLIGA - ROUND 9</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="M16" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -1355,56 +1355,56 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>607</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45226</v>
+        <v>45227</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>BUNDESLIGA - ROUND 9</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Monchengladbach</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="18">
@@ -1412,49 +1412,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>462</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45226</v>
+        <v>45227</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>BUNDESLIGA - ROUND 9</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -1465,56 +1465,56 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>732</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>BUNDESLIGA - ROUND 9</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="20">
@@ -1522,56 +1522,56 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>733</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>BUNDESLIGA - ROUND 9</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="M20" t="n">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="21">
@@ -1579,56 +1579,56 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>734</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>BUNDESLIGA - ROUND 9</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>0.52</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>0.48</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="22">
@@ -1636,56 +1636,56 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>751</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>SERIE A - ROUND 10</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="M22" t="n">
-        <v>0.31</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="23">
@@ -1693,56 +1693,56 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>752</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>SERIE A - ROUND 10</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0.91</v>
+        <v>0.41</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="24">
@@ -1750,56 +1750,56 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>753</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>SERIE A - ROUND 10</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>0.48</v>
+        <v>0.93</v>
       </c>
       <c r="M24" t="n">
-        <v>0.52</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -1807,56 +1807,56 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>673</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>EREDIVISIE - ROUND 10</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>0.42</v>
+        <v>0.65</v>
       </c>
       <c r="M25" t="n">
-        <v>0.58</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="26">
@@ -1864,109 +1864,113 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>674</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>EREDIVISIE - ROUND 10</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>675</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>EREDIVISIE - ROUND 10</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0.58</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="28">
@@ -1974,56 +1978,56 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>676</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>EREDIVISIE - ROUND 10</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="M28" t="n">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="29">
@@ -2031,113 +2035,109 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>677</v>
+        <v>419</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>LIGA PORTUGAL - ROUND 9</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.45</v>
-      </c>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>678</v>
+        <v>420</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>LIGA PORTUGAL - ROUND 9</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M30" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="31">
@@ -2145,56 +2145,56 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>679</v>
+        <v>421</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>LIGA PORTUGAL - ROUND 9</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>0.44</v>
+        <v>0.66</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="32">
@@ -2202,39 +2202,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>680</v>
+        <v>422</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>LIGA PORTUGAL - ROUND 9</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Monchengladbach</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2244,181 +2244,177 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.38</v>
-      </c>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>681</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>LALIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>36.00</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>682</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>LALIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.41</v>
-      </c>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>683</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>LALIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>0.41</v>
+        <v>0.63</v>
       </c>
       <c r="M35" t="n">
-        <v>0.59</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="36">
@@ -2426,109 +2422,113 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>684</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>45227</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>LALIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>A-LEAGUE - ROUND 2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>0.41</v>
+        <v>0.84</v>
       </c>
       <c r="M37" t="n">
-        <v>0.59</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="38">
@@ -2536,56 +2536,56 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>A-LEAGUE - ROUND 2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="L38" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M38" t="n">
         <v>0.42</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.58</v>
       </c>
     </row>
     <row r="39">
@@ -2593,56 +2593,56 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>A-LEAGUE - ROUND 2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
       <c r="M39" t="n">
-        <v>0.09</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="40">
@@ -2650,56 +2650,56 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>688</v>
+        <v>717</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>JUPILER PRO LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="M40" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="41">
@@ -2707,56 +2707,56 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>689</v>
+        <v>718</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>JUPILER PRO LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
       <c r="M41" t="n">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="42">
@@ -2764,56 +2764,56 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>690</v>
+        <v>719</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>JUPILER PRO LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
       <c r="M42" t="n">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="43">
@@ -2821,56 +2821,56 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>691</v>
+        <v>720</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>JUPILER PRO LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="M43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="44">
@@ -2878,56 +2878,56 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1075</v>
+        <v>738</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>SERIE A - ROUND 30</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Athletico Paranaense</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="M44" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="45">
@@ -2935,109 +2935,113 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1076</v>
+        <v>739</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>SERIE A - ROUND 30</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1077</v>
+        <v>740</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>SERIE A - ROUND 30</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>0.61</v>
+        <v>0.7</v>
       </c>
       <c r="M46" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47">
@@ -3045,56 +3049,56 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1078</v>
+        <v>741</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>SERIE A - ROUND 30</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>0.36</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M47" t="n">
-        <v>0.64</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="48">
@@ -3102,56 +3106,56 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>692</v>
+        <v>742</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>SERIE A - ROUND 30</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="M48" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="49">
@@ -3159,39 +3163,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>693</v>
+        <v>636</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>PREMIER LEAGUE - ROUND 10</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3201,7 +3205,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -3216,170 +3220,162 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>694</v>
+        <v>637</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>PREMIER LEAGUE - ROUND 10</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.37</v>
-      </c>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>695</v>
+        <v>638</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>PREMIER LEAGUE - ROUND 10</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.46</v>
-      </c>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1368</v>
+        <v>639</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>PREMIER LEAGUE - ROUND 10</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>0.45</v>
+        <v>0.89</v>
       </c>
       <c r="M52" t="n">
-        <v>0.55</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="53">
@@ -3387,56 +3383,56 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1369</v>
+        <v>640</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>PREMIER LEAGUE - ROUND 10</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="M53" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="54">
@@ -3444,56 +3440,56 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1370</v>
+        <v>641</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>LIGUE 1 - ROUND 10</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="M54" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="55">
@@ -3501,113 +3497,109 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1371</v>
+        <v>642</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>LIGUE 1 - ROUND 10</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.67</v>
-      </c>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1387</v>
+        <v>643</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>LIGUE 1 - ROUND 10</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Athletico Paranaense</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="M56" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="57">
@@ -3615,113 +3607,109 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1388</v>
+        <v>644</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>LIGUE 1 - ROUND 10</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.3</v>
-      </c>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1389</v>
+        <v>645</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>LIGUE 1 - ROUND 10</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="M58" t="n">
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="59">
@@ -3729,56 +3717,56 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1390</v>
+        <v>646</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>LIGUE 1 - ROUND 10</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="M59" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="60">
@@ -3786,56 +3774,56 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1391</v>
+        <v>647</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>BUNDESLIGA - ROUND 9</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>0.72</v>
+        <v>0.44</v>
       </c>
       <c r="M60" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="61">
@@ -3843,56 +3831,56 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1392</v>
+        <v>648</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>BUNDESLIGA - ROUND 9</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="M61" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="62">
@@ -3900,87 +3888,91 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1393</v>
+        <v>649</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>SERIE A - ROUND 10</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1289</v>
+        <v>650</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>SERIE A - ROUND 10</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3990,7 +3982,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3998,121 +3990,121 @@
           <t>3.45</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.42</v>
-      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1290</v>
+        <v>651</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>SERIE A - ROUND 10</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1291</v>
+        <v>652</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>SERIE A - ROUND 10</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="M65" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="66">
@@ -4120,56 +4112,56 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1292</v>
+        <v>653</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>EREDIVISIE - ROUND 10</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>0.92</v>
+        <v>0.45</v>
       </c>
       <c r="M66" t="n">
-        <v>0.08</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="67">
@@ -4177,109 +4169,113 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1293</v>
+        <v>654</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>EREDIVISIE - ROUND 10</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1294</v>
+        <v>655</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>EREDIVISIE - ROUND 10</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>0.34</v>
+        <v>0.63</v>
       </c>
       <c r="M68" t="n">
-        <v>0.66</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="69">
@@ -4287,109 +4283,113 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1295</v>
+        <v>656</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>EREDIVISIE - ROUND 10</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1296</v>
+        <v>1025</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>LIGA PORTUGAL - ROUND 9</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="M70" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="71">
@@ -4397,56 +4397,56 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1297</v>
+        <v>1026</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>LIGA PORTUGAL - ROUND 9</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="M71" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="72">
@@ -4454,166 +4454,166 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1298</v>
+        <v>1027</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>LIGA PORTUGAL - ROUND 9</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.16</v>
-      </c>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1299</v>
+        <v>657</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>LALIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1300</v>
+        <v>658</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>LALIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="M74" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="75">
@@ -4621,56 +4621,56 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1301</v>
+        <v>659</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>LALIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="M75" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="76">
@@ -4678,71 +4678,67 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1302</v>
+        <v>660</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>45228</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>LALIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.42</v>
-      </c>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1303</v>
+        <v>1194</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45228</v>
+        <v>45229</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4757,34 +4753,34 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>0.66</v>
+        <v>0.44</v>
       </c>
       <c r="M77" t="n">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4792,14 +4788,14 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1304</v>
+        <v>1195</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45228</v>
+        <v>45229</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4814,34 +4810,34 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="M78" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="79">
@@ -4849,166 +4845,166 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1305</v>
+        <v>1268</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45228</v>
+        <v>45229</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>LIGA PORTUGAL - ROUND 9</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1306</v>
+        <v>1196</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45228</v>
+        <v>45229</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>LALIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.53</v>
-      </c>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1307</v>
+        <v>1324</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45228</v>
+        <v>45230</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>SERIE A - ROUND 31</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>0.58</v>
+        <v>0.44</v>
       </c>
       <c r="M81" t="n">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="82">
@@ -5016,113 +5012,109 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1308</v>
+        <v>1546</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45228</v>
+        <v>45231</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>SERIE A - ROUND 31</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Atletico Paranaense</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.33</v>
-      </c>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1309</v>
+        <v>1547</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45228</v>
+        <v>45231</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>SERIE A - ROUND 31</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="M83" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="84">
@@ -5130,56 +5122,56 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1658</v>
+        <v>1548</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45228</v>
+        <v>45231</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>SERIE A - ROUND 31</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="M84" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="85">
@@ -5187,113 +5179,109 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1659</v>
+        <v>1549</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45228</v>
+        <v>45231</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>SERIE A - ROUND 31</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.57</v>
-      </c>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1660</v>
+        <v>1550</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45228</v>
+        <v>45231</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>SERIE A - ROUND 31</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>0.3</v>
+        <v>0.58</v>
       </c>
       <c r="M86" t="n">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="87">
@@ -5301,56 +5289,56 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1310</v>
+        <v>1551</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45228</v>
+        <v>45231</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>SERIE A - ROUND 31</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>0.61</v>
+        <v>0.4</v>
       </c>
       <c r="M87" t="n">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="88">
@@ -5358,39 +5346,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1311</v>
+        <v>1840</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45228</v>
+        <v>45232</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>SERIE A - ROUND 31</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5400,14 +5388,14 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="M88" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="89">
@@ -5415,110 +5403,167 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1312</v>
+        <v>1841</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45228</v>
+        <v>45232</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>SERIE A - ROUND 31</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.34</v>
-      </c>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1313</v>
+        <v>1842</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45228</v>
+        <v>45232</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>SERIE A - ROUND 31</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 3</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/df_odds.xlsx
+++ b/df_odds.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,44 +504,44 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45227</v>
+        <v>45232</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 2</t>
+          <t>SERIE A - ROUND 31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="M2" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="3">
@@ -561,56 +561,56 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45227</v>
+        <v>45232</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 2</t>
+          <t>SERIE A - ROUND 31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.65</v>
+        <v>0.47</v>
       </c>
       <c r="M3" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4">
@@ -618,56 +618,56 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45227</v>
+        <v>45232</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>SERIE A - ROUND 31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.48</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0.52</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -675,56 +675,56 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45227</v>
+        <v>45232</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>18.50</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.42</v>
+        <v>0.85</v>
       </c>
       <c r="M5" t="n">
-        <v>0.58</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -732,56 +732,56 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45227</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>A-LEAGUE - ROUND 3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.57</v>
+        <v>0.74</v>
       </c>
       <c r="M6" t="n">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -789,113 +789,109 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45227</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>JUPILER PRO LEAGUE - ROUND 13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Sint Truiden</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.29</v>
-      </c>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45227</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>LIGUE 1 - ROUND 11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -903,39 +899,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45227</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>BUNDESLIGA - ROUND 10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -945,71 +941,67 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.48</v>
-      </c>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45227</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>SERIE A - ROUND 11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="M10" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
@@ -1017,109 +1009,113 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>260</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45227</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>LIGA PORTUGAL - ROUND 10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>29.00</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45227</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>LALIGA - ROUND 12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.57</v>
+        <v>0.34</v>
       </c>
       <c r="M12" t="n">
-        <v>0.43</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="13">
@@ -1127,113 +1123,109 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>355</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>A-LEAGUE - ROUND 3</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.63</v>
-      </c>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>356</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>A-LEAGUE - ROUND 3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="M14" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="15">
@@ -1241,56 +1233,56 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>357</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>A-LEAGUE - ROUND 3</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.9</v>
+        <v>0.44</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1298,34 +1290,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>358</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>A-LEAGUE - ROUND 3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1340,14 +1332,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="17">
@@ -1355,56 +1347,56 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>376</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>JUPILER PRO LEAGUE - ROUND 13</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Monchengladbach</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="M17" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="18">
@@ -1412,109 +1404,113 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>377</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>JUPILER PRO LEAGUE - ROUND 13</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>36.00</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>JUPILER PRO LEAGUE - ROUND 13</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="M19" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="20">
@@ -1522,39 +1518,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>395</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>SERIE A - ROUND 32</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1564,14 +1560,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
       <c r="M20" t="n">
-        <v>0.52</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="21">
@@ -1579,56 +1575,56 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>396</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>SERIE A - ROUND 32</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
       <c r="L21" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="M21" t="n">
-        <v>0.19</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="22">
@@ -1636,113 +1632,109 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>397</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>SERIE A - ROUND 32</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atletico Paranaense</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.55</v>
-      </c>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>PREMIER LEAGUE - ROUND 11</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="M23" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24">
@@ -1750,56 +1742,56 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>323</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>PREMIER LEAGUE - ROUND 11</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="25">
@@ -1807,56 +1799,56 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>PREMIER LEAGUE - ROUND 11</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="M25" t="n">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="26">
@@ -1864,56 +1856,56 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>PREMIER LEAGUE - ROUND 11</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="M26" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="27">
@@ -1921,56 +1913,56 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>18</v>
+        <v>326</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>PREMIER LEAGUE - ROUND 11</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="28">
@@ -1978,166 +1970,166 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>PREMIER LEAGUE - ROUND 11</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.57</v>
-      </c>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>PREMIER LEAGUE - ROUND 11</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>420</v>
+        <v>329</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>LIGUE 1 - ROUND 11</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>0.91</v>
+        <v>0.44</v>
       </c>
       <c r="M30" t="n">
-        <v>0.09</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -2145,56 +2137,56 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>421</v>
+        <v>330</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>LIGUE 1 - ROUND 11</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="M31" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="32">
@@ -2202,219 +2194,223 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>422</v>
+        <v>331</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>BUNDESLIGA - ROUND 10</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>BUNDESLIGA - ROUND 10</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Monchengladbach</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.38</v>
-      </c>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21</v>
+        <v>333</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>BUNDESLIGA - ROUND 10</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>BUNDESLIGA - ROUND 10</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>0.63</v>
+        <v>0.16</v>
       </c>
       <c r="M35" t="n">
-        <v>0.37</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="36">
@@ -2422,39 +2418,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>BUNDESLIGA - ROUND 10</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2464,71 +2460,67 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.46</v>
-      </c>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>700</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 2</t>
+          <t>BUNDESLIGA - ROUND 10</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="M37" t="n">
-        <v>0.16</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="38">
@@ -2536,56 +2528,56 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>701</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 2</t>
+          <t>SERIE A - ROUND 11</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>0.58</v>
+        <v>0.16</v>
       </c>
       <c r="M38" t="n">
-        <v>0.42</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="39">
@@ -2593,113 +2585,109 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>702</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 2</t>
+          <t>SERIE A - ROUND 11</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.53</v>
-      </c>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>717</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>SERIE A - ROUND 11</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0.47</v>
+        <v>0.77</v>
       </c>
       <c r="M40" t="n">
-        <v>0.53</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="41">
@@ -2707,56 +2695,56 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>718</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 11</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="M41" t="n">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="42">
@@ -2764,56 +2752,56 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>719</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 11</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0.55</v>
+        <v>0.22</v>
       </c>
       <c r="M42" t="n">
-        <v>0.45</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="43">
@@ -2821,113 +2809,109 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>720</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 11</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.68</v>
-      </c>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>738</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>EREDIVISIE - ROUND 11</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Athletico Paranaense</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="M44" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="45">
@@ -2935,56 +2919,56 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>739</v>
+        <v>694</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>LIGA PORTUGAL - ROUND 10</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="M45" t="n">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="46">
@@ -2992,113 +2976,109 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>740</v>
+        <v>695</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>LIGA PORTUGAL - ROUND 10</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.3</v>
-      </c>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>741</v>
+        <v>696</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>LIGA PORTUGAL - ROUND 10</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="M47" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="48">
@@ -3106,56 +3086,56 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>742</v>
+        <v>344</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>LALIGA - ROUND 12</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="M48" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="49">
@@ -3163,56 +3143,56 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>636</v>
+        <v>345</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>LALIGA - ROUND 12</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>0.58</v>
+        <v>0.7</v>
       </c>
       <c r="M49" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="50">
@@ -3220,49 +3200,49 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>637</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>LALIGA - ROUND 12</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3273,109 +3253,113 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>638</v>
+        <v>347</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45228</v>
+        <v>45234</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>LALIGA - ROUND 12</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>639</v>
+        <v>945</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>A-LEAGUE - ROUND 3</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Western Sydney Wanderers</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>0.89</v>
+        <v>0.42</v>
       </c>
       <c r="M52" t="n">
-        <v>0.11</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="53">
@@ -3383,56 +3367,56 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>640</v>
+        <v>962</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 10</t>
+          <t>JUPILER PRO LEAGUE - ROUND 13</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="M53" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="54">
@@ -3440,56 +3424,56 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>641</v>
+        <v>963</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>JUPILER PRO LEAGUE - ROUND 13</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>0.36</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M54" t="n">
-        <v>0.64</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="55">
@@ -3497,49 +3481,49 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>642</v>
+        <v>964</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>JUPILER PRO LEAGUE - ROUND 13</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3550,56 +3534,56 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>643</v>
+        <v>965</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>JUPILER PRO LEAGUE - ROUND 13</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="M56" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="57">
@@ -3607,109 +3591,113 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>644</v>
+        <v>983</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>SERIE A - ROUND 32</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>645</v>
+        <v>984</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>SERIE A - ROUND 32</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>0.85</v>
+        <v>0.37</v>
       </c>
       <c r="M58" t="n">
-        <v>0.15</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="59">
@@ -3717,56 +3705,56 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>646</v>
+        <v>985</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>SERIE A - ROUND 32</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
       <c r="M59" t="n">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="60">
@@ -3774,56 +3762,56 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>647</v>
+        <v>986</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>SERIE A - ROUND 32</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="M60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="61">
@@ -3831,56 +3819,56 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>648</v>
+        <v>899</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 9</t>
+          <t>PREMIER LEAGUE - ROUND 11</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>0.79</v>
+        <v>0.42</v>
       </c>
       <c r="M61" t="n">
-        <v>0.21</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="62">
@@ -3888,166 +3876,166 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>649</v>
+        <v>900</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>PREMIER LEAGUE - ROUND 11</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.47</v>
-      </c>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>650</v>
+        <v>901</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>LIGUE 1 - ROUND 11</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>651</v>
+        <v>902</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>LIGUE 1 - ROUND 11</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
       <c r="M64" t="n">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="65">
@@ -4055,56 +4043,56 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>652</v>
+        <v>903</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>LIGUE 1 - ROUND 11</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
       <c r="M65" t="n">
-        <v>0.35</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="66">
@@ -4112,56 +4100,56 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>653</v>
+        <v>904</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>LIGUE 1 - ROUND 11</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>0.45</v>
+        <v>0.78</v>
       </c>
       <c r="M66" t="n">
-        <v>0.55</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="67">
@@ -4169,56 +4157,56 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>654</v>
+        <v>905</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>LIGUE 1 - ROUND 11</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="M67" t="n">
-        <v>0.43</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="68">
@@ -4226,56 +4214,56 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>655</v>
+        <v>906</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>LIGUE 1 - ROUND 11</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="M68" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="69">
@@ -4283,56 +4271,56 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>656</v>
+        <v>907</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>BUNDESLIGA - ROUND 10</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="M69" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="70">
@@ -4340,56 +4328,56 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1025</v>
+        <v>908</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>BUNDESLIGA - ROUND 10</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
       <c r="M70" t="n">
-        <v>0.41</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="71">
@@ -4397,56 +4385,56 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1026</v>
+        <v>909</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>SERIE A - ROUND 11</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="M71" t="n">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="72">
@@ -4454,109 +4442,113 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1027</v>
+        <v>910</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>SERIE A - ROUND 11</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>657</v>
+        <v>911</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>SERIE A - ROUND 11</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
       <c r="M73" t="n">
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="74">
@@ -4564,56 +4556,56 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>658</v>
+        <v>912</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>SERIE A - ROUND 11</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="M74" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="75">
@@ -4621,56 +4613,56 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>659</v>
+        <v>913</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>EREDIVISIE - ROUND 11</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>0.7</v>
+        <v>0.39</v>
       </c>
       <c r="M75" t="n">
-        <v>0.3</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="76">
@@ -4678,166 +4670,166 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>660</v>
+        <v>914</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>EREDIVISIE - ROUND 11</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1194</v>
+        <v>915</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45229</v>
+        <v>45235</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>EREDIVISIE - ROUND 11</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.5600000000000001</v>
-      </c>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1195</v>
+        <v>916</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45229</v>
+        <v>45235</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 10</t>
+          <t>EREDIVISIE - ROUND 11</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0.64</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M78" t="n">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="79">
@@ -4845,56 +4837,56 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1268</v>
+        <v>917</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45229</v>
+        <v>45235</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 9</t>
+          <t>EREDIVISIE - ROUND 11</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
       <c r="M79" t="n">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="80">
@@ -4902,109 +4894,113 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1196</v>
+        <v>1271</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45229</v>
+        <v>45235</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 11</t>
+          <t>LIGA PORTUGAL - ROUND 10</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1324</v>
+        <v>1272</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45230</v>
+        <v>45235</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 31</t>
+          <t>LIGA PORTUGAL - ROUND 10</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="M81" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="82">
@@ -5012,109 +5008,113 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1546</v>
+        <v>1273</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45231</v>
+        <v>45235</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 31</t>
+          <t>LIGA PORTUGAL - ROUND 10</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Atletico Paranaense</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1547</v>
+        <v>1274</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45231</v>
+        <v>45235</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 31</t>
+          <t>LIGA PORTUGAL - ROUND 10</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="M83" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="84">
@@ -5122,56 +5122,56 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1548</v>
+        <v>918</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45231</v>
+        <v>45235</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 31</t>
+          <t>LALIGA - ROUND 12</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="M84" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85">
@@ -5179,49 +5179,49 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1549</v>
+        <v>919</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45231</v>
+        <v>45235</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 31</t>
+          <t>LALIGA - ROUND 12</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="L85" t="inlineStr"/>
@@ -5232,56 +5232,56 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1550</v>
+        <v>920</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45231</v>
+        <v>45235</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 31</t>
+          <t>LALIGA - ROUND 12</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="M86" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="87">
@@ -5289,56 +5289,56 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1551</v>
+        <v>921</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45231</v>
+        <v>45235</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 31</t>
+          <t>LALIGA - ROUND 12</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M87" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="88">
@@ -5346,14 +5346,14 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1840</v>
+        <v>1476</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45232</v>
+        <v>45236</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5363,54 +5363,50 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 31</t>
+          <t>SERIE A - ROUND 32</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.38</v>
-      </c>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1841</v>
+        <v>1477</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45232</v>
+        <v>45236</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5420,149 +5416,320 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 31</t>
+          <t>SERIE A - ROUND 32</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
           <t>3.30</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1842</v>
+        <v>1454</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45232</v>
+        <v>45236</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 31</t>
+          <t>PREMIER LEAGUE - ROUND 11</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.19</v>
-      </c>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1828</v>
+        <v>1455</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45232</v>
+        <v>45236</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 3</t>
+          <t>SERIE A - ROUND 11</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="M91" t="n">
-        <v>0.15</v>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1456</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 11</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LIGA PORTUGAL - ROUND 10</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1457</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 12</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds.xlsx
+++ b/df_odds.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,14 +504,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45232</v>
+        <v>45238</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -521,32 +521,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 31</t>
+          <t>SERIE A - ROUND 33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -561,14 +561,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45232</v>
+        <v>45238</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -578,39 +578,39 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 31</t>
+          <t>SERIE A - ROUND 33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.47</v>
+        <v>0.77</v>
       </c>
       <c r="M3" t="n">
-        <v>0.53</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -618,10 +618,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45232</v>
+        <v>45238</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -635,39 +635,39 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 31</t>
+          <t>SERIE A - ROUND 33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Athletico Paranaense</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="M4" t="n">
-        <v>0.19</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
@@ -675,113 +675,109 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45232</v>
+        <v>45238</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 3</t>
+          <t>SERIE A - ROUND 33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>18.50</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.15</v>
-      </c>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 3</t>
+          <t>SERIE A - ROUND 33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
       <c r="M6" t="n">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
@@ -789,109 +785,113 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>160</v>
+        <v>377</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45233</v>
+        <v>45239</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 13</t>
+          <t>SERIE A - ROUND 33</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sint Truiden</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>144</v>
+        <v>378</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45233</v>
+        <v>45239</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 11</t>
+          <t>SERIE A - ROUND 33</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="9">
@@ -899,109 +899,113 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>145</v>
+        <v>379</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45233</v>
+        <v>45239</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 10</t>
+          <t>SERIE A - ROUND 33</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>146</v>
+        <v>380</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45233</v>
+        <v>45239</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 11</t>
+          <t>SERIE A - ROUND 33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="11">
@@ -1009,56 +1013,56 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>260</v>
+        <v>446</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 10</t>
+          <t>A-LEAGUE - ROUND 4</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="12">
@@ -1066,56 +1070,56 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147</v>
+        <v>457</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 12</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Sint Truiden</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.34</v>
+        <v>0.63</v>
       </c>
       <c r="M12" t="n">
-        <v>0.66</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="13">
@@ -1123,87 +1127,91 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>355</v>
+        <v>428</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45234</v>
+        <v>45240</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 3</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>356</v>
+        <v>429</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45234</v>
+        <v>45240</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 3</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Monchengladbach</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1218,14 +1226,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="M14" t="n">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15">
@@ -1233,56 +1241,56 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357</v>
+        <v>430</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45234</v>
+        <v>45240</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 3</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="16">
@@ -1290,56 +1298,56 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45234</v>
+        <v>45240</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 3</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.38</v>
+        <v>0.72</v>
       </c>
       <c r="M16" t="n">
-        <v>0.62</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="17">
@@ -1347,56 +1355,56 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45234</v>
+        <v>45240</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 13</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="M17" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="18">
@@ -1404,56 +1412,56 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>377</v>
+        <v>556</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45234</v>
+        <v>45240</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 13</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="M18" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="19">
@@ -1461,56 +1469,56 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45234</v>
+        <v>45240</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 13</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0.55</v>
+        <v>0.68</v>
       </c>
       <c r="M19" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="20">
@@ -1518,56 +1526,56 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>395</v>
+        <v>647</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 32</t>
+          <t>A-LEAGUE - ROUND 4</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
       <c r="L20" t="n">
-        <v>0.28</v>
+        <v>0.6</v>
       </c>
       <c r="M20" t="n">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -1575,44 +1583,44 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>396</v>
+        <v>648</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 32</t>
+          <t>A-LEAGUE - ROUND 4</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Western Sydney Wanderers</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1620,121 +1628,121 @@
           <t>5.00</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.43</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>397</v>
+        <v>649</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 32</t>
+          <t>A-LEAGUE - ROUND 4</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Atletico Paranaense</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>322</v>
+        <v>664</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 11</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="24">
@@ -1742,56 +1750,56 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>323</v>
+        <v>665</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 11</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>0.73</v>
+        <v>0.49</v>
       </c>
       <c r="M24" t="n">
-        <v>0.27</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="25">
@@ -1799,113 +1807,109 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>324</v>
+        <v>666</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 11</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.55</v>
-      </c>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>325</v>
+        <v>693</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="M26" t="n">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="27">
@@ -1913,56 +1917,56 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>326</v>
+        <v>694</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
@@ -1970,67 +1974,71 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>327</v>
+        <v>695</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>328</v>
+        <v>604</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2040,153 +2048,145 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 11</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.47</v>
-      </c>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>329</v>
+        <v>605</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 11</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.5600000000000001</v>
-      </c>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>330</v>
+        <v>606</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 11</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="M31" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="32">
@@ -2194,166 +2194,166 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>331</v>
+        <v>607</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 10</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.37</v>
-      </c>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>332</v>
+        <v>608</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 10</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Monchengladbach</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>333</v>
+        <v>609</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 10</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="M34" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="35">
@@ -2361,56 +2361,56 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>334</v>
+        <v>610</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 10</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>0.16</v>
+        <v>0.37</v>
       </c>
       <c r="M35" t="n">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="36">
@@ -2418,10 +2418,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>335</v>
+        <v>611</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2435,50 +2435,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 10</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>336</v>
+        <v>612</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2488,39 +2492,39 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 10</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>0.57</v>
+        <v>0.95</v>
       </c>
       <c r="M37" t="n">
-        <v>0.43</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="38">
@@ -2528,166 +2532,166 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>337</v>
+        <v>613</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 11</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.84</v>
-      </c>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>338</v>
+        <v>614</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 11</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>339</v>
+        <v>615</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 11</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0.77</v>
+        <v>0.58</v>
       </c>
       <c r="M40" t="n">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="41">
@@ -2695,56 +2699,56 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>340</v>
+        <v>616</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 11</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="M41" t="n">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="42">
@@ -2752,39 +2756,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>341</v>
+        <v>617</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 11</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2794,14 +2798,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0.22</v>
+        <v>0.86</v>
       </c>
       <c r="M42" t="n">
-        <v>0.78</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="43">
@@ -2809,67 +2813,71 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>342</v>
+        <v>618</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 11</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>343</v>
+        <v>619</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2879,22 +2887,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 11</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>Go Ahead Eagles</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Vitesse</t>
-        </is>
-      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2904,14 +2912,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="M44" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="45">
@@ -2919,56 +2927,56 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>694</v>
+        <v>620</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 10</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>0.3</v>
+        <v>0.82</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="46">
@@ -2976,67 +2984,71 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>695</v>
+        <v>621</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 10</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>696</v>
+        <v>951</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3046,96 +3058,92 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 10</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.09</v>
-      </c>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>344</v>
+        <v>952</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 12</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="M48" t="n">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="49">
@@ -3143,56 +3151,56 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>345</v>
+        <v>953</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 12</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
       <c r="M49" t="n">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="50">
@@ -3200,67 +3208,71 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>346</v>
+        <v>954</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 12</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>347</v>
+        <v>622</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3270,22 +3282,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 12</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3295,14 +3307,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="M51" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="52">
@@ -3310,56 +3322,56 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>945</v>
+        <v>623</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45235</v>
+        <v>45241</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 3</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="M52" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="53">
@@ -3367,101 +3379,97 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>962</v>
+        <v>624</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45235</v>
+        <v>45241</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 13</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.41</v>
-      </c>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>963</v>
+        <v>625</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45235</v>
+        <v>45241</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 13</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3470,10 +3478,10 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="M54" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="55">
@@ -3481,49 +3489,49 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>964</v>
+        <v>626</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45235</v>
+        <v>45241</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 13</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3534,56 +3542,56 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>965</v>
+        <v>1215</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 13</t>
+          <t>A-LEAGUE - ROUND 4</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="M56" t="n">
-        <v>0.36</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="57">
@@ -3591,113 +3599,109 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>983</v>
+        <v>1216</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 32</t>
+          <t>A-LEAGUE - ROUND 4</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.5600000000000001</v>
-      </c>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>984</v>
+        <v>1234</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 32</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="L58" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M58" t="n">
         <v>0.37</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.63</v>
       </c>
     </row>
     <row r="59">
@@ -3705,56 +3709,56 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>985</v>
+        <v>1235</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 32</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>0.51</v>
+        <v>0.77</v>
       </c>
       <c r="M59" t="n">
-        <v>0.49</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="60">
@@ -3762,56 +3766,56 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>986</v>
+        <v>1236</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 32</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="M60" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="61">
@@ -3819,106 +3823,102 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>899</v>
+        <v>1237</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 11</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.58</v>
-      </c>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>900</v>
+        <v>1253</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
@@ -3929,56 +3929,56 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>901</v>
+        <v>1254</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>0.8</v>
+        <v>0.38</v>
       </c>
       <c r="M63" t="n">
-        <v>0.2</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="64">
@@ -3986,56 +3986,56 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>902</v>
+        <v>1255</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="M64" t="n">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="65">
@@ -4043,113 +4043,109 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>903</v>
+        <v>1256</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Atletico Paranaense</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.57</v>
-      </c>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>904</v>
+        <v>1257</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>0.78</v>
+        <v>0.46</v>
       </c>
       <c r="M66" t="n">
-        <v>0.22</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="67">
@@ -4157,113 +4153,109 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>905</v>
+        <v>1258</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.29</v>
-      </c>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>906</v>
+        <v>1259</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
       <c r="M68" t="n">
-        <v>0.41</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="69">
@@ -4271,56 +4263,56 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>907</v>
+        <v>1163</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 10</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="M69" t="n">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="70">
@@ -4328,113 +4320,109 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>908</v>
+        <v>1164</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 10</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.67</v>
-      </c>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>909</v>
+        <v>1165</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 11</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="L71" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M71" t="n">
         <v>0.34</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.66</v>
       </c>
     </row>
     <row r="72">
@@ -4442,10 +4430,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>910</v>
+        <v>1166</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4454,44 +4442,44 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 11</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="M72" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="73">
@@ -4499,56 +4487,56 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>911</v>
+        <v>1167</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 11</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>0.88</v>
+        <v>0.32</v>
       </c>
       <c r="M73" t="n">
-        <v>0.12</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="74">
@@ -4556,113 +4544,109 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>912</v>
+        <v>1169</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 11</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.47</v>
-      </c>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>913</v>
+        <v>1170</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 11</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
       <c r="M75" t="n">
-        <v>0.61</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="76">
@@ -4670,56 +4654,56 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>914</v>
+        <v>1171</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 11</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="M76" t="n">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="77">
@@ -4727,109 +4711,113 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>915</v>
+        <v>1172</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 11</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>916</v>
+        <v>1173</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 11</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="M78" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="79">
@@ -4837,56 +4825,56 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>917</v>
+        <v>1174</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 11</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="M79" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="80">
@@ -4894,56 +4882,56 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1271</v>
+        <v>1175</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 10</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="M80" t="n">
-        <v>0.44</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="81">
@@ -4951,56 +4939,56 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1272</v>
+        <v>1176</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 10</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>0.43</v>
+        <v>0.77</v>
       </c>
       <c r="M81" t="n">
-        <v>0.57</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="82">
@@ -5008,56 +4996,56 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1273</v>
+        <v>1177</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 10</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>0.49</v>
+        <v>0.9</v>
       </c>
       <c r="M82" t="n">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="83">
@@ -5065,56 +5053,56 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1274</v>
+        <v>1178</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 10</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>0.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M83" t="n">
-        <v>0.11</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="84">
@@ -5122,56 +5110,56 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>918</v>
+        <v>1179</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 12</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="M84" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="85">
@@ -5179,109 +5167,113 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>919</v>
+        <v>1180</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 12</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>920</v>
+        <v>1181</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 12</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="M86" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="87">
@@ -5289,56 +5281,56 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>921</v>
+        <v>1182</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="M87" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="88">
@@ -5346,219 +5338,223 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1476</v>
+        <v>1183</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 32</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1477</v>
+        <v>1184</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 32</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.54</v>
-      </c>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1454</v>
+        <v>1185</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 11</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1455</v>
+        <v>1186</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 11</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
       <c r="M91" t="n">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="92">
@@ -5566,56 +5562,56 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1456</v>
+        <v>1537</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 11</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="M92" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="93">
@@ -5623,14 +5619,14 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1515</v>
+        <v>1538</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5640,22 +5636,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 10</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5665,14 +5661,14 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
       <c r="M93" t="n">
-        <v>0.53</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="94">
@@ -5680,56 +5676,280 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1457</v>
+        <v>1539</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>LIGA PORTUGAL - ROUND 11</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45242</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LIGA PORTUGAL - ROUND 11</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45242</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 13</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1188</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45242</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 13</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1189</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45242</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>SPAIN</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 12</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Getafe</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Cadiz</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.39</v>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 13</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds.xlsx
+++ b/df_odds.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,56 +504,56 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45238</v>
+        <v>45241</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 33</t>
+          <t>A-LEAGUE - ROUND 4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -561,49 +561,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45238</v>
+        <v>45241</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 33</t>
+          <t>A-LEAGUE - ROUND 4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Western Sydney Wanderers</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -618,56 +618,56 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45238</v>
+        <v>45241</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 33</t>
+          <t>A-LEAGUE - ROUND 4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Athletico Paranaense</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.55</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -675,109 +675,113 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45238</v>
+        <v>45241</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 33</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45238</v>
+        <v>45241</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 33</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="M6" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7">
@@ -785,56 +789,56 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>377</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45239</v>
+        <v>45241</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 33</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="M7" t="n">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="8">
@@ -842,14 +846,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45239</v>
+        <v>45241</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -859,39 +863,39 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 33</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>2.30</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
       <c r="L8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="M8" t="n">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9">
@@ -899,14 +903,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45239</v>
+        <v>45241</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,17 +920,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 33</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -936,19 +940,19 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="M9" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="10">
@@ -956,14 +960,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>380</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45239</v>
+        <v>45241</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -973,39 +977,39 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 33</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="M10" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="11">
@@ -1013,56 +1017,56 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>446</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 4</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="M11" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="12">
@@ -1070,56 +1074,56 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sint Truiden</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>18.50</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.63</v>
+        <v>0.93</v>
       </c>
       <c r="M12" t="n">
-        <v>0.37</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1127,56 +1131,56 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 12</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.33</v>
+        <v>0.63</v>
       </c>
       <c r="M13" t="n">
-        <v>0.67</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="14">
@@ -1184,67 +1188,63 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>429</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 11</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Monchengladbach</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.45</v>
-      </c>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>430</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1253,44 +1253,44 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 12</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.58</v>
+        <v>0.33</v>
       </c>
       <c r="M15" t="n">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="16">
@@ -1298,56 +1298,56 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>431</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 12</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.72</v>
+        <v>0.39</v>
       </c>
       <c r="M16" t="n">
-        <v>0.28</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="17">
@@ -1355,39 +1355,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>432</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 12</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1397,14 +1397,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.64</v>
+        <v>0.37</v>
       </c>
       <c r="M17" t="n">
-        <v>0.36</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="18">
@@ -1412,34 +1412,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>556</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 11</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1449,19 +1449,19 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="M18" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="19">
@@ -1469,56 +1469,56 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>433</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 13</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0.68</v>
+        <v>0.95</v>
       </c>
       <c r="M19" t="n">
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20">
@@ -1526,166 +1526,166 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>647</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 4</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.4</v>
-      </c>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>648</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 4</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>649</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 4</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="M22" t="n">
-        <v>0.19</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="23">
@@ -1693,56 +1693,56 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>664</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 14</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>1.65</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
       <c r="L23" t="n">
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
       <c r="M23" t="n">
-        <v>0.32</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24">
@@ -1750,56 +1750,56 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>665</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 14</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>0.49</v>
+        <v>0.87</v>
       </c>
       <c r="M24" t="n">
-        <v>0.51</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="25">
@@ -1807,7 +1807,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>666</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>45241</v>
@@ -1819,97 +1819,101 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 14</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>693</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 34</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="M26" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="27">
@@ -1917,56 +1921,56 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>694</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 34</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="28">
@@ -1974,56 +1978,56 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>695</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 34</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="M28" t="n">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="29">
@@ -2031,145 +2035,153 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>604</v>
+        <v>361</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 12</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>605</v>
+        <v>362</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 12</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>21.00</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>606</v>
+        <v>363</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 12</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2179,14 +2191,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="M31" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="32">
@@ -2194,109 +2206,113 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>607</v>
+        <v>364</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 12</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>608</v>
+        <v>19</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 12</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="M33" t="n">
-        <v>0.67</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="34">
@@ -2304,56 +2320,56 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>609</v>
+        <v>20</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 12</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="M34" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="35">
@@ -2361,113 +2377,109 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>610</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 12</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.63</v>
-      </c>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>611</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 11</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="M36" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="37">
@@ -2475,56 +2487,56 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>612</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 11</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="M37" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="38">
@@ -2532,109 +2544,113 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 11</t>
+          <t>A-LEAGUE - ROUND 4</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 11</t>
+          <t>A-LEAGUE - ROUND 4</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>0.35</v>
+        <v>0.73</v>
       </c>
       <c r="M39" t="n">
-        <v>0.65</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="40">
@@ -2642,56 +2658,56 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>615</v>
+        <v>656</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 11</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="M40" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="41">
@@ -2699,56 +2715,56 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>616</v>
+        <v>657</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 12</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0.3</v>
+        <v>0.78</v>
       </c>
       <c r="M41" t="n">
-        <v>0.7</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="42">
@@ -2756,56 +2772,56 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>617</v>
+        <v>658</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 12</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="M42" t="n">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="43">
@@ -2813,56 +2829,56 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>618</v>
+        <v>659</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 12</t>
+          <t>JUPILER PRO LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>0.64</v>
+        <v>0.97</v>
       </c>
       <c r="M43" t="n">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="44">
@@ -2870,56 +2886,56 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>619</v>
+        <v>678</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 12</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="M44" t="n">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="45">
@@ -2927,10 +2943,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>620</v>
+        <v>679</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2939,44 +2955,44 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 12</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>0.82</v>
+        <v>0.38</v>
       </c>
       <c r="M45" t="n">
-        <v>0.18</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="46">
@@ -2984,56 +3000,56 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>621</v>
+        <v>680</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 12</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
       <c r="M46" t="n">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="47">
@@ -3041,49 +3057,49 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>951</v>
+        <v>681</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Atletico Paranaense</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3094,56 +3110,56 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>952</v>
+        <v>682</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="M48" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="49">
@@ -3151,56 +3167,56 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>953</v>
+        <v>683</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="M49" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="50">
@@ -3208,56 +3224,56 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>954</v>
+        <v>684</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 11</t>
+          <t>SERIE A - ROUND 34</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="M50" t="n">
-        <v>0.67</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="51">
@@ -3265,56 +3281,56 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>622</v>
+        <v>583</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>0.51</v>
+        <v>0.84</v>
       </c>
       <c r="M51" t="n">
-        <v>0.49</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="52">
@@ -3322,166 +3338,166 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>623</v>
+        <v>584</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.63</v>
-      </c>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>624</v>
+        <v>585</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>625</v>
+        <v>586</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="M54" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="55">
@@ -3489,109 +3505,113 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>626</v>
+        <v>587</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 12</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1215</v>
+        <v>589</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 4</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>0.86</v>
+        <v>0.58</v>
       </c>
       <c r="M56" t="n">
-        <v>0.14</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="57">
@@ -3599,109 +3619,113 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1216</v>
+        <v>590</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 4</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1234</v>
+        <v>591</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 14</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="M58" t="n">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="59">
@@ -3709,56 +3733,56 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1235</v>
+        <v>592</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 14</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="M59" t="n">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="60">
@@ -3766,56 +3790,56 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1236</v>
+        <v>593</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 14</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="M60" t="n">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="61">
@@ -3823,92 +3847,96 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1237</v>
+        <v>594</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 14</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1253</v>
+        <v>595</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 34</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3918,67 +3946,71 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1254</v>
+        <v>596</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 34</t>
+          <t>BUNDESLIGA - ROUND 11</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>0.38</v>
+        <v>0.78</v>
       </c>
       <c r="M63" t="n">
-        <v>0.62</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="64">
@@ -3986,56 +4018,56 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1255</v>
+        <v>597</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 34</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="M64" t="n">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="65">
@@ -4043,109 +4075,113 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1256</v>
+        <v>598</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 34</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Atletico Paranaense</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1257</v>
+        <v>599</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 34</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="M66" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="67">
@@ -4153,109 +4189,113 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1258</v>
+        <v>600</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 34</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
           <t>2.55</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1259</v>
+        <v>601</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 34</t>
+          <t>SERIE A - ROUND 12</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>0.43</v>
+        <v>0.88</v>
       </c>
       <c r="M68" t="n">
-        <v>0.57</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="69">
@@ -4263,56 +4303,56 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1163</v>
+        <v>602</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="M69" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="70">
@@ -4320,109 +4360,113 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1164</v>
+        <v>603</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1165</v>
+        <v>604</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="M71" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="72">
@@ -4430,56 +4474,56 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1166</v>
+        <v>605</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="M72" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="73">
@@ -4487,56 +4531,56 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1167</v>
+        <v>606</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 12</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
       <c r="M73" t="n">
-        <v>0.68</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="74">
@@ -4544,109 +4588,113 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1169</v>
+        <v>964</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 12</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1170</v>
+        <v>965</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 12</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="M75" t="n">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="76">
@@ -4654,56 +4702,56 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1171</v>
+        <v>966</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 12</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="M76" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="77">
@@ -4711,56 +4759,56 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1172</v>
+        <v>967</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 12</t>
+          <t>LIGA PORTUGAL - ROUND 11</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="M77" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="78">
@@ -4768,113 +4816,109 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1173</v>
+        <v>607</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 12</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.28</v>
-      </c>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1174</v>
+        <v>608</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 11</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="M79" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="80">
@@ -4882,1073 +4926,55 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1175</v>
+        <v>609</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 11</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="M80" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1176</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>BUNDESLIGA - ROUND 11</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Freiburg</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1177</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 12</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Empoli</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1178</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 12</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Bologna</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1179</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 12</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Udinese</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1180</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 12</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Lazio</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1181</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 12</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Internazionale</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Frosinone</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1182</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>08:15</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>NETHERLANDS</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>EREDIVISIE - ROUND 12</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>PSV Eindhoven</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Zwolle</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1183</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>NETHERLANDS</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>EREDIVISIE - ROUND 12</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Almere City</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Ajax</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1184</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>NETHERLANDS</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>EREDIVISIE - ROUND 12</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Volendam</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Sparta Rotterdam</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1185</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>12:45</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>NETHERLANDS</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>EREDIVISIE - ROUND 12</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Feyenoord</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>AZ Alkmaar</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1186</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>NETHERLANDS</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>EREDIVISIE - ROUND 12</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Excelsior</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1537</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>LIGA PORTUGAL - ROUND 11</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Boavista</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Farense</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1538</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>LIGA PORTUGAL - ROUND 11</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Gil Vicente FC</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Rio Ave</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1539</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>LIGA PORTUGAL - ROUND 11</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Arouca</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Braga</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1540</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>LIGA PORTUGAL - ROUND 11</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Sporting CP</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1187</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 13</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Alaves</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1188</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 13</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Real Betis</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1189</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 13</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Atletico Madrid</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Villarreal</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="M98" t="n">
         <v>0.36</v>
       </c>
     </row>

--- a/df_odds.xlsx
+++ b/df_odds.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,56 +504,56 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45252</v>
+        <v>45265</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 33</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.51</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3">
@@ -561,67 +561,63 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45252</v>
+        <v>45265</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 32</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.2</v>
-      </c>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45253</v>
+        <v>45266</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -635,39 +631,39 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 29</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -675,10 +671,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45253</v>
+        <v>45266</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -692,39 +688,39 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="M5" t="n">
-        <v>0.31</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
@@ -732,56 +728,56 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45254</v>
+        <v>45266</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 5</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="M6" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="7">
@@ -789,56 +785,56 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45254</v>
+        <v>45266</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sint Truiden</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="8">
@@ -846,14 +842,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45254</v>
+        <v>45266</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -863,149 +859,149 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Atletico Paranaense</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.13</v>
-      </c>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45254</v>
+        <v>45266</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45254</v>
+        <v>45266</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
       <c r="M10" t="n">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
@@ -1013,109 +1009,113 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45254</v>
+        <v>45266</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>3.75</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>414</v>
+        <v>221</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45255</v>
+        <v>45266</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 5</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="M12" t="n">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="13">
@@ -1123,44 +1123,44 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415</v>
+        <v>222</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45255</v>
+        <v>45266</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 5</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.77</v>
+        <v>0.57</v>
       </c>
       <c r="M13" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="14">
@@ -1180,56 +1180,56 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>416</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45255</v>
+        <v>45266</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 5</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="M14" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
@@ -1237,56 +1237,56 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>445</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45255</v>
+        <v>45266</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
       <c r="M15" t="n">
-        <v>0.16</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="16">
@@ -1294,56 +1294,56 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>446</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45255</v>
+        <v>45266</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.51</v>
+        <v>0.76</v>
       </c>
       <c r="M16" t="n">
-        <v>0.49</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="17">
@@ -1351,113 +1351,109 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>447</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45255</v>
+        <v>45266</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.55</v>
-      </c>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>471</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45255</v>
+        <v>45266</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Athletico Paranaense</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="M18" t="n">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="19">
@@ -1465,56 +1461,56 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>472</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45255</v>
+        <v>45266</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="M19" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="20">
@@ -1522,34 +1518,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>370</v>
+        <v>178</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45255</v>
+        <v>45266</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>LIGUE 1 - ROUND 10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1559,7 +1555,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1568,10 +1564,10 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="M20" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="21">
@@ -1579,56 +1575,56 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>371</v>
+        <v>179</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45255</v>
+        <v>45266</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>EREDIVISIE - ROUND 10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>0.48</v>
+        <v>0.85</v>
       </c>
       <c r="M21" t="n">
-        <v>0.52</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22">
@@ -1636,67 +1632,71 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>372</v>
+        <v>180</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45255</v>
+        <v>45266</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>EREDIVISIE - ROUND 7</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45255</v>
+        <v>45267</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1706,39 +1706,39 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>Newcastle United</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0.78</v>
+        <v>0.38</v>
       </c>
       <c r="M23" t="n">
-        <v>0.22</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="24">
@@ -1746,14 +1746,14 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45255</v>
+        <v>45267</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1763,39 +1763,39 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>0.47</v>
+        <v>0.73</v>
       </c>
       <c r="M24" t="n">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="25">
@@ -1803,109 +1803,113 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45255</v>
+        <v>45267</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45255</v>
+        <v>45267</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0.41</v>
+        <v>0.82</v>
       </c>
       <c r="M26" t="n">
-        <v>0.59</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="27">
@@ -1913,56 +1917,56 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45255</v>
+        <v>45267</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0.36</v>
+        <v>0.93</v>
       </c>
       <c r="M27" t="n">
-        <v>0.64</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1970,56 +1974,56 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>379</v>
+        <v>517</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45255</v>
+        <v>45268</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
       <c r="M28" t="n">
-        <v>0.61</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="29">
@@ -2027,56 +2031,56 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>380</v>
+        <v>518</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45255</v>
+        <v>45268</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Monchengladbach</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>0.77</v>
+        <v>0.42</v>
       </c>
       <c r="M29" t="n">
-        <v>0.23</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="30">
@@ -2084,109 +2088,113 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>381</v>
+        <v>523</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45255</v>
+        <v>45268</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>382</v>
+        <v>504</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45255</v>
+        <v>45268</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>0.77</v>
+        <v>0.28</v>
       </c>
       <c r="M31" t="n">
-        <v>0.23</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="32">
@@ -2194,14 +2202,14 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>383</v>
+        <v>505</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45255</v>
+        <v>45268</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2211,39 +2219,39 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="M32" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="33">
@@ -2251,56 +2259,56 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>384</v>
+        <v>506</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45255</v>
+        <v>45268</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="M33" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="34">
@@ -2308,56 +2316,56 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>385</v>
+        <v>507</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45255</v>
+        <v>45268</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="M34" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="35">
@@ -2365,56 +2373,56 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>386</v>
+        <v>610</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45255</v>
+        <v>45268</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="M35" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="36">
@@ -2422,56 +2430,56 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>387</v>
+        <v>611</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45255</v>
+        <v>45268</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>0.38</v>
+        <v>0.93</v>
       </c>
       <c r="M36" t="n">
-        <v>0.62</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -2479,56 +2487,56 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>388</v>
+        <v>508</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45255</v>
+        <v>45268</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="M37" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="38">
@@ -2536,56 +2544,56 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>389</v>
+        <v>702</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45255</v>
+        <v>45269</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>0.28</v>
+        <v>0.67</v>
       </c>
       <c r="M38" t="n">
-        <v>0.72</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="39">
@@ -2593,56 +2601,56 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>390</v>
+        <v>703</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45255</v>
+        <v>45269</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="M39" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="40">
@@ -2650,49 +2658,49 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>391</v>
+        <v>714</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45255</v>
+        <v>45269</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -2707,56 +2715,56 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>392</v>
+        <v>715</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45255</v>
+        <v>45269</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sint Truiden</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0.82</v>
+        <v>0.58</v>
       </c>
       <c r="M41" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="42">
@@ -2764,56 +2772,56 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>393</v>
+        <v>716</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45255</v>
+        <v>45269</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0.47</v>
+        <v>0.77</v>
       </c>
       <c r="M42" t="n">
-        <v>0.53</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="43">
@@ -2821,56 +2829,56 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>394</v>
+        <v>666</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45255</v>
+        <v>45269</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="M43" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="44">
@@ -2878,56 +2886,56 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>395</v>
+        <v>667</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45255</v>
+        <v>45269</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
       <c r="M44" t="n">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="45">
@@ -2935,56 +2943,56 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>396</v>
+        <v>668</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45255</v>
+        <v>45269</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="M45" t="n">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="46">
@@ -2992,113 +3000,109 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>397</v>
+        <v>669</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45255</v>
+        <v>45269</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.17</v>
-      </c>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1013</v>
+        <v>670</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 5</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="M47" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="48">
@@ -3106,56 +3110,56 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1014</v>
+        <v>671</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 5</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="M48" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
@@ -3163,56 +3167,56 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1029</v>
+        <v>672</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="M49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="50">
@@ -3220,113 +3224,109 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1030</v>
+        <v>673</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.47</v>
-      </c>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1031</v>
+        <v>674</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>0.77</v>
+        <v>0.28</v>
       </c>
       <c r="M51" t="n">
-        <v>0.23</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="52">
@@ -3334,96 +3334,92 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1032</v>
+        <v>675</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.47</v>
-      </c>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1052</v>
+        <v>676</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Monchengladbach</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3433,14 +3429,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="M53" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="54">
@@ -3448,56 +3444,56 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1053</v>
+        <v>677</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="M54" t="n">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="55">
@@ -3505,56 +3501,56 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1054</v>
+        <v>678</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="M55" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56">
@@ -3562,56 +3558,56 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1055</v>
+        <v>679</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="L56" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M56" t="n">
         <v>0.42</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.58</v>
       </c>
     </row>
     <row r="57">
@@ -3619,56 +3615,56 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1056</v>
+        <v>680</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="L57" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M57" t="n">
         <v>0.72</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.28</v>
       </c>
     </row>
     <row r="58">
@@ -3676,56 +3672,56 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1057</v>
+        <v>681</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="M58" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59">
@@ -3733,56 +3729,56 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>967</v>
+        <v>682</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>0.55</v>
+        <v>0.77</v>
       </c>
       <c r="M59" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="60">
@@ -3790,56 +3786,56 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>968</v>
+        <v>683</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>0.28</v>
+        <v>0.64</v>
       </c>
       <c r="M60" t="n">
-        <v>0.72</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="61">
@@ -3847,56 +3843,56 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>969</v>
+        <v>684</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>0.71</v>
+        <v>0.52</v>
       </c>
       <c r="M61" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="62">
@@ -3904,56 +3900,56 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>970</v>
+        <v>685</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="M62" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="63">
@@ -3961,56 +3957,56 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>971</v>
+        <v>1042</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="M63" t="n">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="64">
@@ -4018,56 +4014,56 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>972</v>
+        <v>1043</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="M64" t="n">
-        <v>0.39</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="65">
@@ -4075,56 +4071,56 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>973</v>
+        <v>1044</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
       <c r="M65" t="n">
-        <v>0.38</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="66">
@@ -4132,56 +4128,56 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>974</v>
+        <v>686</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>0.34</v>
+        <v>0.59</v>
       </c>
       <c r="M66" t="n">
-        <v>0.66</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="67">
@@ -4189,56 +4185,56 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>975</v>
+        <v>687</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="M67" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="68">
@@ -4246,56 +4242,56 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>976</v>
+        <v>688</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="M68" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69">
@@ -4303,34 +4299,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>977</v>
+        <v>689</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45256</v>
+        <v>45269</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4340,19 +4336,19 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="M69" t="n">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="70">
@@ -4360,56 +4356,56 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>978</v>
+        <v>1219</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45256</v>
+        <v>45270</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>0.52</v>
+        <v>0.72</v>
       </c>
       <c r="M70" t="n">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="71">
@@ -4417,56 +4413,56 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>979</v>
+        <v>1220</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45256</v>
+        <v>45270</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Western Sydney Wanderers</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="M71" t="n">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="72">
@@ -4474,56 +4470,56 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>980</v>
+        <v>1231</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45256</v>
+        <v>45270</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
       <c r="M72" t="n">
-        <v>0.28</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="73">
@@ -4531,56 +4527,56 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>981</v>
+        <v>1232</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45256</v>
+        <v>45270</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="M73" t="n">
-        <v>0.47</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="74">
@@ -4588,56 +4584,56 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>982</v>
+        <v>1233</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45256</v>
+        <v>45270</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="M74" t="n">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="75">
@@ -4645,56 +4641,56 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>983</v>
+        <v>1234</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45256</v>
+        <v>45270</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>0.87</v>
+        <v>0.31</v>
       </c>
       <c r="M75" t="n">
-        <v>0.13</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4702,56 +4698,56 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>984</v>
+        <v>1176</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45256</v>
+        <v>45270</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="M76" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="77">
@@ -4759,39 +4755,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>985</v>
+        <v>1177</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45256</v>
+        <v>45270</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4801,14 +4797,14 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="M77" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="78">
@@ -4816,113 +4812,109 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>986</v>
+        <v>1178</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45256</v>
+        <v>45270</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.37</v>
-      </c>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>987</v>
+        <v>1179</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45256</v>
+        <v>45270</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="M79" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="80">
@@ -4930,56 +4922,56 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>988</v>
+        <v>1180</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45256</v>
+        <v>45270</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="M80" t="n">
-        <v>0.67</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="81">
@@ -4987,56 +4979,56 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>989</v>
+        <v>1181</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45256</v>
+        <v>45270</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>0.82</v>
+        <v>0.37</v>
       </c>
       <c r="M81" t="n">
-        <v>0.18</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="82">
@@ -5044,56 +5036,56 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1476</v>
+        <v>1182</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45257</v>
+        <v>45270</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="M82" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="83">
@@ -5101,39 +5093,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1453</v>
+        <v>1183</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45257</v>
+        <v>45270</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5143,14 +5135,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
       <c r="M83" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="84">
@@ -5158,56 +5150,56 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1454</v>
+        <v>1184</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45257</v>
+        <v>45270</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>0.46</v>
+        <v>0.68</v>
       </c>
       <c r="M84" t="n">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="85">
@@ -5215,10 +5207,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1455</v>
+        <v>1185</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45257</v>
+        <v>45270</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5227,44 +5219,44 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="M85" t="n">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="86">
@@ -5272,56 +5264,907 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1456</v>
+        <v>1186</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45257</v>
+        <v>45270</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA - ROUND 14</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA - ROUND 14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Koln</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1188</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 15</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1189</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 15</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 15</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1191</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 15</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>08:15</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 15</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1193</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 15</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1194</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 15</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Heracles Almelo</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1419</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LIGA PORTUGAL - ROUND 13</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>LIGA PORTUGAL - ROUND 13</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1421</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>LIGA PORTUGAL - ROUND 13</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1195</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 16</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1196</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 16</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1197</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 16</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1198</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>SPAIN</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 14</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 16</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>Girona</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Athletic Club</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.43</v>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds.xlsx
+++ b/df_odds.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,56 +504,56 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="M2" t="n">
-        <v>0.31</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -561,67 +561,71 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45266</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -636,34 +640,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="M4" t="n">
-        <v>0.52</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -671,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>45266</v>
@@ -693,22 +697,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -717,10 +721,10 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="M5" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6">
@@ -728,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>45266</v>
@@ -750,42 +754,38 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Atletico Paranaense</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.59</v>
-      </c>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>216</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>45266</v>
@@ -807,34 +807,34 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="M7" t="n">
-        <v>0.67</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -842,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>45266</v>
@@ -864,38 +864,42 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Atletico Paranaense</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>45266</v>
@@ -917,34 +921,34 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.86</v>
+        <v>0.47</v>
       </c>
       <c r="M9" t="n">
-        <v>0.14</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="10">
@@ -952,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>45266</v>
@@ -974,34 +978,34 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="11">
@@ -1009,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>45266</v>
@@ -1031,17 +1035,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1051,14 +1055,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="M11" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="12">
@@ -1066,56 +1070,56 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>45266</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 38</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="M12" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
@@ -1123,39 +1127,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>222</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>45266</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 38</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1165,14 +1169,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="M13" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="14">
@@ -1180,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>45266</v>
@@ -1202,34 +1206,34 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15">
@@ -1237,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>45266</v>
@@ -1259,49 +1263,45 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.38</v>
-      </c>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>45266</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1316,34 +1316,34 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.76</v>
+        <v>0.46</v>
       </c>
       <c r="M16" t="n">
-        <v>0.24</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="17">
@@ -1351,14 +1351,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>45266</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1373,87 +1373,91 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>175</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>45266</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>LIGUE 1 - ROUND 10</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0.46</v>
+        <v>0.68</v>
       </c>
       <c r="M18" t="n">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
@@ -1461,56 +1465,56 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>45266</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>EREDIVISIE - ROUND 10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="M19" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20">
@@ -1518,56 +1522,56 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>45266</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>EREDIVISIE - ROUND 7</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0.68</v>
+        <v>0.39</v>
       </c>
       <c r="M20" t="n">
-        <v>0.32</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="21">
@@ -1575,56 +1579,56 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>0.85</v>
+        <v>0.38</v>
       </c>
       <c r="M21" t="n">
-        <v>0.15</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="22">
@@ -1632,56 +1636,56 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 7</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>0.39</v>
+        <v>0.73</v>
       </c>
       <c r="M22" t="n">
-        <v>0.61</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="23">
@@ -1689,7 +1693,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>404</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>45267</v>
@@ -1701,44 +1705,44 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0.38</v>
+        <v>0.66</v>
       </c>
       <c r="M23" t="n">
-        <v>0.62</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="24">
@@ -1746,56 +1750,56 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>405</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>45267</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="M24" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="25">
@@ -1803,56 +1807,56 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>406</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>45267</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>0.66</v>
+        <v>0.93</v>
       </c>
       <c r="M25" t="n">
-        <v>0.34</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1860,56 +1864,56 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="M26" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="27">
@@ -1917,56 +1921,56 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0.93</v>
+        <v>0.42</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="28">
@@ -1974,56 +1978,56 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>45268</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>0.74</v>
+        <v>0.36</v>
       </c>
       <c r="M28" t="n">
-        <v>0.26</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="29">
@@ -2031,56 +2035,56 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>518</v>
+        <v>342</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>45268</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="M29" t="n">
-        <v>0.58</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="30">
@@ -2088,56 +2092,56 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>523</v>
+        <v>343</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>45268</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="M30" t="n">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="31">
@@ -2145,56 +2149,56 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>504</v>
+        <v>344</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>45268</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="M31" t="n">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="32">
@@ -2202,56 +2206,56 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>505</v>
+        <v>345</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>45268</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>0.51</v>
+        <v>0.85</v>
       </c>
       <c r="M32" t="n">
-        <v>0.49</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="33">
@@ -2259,56 +2263,56 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>45268</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="M33" t="n">
-        <v>0.59</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="34">
@@ -2316,56 +2320,56 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>45268</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="M34" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -2373,56 +2377,56 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>610</v>
+        <v>346</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>45268</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>0.34</v>
+        <v>0.62</v>
       </c>
       <c r="M35" t="n">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="36">
@@ -2430,56 +2434,56 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>611</v>
+        <v>545</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="M36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="37">
@@ -2487,56 +2491,56 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="M37" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="38">
@@ -2544,56 +2548,56 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>702</v>
+        <v>557</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="M38" t="n">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="39">
@@ -2601,56 +2605,56 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>703</v>
+        <v>558</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Sint Truiden</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>0.71</v>
+        <v>0.58</v>
       </c>
       <c r="M39" t="n">
-        <v>0.29</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="40">
@@ -2658,14 +2662,14 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>714</v>
+        <v>559</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2680,34 +2684,34 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0.48</v>
+        <v>0.77</v>
       </c>
       <c r="M40" t="n">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="41">
@@ -2715,56 +2719,56 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>715</v>
+        <v>507</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sint Truiden</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0.58</v>
+        <v>0.4</v>
       </c>
       <c r="M41" t="n">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42">
@@ -2772,56 +2776,56 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>716</v>
+        <v>508</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="M42" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="43">
@@ -2829,14 +2833,14 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>666</v>
+        <v>509</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2851,34 +2855,34 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>0.4</v>
+        <v>0.85</v>
       </c>
       <c r="M43" t="n">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="44">
@@ -2886,7 +2890,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>667</v>
+        <v>510</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>45269</v>
@@ -2908,42 +2912,38 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.15</v>
-      </c>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>668</v>
+        <v>511</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>45269</v>
@@ -2965,34 +2965,34 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="M45" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="46">
@@ -3000,14 +3000,14 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>669</v>
+        <v>512</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3022,87 +3022,91 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>670</v>
+        <v>513</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="M47" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="48">
@@ -3110,113 +3114,109 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>671</v>
+        <v>514</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.5</v>
-      </c>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>672</v>
+        <v>515</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>0.63</v>
+        <v>0.28</v>
       </c>
       <c r="M49" t="n">
-        <v>0.37</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="50">
@@ -3224,49 +3224,49 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>673</v>
+        <v>516</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3277,7 +3277,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>674</v>
+        <v>517</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>45269</v>
@@ -3299,34 +3299,34 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Monchengladbach</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>0.28</v>
+        <v>0.7</v>
       </c>
       <c r="M51" t="n">
-        <v>0.72</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52">
@@ -3334,7 +3334,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>675</v>
+        <v>518</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>45269</v>
@@ -3356,17 +3356,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3376,18 +3376,22 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>676</v>
+        <v>519</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>45269</v>
@@ -3409,34 +3413,34 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Monchengladbach</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="M53" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54">
@@ -3444,14 +3448,14 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>677</v>
+        <v>520</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3466,34 +3470,34 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="M54" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="55">
@@ -3501,56 +3505,56 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>678</v>
+        <v>521</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
       <c r="M55" t="n">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="56">
@@ -3558,56 +3562,56 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>679</v>
+        <v>522</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="M56" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57">
@@ -3615,14 +3619,14 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>680</v>
+        <v>523</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3637,34 +3641,34 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>0.28</v>
+        <v>0.77</v>
       </c>
       <c r="M57" t="n">
-        <v>0.72</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="58">
@@ -3672,56 +3676,56 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>681</v>
+        <v>524</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="M58" t="n">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="59">
@@ -3729,56 +3733,56 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>682</v>
+        <v>525</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>0.77</v>
+        <v>0.52</v>
       </c>
       <c r="M59" t="n">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="60">
@@ -3786,14 +3790,14 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>683</v>
+        <v>526</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3808,34 +3812,34 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
       <c r="M60" t="n">
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="61">
@@ -3843,56 +3847,56 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>684</v>
+        <v>888</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="M61" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="62">
@@ -3900,56 +3904,56 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>685</v>
+        <v>889</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>0.88</v>
+        <v>0.45</v>
       </c>
       <c r="M62" t="n">
-        <v>0.12</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="63">
@@ -3957,14 +3961,14 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1042</v>
+        <v>890</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3979,34 +3983,34 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>0.49</v>
+        <v>0.91</v>
       </c>
       <c r="M63" t="n">
-        <v>0.51</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="64">
@@ -4014,56 +4018,56 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1043</v>
+        <v>527</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="M64" t="n">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="65">
@@ -4071,56 +4075,56 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1044</v>
+        <v>528</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
       <c r="M65" t="n">
-        <v>0.09</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="66">
@@ -4128,14 +4132,14 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>686</v>
+        <v>529</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4150,34 +4154,34 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="M66" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67">
@@ -4185,14 +4189,14 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>687</v>
+        <v>530</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4207,34 +4211,34 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="M67" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="68">
@@ -4242,56 +4246,56 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>688</v>
+        <v>1067</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
       <c r="M68" t="n">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="69">
@@ -4299,56 +4303,56 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>689</v>
+        <v>1068</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Western Sydney Wanderers</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
       <c r="M69" t="n">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="70">
@@ -4356,56 +4360,56 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1219</v>
+        <v>1079</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
       <c r="M70" t="n">
-        <v>0.28</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="71">
@@ -4413,56 +4417,56 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1220</v>
+        <v>1080</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
       <c r="M71" t="n">
-        <v>0.24</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="72">
@@ -4470,14 +4474,14 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1231</v>
+        <v>1081</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4492,34 +4496,34 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
           <t>4.50</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="M72" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="73">
@@ -4527,14 +4531,14 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1232</v>
+        <v>1082</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4549,34 +4553,34 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="M73" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4584,56 +4588,56 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1233</v>
+        <v>1024</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c r="M74" t="n">
-        <v>0.25</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="75">
@@ -4641,56 +4645,56 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1234</v>
+        <v>1025</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>0.31</v>
+        <v>0.68</v>
       </c>
       <c r="M75" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="76">
@@ -4698,7 +4702,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1176</v>
+        <v>1026</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>45270</v>
@@ -4720,49 +4724,45 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>19.50</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.53</v>
-      </c>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1177</v>
+        <v>1027</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4777,34 +4777,34 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>0.68</v>
+        <v>0.49</v>
       </c>
       <c r="M77" t="n">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="78">
@@ -4812,109 +4812,113 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1178</v>
+        <v>1028</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1179</v>
+        <v>1029</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
       <c r="M79" t="n">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="80">
@@ -4922,14 +4926,14 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1180</v>
+        <v>1030</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4944,34 +4948,34 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="M80" t="n">
-        <v>0.35</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="81">
@@ -4979,7 +4983,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1181</v>
+        <v>1031</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>45270</v>
@@ -5001,34 +5005,34 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
       <c r="L81" t="n">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="M81" t="n">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="82">
@@ -5036,14 +5040,14 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1182</v>
+        <v>1032</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5058,34 +5062,34 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
       <c r="M82" t="n">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="83">
@@ -5093,14 +5097,14 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1183</v>
+        <v>1033</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5115,34 +5119,34 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="M83" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="84">
@@ -5150,56 +5154,56 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1184</v>
+        <v>1034</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>0.68</v>
+        <v>0.39</v>
       </c>
       <c r="M84" t="n">
-        <v>0.32</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="85">
@@ -5207,56 +5211,56 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1185</v>
+        <v>1035</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="M85" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="86">
@@ -5264,56 +5268,56 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1186</v>
+        <v>1036</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="M86" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="87">
@@ -5321,56 +5325,56 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1187</v>
+        <v>1037</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>0.52</v>
+        <v>0.74</v>
       </c>
       <c r="M87" t="n">
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="88">
@@ -5378,14 +5382,14 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1188</v>
+        <v>1038</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5400,17 +5404,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5420,7 +5424,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -5435,14 +5439,14 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1189</v>
+        <v>1039</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5457,12 +5461,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5472,19 +5476,19 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="M89" t="n">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="90">
@@ -5492,56 +5496,56 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1190</v>
+        <v>1040</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="M90" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="91">
@@ -5549,56 +5553,56 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1191</v>
+        <v>1041</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="M91" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="92">
@@ -5606,14 +5610,14 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1192</v>
+        <v>1042</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5628,17 +5632,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5648,14 +5652,14 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="M92" t="n">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="93">
@@ -5663,56 +5667,56 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1193</v>
+        <v>1277</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="M93" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94">
@@ -5720,56 +5724,56 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1194</v>
+        <v>1278</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="M94" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="95">
@@ -5777,14 +5781,14 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1419</v>
+        <v>1279</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5799,27 +5803,27 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -5834,56 +5838,56 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1420</v>
+        <v>1043</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>0.65</v>
+        <v>0.88</v>
       </c>
       <c r="M96" t="n">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="97">
@@ -5891,71 +5895,67 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1421</v>
+        <v>1044</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.5</v>
-      </c>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1195</v>
+        <v>1045</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5970,34 +5970,34 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>0.88</v>
+        <v>0.48</v>
       </c>
       <c r="M98" t="n">
-        <v>0.12</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="99">
@@ -6005,14 +6005,14 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1196</v>
+        <v>1046</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6027,41 +6027,45 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1197</v>
+        <v>1421</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>45270</v>
+        <v>45271</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6070,44 +6074,44 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="M100" t="n">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="101">
@@ -6115,56 +6119,170 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1198</v>
+        <v>1422</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>45270</v>
+        <v>45271</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 15</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1457</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>LIGA PORTUGAL - ROUND 13</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Gil Vicente FC</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1423</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>SPAIN</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>LALIGA - ROUND 16</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Girona</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.2</v>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
